--- a/data_indexpoints_tidy/tallmateriale_955.xlsx
+++ b/data_indexpoints_tidy/tallmateriale_955.xlsx
@@ -3056,6 +3056,9 @@
       <c r="M10">
         <v>19.01</v>
       </c>
+      <c r="N10">
+        <v>18.29</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3359,6 +3362,9 @@
       <c r="M19">
         <v>-5.66</v>
       </c>
+      <c r="N19">
+        <v>-0.15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3782,6 +3788,9 @@
       <c r="M28">
         <v>6.62</v>
       </c>
+      <c r="N28">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4277,6 +4286,9 @@
       <c r="M37">
         <v>4.6</v>
       </c>
+      <c r="N37">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4772,6 +4784,9 @@
       <c r="M46">
         <v>2.97</v>
       </c>
+      <c r="N46">
+        <v>3.01</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5123,6 +5138,9 @@
       <c r="M55">
         <v>-3.81</v>
       </c>
+      <c r="N55">
+        <v>-0.97</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5522,6 +5540,9 @@
       <c r="M64">
         <v>-15.41</v>
       </c>
+      <c r="N64">
+        <v>-10.12</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6011,6 +6032,9 @@
       <c r="M73">
         <v>1.07</v>
       </c>
+      <c r="N73">
+        <v>-1.18</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6446,6 +6470,9 @@
       <c r="M82">
         <v>-2.01</v>
       </c>
+      <c r="N82">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6848,6 +6875,9 @@
       <c r="H91">
         <v>-1.42</v>
       </c>
+      <c r="N91">
+        <v>7.52</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7187,6 +7217,9 @@
       <c r="M100">
         <v>-1.77</v>
       </c>
+      <c r="N100">
+        <v>-1.74</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7454,6 +7487,9 @@
       <c r="M109">
         <v>5.23</v>
       </c>
+      <c r="N109">
+        <v>-3.72</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7949,6 +7985,9 @@
       <c r="M118">
         <v>7.95</v>
       </c>
+      <c r="N118">
+        <v>4.97</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8360,6 +8399,9 @@
       <c r="M127">
         <v>4.01</v>
       </c>
+      <c r="N127">
+        <v>2.47</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9236,6 +9278,9 @@
       <c r="M145">
         <v>3.58</v>
       </c>
+      <c r="N145">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9977,6 +10022,9 @@
       <c r="M163">
         <v>-1.08</v>
       </c>
+      <c r="N163">
+        <v>12.04</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -10406,6 +10454,9 @@
       <c r="M172">
         <v>5.98</v>
       </c>
+      <c r="N172">
+        <v>4.08</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -10751,6 +10802,9 @@
       <c r="M181">
         <v>4.79</v>
       </c>
+      <c r="N181">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -11543,6 +11597,9 @@
       <c r="L199">
         <v>2.57</v>
       </c>
+      <c r="N199">
+        <v>14.47</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -12038,6 +12095,9 @@
       <c r="M208">
         <v>-1.35</v>
       </c>
+      <c r="N208">
+        <v>-2.8</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -12479,6 +12539,9 @@
       <c r="M217">
         <v>5.85</v>
       </c>
+      <c r="N217">
+        <v>5.14</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -13118,6 +13181,9 @@
       <c r="M235">
         <v>1.25</v>
       </c>
+      <c r="N235">
+        <v>-3.55</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -13529,6 +13595,9 @@
       <c r="M244">
         <v>2.27</v>
       </c>
+      <c r="N244">
+        <v>7.31</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -14267,6 +14336,9 @@
       <c r="M262">
         <v>3.94</v>
       </c>
+      <c r="N262">
+        <v>1.09</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -14719,6 +14791,9 @@
       </c>
       <c r="M271">
         <v>1.67</v>
+      </c>
+      <c r="N271">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -14988,7 +15063,7 @@
         <v>24</v>
       </c>
       <c r="G5">
-        <v>0.9616666955606249</v>
+        <v>1.043852358280498</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -15016,10 +15091,10 @@
         </is>
       </c>
       <c r="M5">
-        <v>-6.5</v>
+        <v>-6.6</v>
       </c>
       <c r="N5">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="6">
@@ -15042,7 +15117,7 @@
         <v>27</v>
       </c>
       <c r="G6">
-        <v>1.009831042665068</v>
+        <v>1.026695962145541</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -15096,7 +15171,7 @@
         <v>26</v>
       </c>
       <c r="G7">
-        <v>2.042077168605274</v>
+        <v>2.044382178027924</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -15150,7 +15225,7 @@
         <v>27</v>
       </c>
       <c r="G8">
-        <v>0.8732911058846363</v>
+        <v>0.8737792967981944</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -15204,7 +15279,7 @@
         <v>28</v>
       </c>
       <c r="G9">
-        <v>0.7156107373749606</v>
+        <v>0.7134801969679149</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -15246,19 +15321,19 @@
         <v>2025</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>1.7</v>
       </c>
       <c r="E10">
-        <v>1.0174</v>
+        <v>1.0173</v>
       </c>
       <c r="F10">
         <v>28</v>
       </c>
       <c r="G10">
-        <v>0.6308833365490334</v>
+        <v>0.6256724722530927</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -15277,12 +15352,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>sep</t>
+          <t>okt</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>jan-sep</t>
+          <t>jan-okt</t>
         </is>
       </c>
       <c r="M10">
@@ -15420,7 +15495,7 @@
         <v>27</v>
       </c>
       <c r="G13">
-        <v>2.904570232018346</v>
+        <v>2.93080954143541</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -15474,7 +15549,7 @@
         <v>27</v>
       </c>
       <c r="G14">
-        <v>3.071007915341148</v>
+        <v>3.100913941471679</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -15502,10 +15577,10 @@
         </is>
       </c>
       <c r="M14">
-        <v>-13.4</v>
+        <v>-13.5</v>
       </c>
       <c r="N14">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="15">
@@ -15528,7 +15603,7 @@
         <v>27</v>
       </c>
       <c r="G15">
-        <v>3.713868662481316</v>
+        <v>3.741767034758741</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -15582,7 +15657,7 @@
         <v>27</v>
       </c>
       <c r="G16">
-        <v>3.869434385844403</v>
+        <v>3.897232583219754</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -15636,7 +15711,7 @@
         <v>28</v>
       </c>
       <c r="G17">
-        <v>3.954293137460395</v>
+        <v>3.981442350186389</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -15677,7 +15752,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M247"/>
+  <dimension ref="A1:M250"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19985,55 +20060,55 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.9710468619357012</v>
+        <v>1.026144951053628</v>
       </c>
       <c r="B96">
-        <v>-2.895313806429878</v>
+        <v>2.61449510536278</v>
       </c>
       <c r="C96">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D96">
-        <v>15.85597785867931</v>
+        <v>17.87589620808778</v>
       </c>
       <c r="E96">
-        <v>8.024286884417938</v>
+        <v>13.73866406260308</v>
       </c>
       <c r="F96">
-        <v>2.015161845901169</v>
+        <v>3.249455487027535</v>
       </c>
       <c r="G96">
-        <v>-7.1</v>
+        <v>-4.2</v>
       </c>
       <c r="H96">
-        <v>1.3</v>
+        <v>9.4</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2016 - (jan 2017 - des 2018)</t>
+          <t>2016 - (nov 2024 - okt 2025)</t>
         </is>
       </c>
       <c r="J96" s="2">
-        <v>43435</v>
+        <v>45931</v>
       </c>
       <c r="K96">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L96">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>24_months</t>
+          <t>12_months</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.9707024725464798</v>
+        <v>0.9710468619357012</v>
       </c>
       <c r="B97">
-        <v>-2.929752745352021</v>
+        <v>-2.895313806429878</v>
       </c>
       <c r="C97">
         <v>19</v>
@@ -20042,30 +20117,30 @@
         <v>15.85597785867931</v>
       </c>
       <c r="E97">
-        <v>8.019123704857787</v>
+        <v>8.024286884417938</v>
       </c>
       <c r="F97">
-        <v>2.01386520202452</v>
+        <v>2.015161845901169</v>
       </c>
       <c r="G97">
-        <v>-7.2</v>
+        <v>-7.1</v>
       </c>
       <c r="H97">
         <v>1.3</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2016 - (feb 2017 - jan 2019)</t>
+          <t>2016 - (jan 2017 - des 2018)</t>
         </is>
       </c>
       <c r="J97" s="2">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="K97">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L97">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
@@ -20075,10 +20150,10 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.9703150344836057</v>
+        <v>0.9707024725464798</v>
       </c>
       <c r="B98">
-        <v>-2.968496551639432</v>
+        <v>-2.929752745352021</v>
       </c>
       <c r="C98">
         <v>19</v>
@@ -20087,10 +20162,10 @@
         <v>15.85597785867931</v>
       </c>
       <c r="E98">
-        <v>8.008778565887392</v>
+        <v>8.019123704857787</v>
       </c>
       <c r="F98">
-        <v>2.011267198034387</v>
+        <v>2.01386520202452</v>
       </c>
       <c r="G98">
         <v>-7.2</v>
@@ -20100,14 +20175,14 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2016 - (mar 2017 - feb 2019)</t>
+          <t>2016 - (feb 2017 - jan 2019)</t>
         </is>
       </c>
       <c r="J98" s="2">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="K98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L98">
         <v>2019</v>
@@ -20120,10 +20195,10 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.9690376478788734</v>
+        <v>0.9703150344836057</v>
       </c>
       <c r="B99">
-        <v>-3.096235212112664</v>
+        <v>-2.968496551639432</v>
       </c>
       <c r="C99">
         <v>19</v>
@@ -20132,27 +20207,27 @@
         <v>15.85597785867931</v>
       </c>
       <c r="E99">
-        <v>7.98591244001933</v>
+        <v>8.008778565887392</v>
       </c>
       <c r="F99">
-        <v>2.005524763214121</v>
+        <v>2.011267198034387</v>
       </c>
       <c r="G99">
-        <v>-7.3</v>
+        <v>-7.2</v>
       </c>
       <c r="H99">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2016 - (apr 2017 - mar 2019)</t>
+          <t>2016 - (mar 2017 - feb 2019)</t>
         </is>
       </c>
       <c r="J99" s="2">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="K99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L99">
         <v>2019</v>
@@ -20165,10 +20240,10 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.9699969296210856</v>
+        <v>0.9690376478788734</v>
       </c>
       <c r="B100">
-        <v>-3.000307037891436</v>
+        <v>-3.096235212112664</v>
       </c>
       <c r="C100">
         <v>19</v>
@@ -20177,27 +20252,27 @@
         <v>15.85597785867931</v>
       </c>
       <c r="E100">
-        <v>7.898832480577641</v>
+        <v>7.98591244001933</v>
       </c>
       <c r="F100">
-        <v>1.983656126868345</v>
+        <v>2.005524763214121</v>
       </c>
       <c r="G100">
-        <v>-7.2</v>
+        <v>-7.3</v>
       </c>
       <c r="H100">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2016 - (mai 2017 - apr 2019)</t>
+          <t>2016 - (apr 2017 - mar 2019)</t>
         </is>
       </c>
       <c r="J100" s="2">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="K100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L100">
         <v>2019</v>
@@ -20210,39 +20285,39 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.9684088121409516</v>
+        <v>0.9699969296210856</v>
       </c>
       <c r="B101">
-        <v>-3.159118785904835</v>
+        <v>-3.000307037891436</v>
       </c>
       <c r="C101">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D101">
-        <v>15.46070630568147</v>
+        <v>15.85597785867931</v>
       </c>
       <c r="E101">
-        <v>7.581477961922743</v>
+        <v>7.898832480577641</v>
       </c>
       <c r="F101">
-        <v>1.928142874299848</v>
+        <v>1.983656126868345</v>
       </c>
       <c r="G101">
         <v>-7.2</v>
       </c>
       <c r="H101">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2016 - (jun 2017 - mai 2019)</t>
+          <t>2016 - (mai 2017 - apr 2019)</t>
         </is>
       </c>
       <c r="J101" s="2">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="K101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L101">
         <v>2019</v>
@@ -20255,39 +20330,39 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.9704055395776459</v>
+        <v>0.9684088121409516</v>
       </c>
       <c r="B102">
-        <v>-2.959446042235414</v>
+        <v>-3.159118785904835</v>
       </c>
       <c r="C102">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D102">
-        <v>14.48234754371101</v>
+        <v>15.46070630568147</v>
       </c>
       <c r="E102">
-        <v>7.331277673531565</v>
+        <v>7.581477961922743</v>
       </c>
       <c r="F102">
-        <v>1.926460843444459</v>
+        <v>1.928142874299848</v>
       </c>
       <c r="G102">
-        <v>-7</v>
+        <v>-7.2</v>
       </c>
       <c r="H102">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2016 - (jul 2017 - jun 2019)</t>
+          <t>2016 - (jun 2017 - mai 2019)</t>
         </is>
       </c>
       <c r="J102" s="2">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="K102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L102">
         <v>2019</v>
@@ -20300,10 +20375,10 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.9706673327583824</v>
+        <v>0.9704055395776459</v>
       </c>
       <c r="B103">
-        <v>-2.933266724161765</v>
+        <v>-2.959446042235414</v>
       </c>
       <c r="C103">
         <v>17</v>
@@ -20312,27 +20387,27 @@
         <v>14.48234754371101</v>
       </c>
       <c r="E103">
-        <v>6.98982883836526</v>
+        <v>7.331277673531565</v>
       </c>
       <c r="F103">
-        <v>1.836737354541229</v>
+        <v>1.926460843444459</v>
       </c>
       <c r="G103">
-        <v>-6.8</v>
+        <v>-7</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2016 - (aug 2017 - jul 2019)</t>
+          <t>2016 - (jul 2017 - jun 2019)</t>
         </is>
       </c>
       <c r="J103" s="2">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="K103">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L103">
         <v>2019</v>
@@ -20345,39 +20420,39 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.9750331445614941</v>
+        <v>0.9706673327583824</v>
       </c>
       <c r="B104">
-        <v>-2.496685543850585</v>
+        <v>-2.933266724161765</v>
       </c>
       <c r="C104">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D104">
-        <v>13.49793435042139</v>
+        <v>14.48234754371101</v>
       </c>
       <c r="E104">
-        <v>6.574375516450938</v>
+        <v>6.98982883836526</v>
       </c>
       <c r="F104">
-        <v>1.789455285452538</v>
+        <v>1.836737354541229</v>
       </c>
       <c r="G104">
-        <v>-6.3</v>
+        <v>-6.8</v>
       </c>
       <c r="H104">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2016 - (sep 2017 - aug 2019)</t>
+          <t>2016 - (aug 2017 - jul 2019)</t>
         </is>
       </c>
       <c r="J104" s="2">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="K104">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L104">
         <v>2019</v>
@@ -20390,39 +20465,39 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.9697822591977154</v>
+        <v>0.9750331445614941</v>
       </c>
       <c r="B105">
-        <v>-3.021774080228457</v>
+        <v>-2.496685543850585</v>
       </c>
       <c r="C105">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D105">
-        <v>12.74436540910119</v>
+        <v>13.49793435042139</v>
       </c>
       <c r="E105">
-        <v>6.047813825337393</v>
+        <v>6.574375516450938</v>
       </c>
       <c r="F105">
-        <v>1.694101027603088</v>
+        <v>1.789455285452538</v>
       </c>
       <c r="G105">
-        <v>-6.7</v>
+        <v>-6.3</v>
       </c>
       <c r="H105">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2016 - (okt 2017 - sep 2019)</t>
+          <t>2016 - (sep 2017 - aug 2019)</t>
         </is>
       </c>
       <c r="J105" s="2">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="K105">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L105">
         <v>2019</v>
@@ -20435,10 +20510,10 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.9704303095388451</v>
+        <v>0.9697822591977154</v>
       </c>
       <c r="B106">
-        <v>-2.956969046115487</v>
+        <v>-3.021774080228457</v>
       </c>
       <c r="C106">
         <v>15</v>
@@ -20447,27 +20522,27 @@
         <v>12.74436540910119</v>
       </c>
       <c r="E106">
-        <v>5.868227074056673</v>
+        <v>6.047813825337393</v>
       </c>
       <c r="F106">
-        <v>1.643795560425187</v>
+        <v>1.694101027603088</v>
       </c>
       <c r="G106">
-        <v>-6.5</v>
+        <v>-6.7</v>
       </c>
       <c r="H106">
         <v>0.6</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2016 - (nov 2017 - okt 2019)</t>
+          <t>2016 - (okt 2017 - sep 2019)</t>
         </is>
       </c>
       <c r="J106" s="2">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="K106">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L106">
         <v>2019</v>
@@ -20480,10 +20555,10 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.9703034529470306</v>
+        <v>0.9704303095388451</v>
       </c>
       <c r="B107">
-        <v>-2.969654705296942</v>
+        <v>-2.956969046115487</v>
       </c>
       <c r="C107">
         <v>15</v>
@@ -20492,27 +20567,27 @@
         <v>12.74436540910119</v>
       </c>
       <c r="E107">
-        <v>5.764194927237705</v>
+        <v>5.868227074056673</v>
       </c>
       <c r="F107">
-        <v>1.614654291874325</v>
+        <v>1.643795560425187</v>
       </c>
       <c r="G107">
-        <v>-6.4</v>
+        <v>-6.5</v>
       </c>
       <c r="H107">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2016 - (des 2017 - nov 2019)</t>
+          <t>2016 - (nov 2017 - okt 2019)</t>
         </is>
       </c>
       <c r="J107" s="2">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="K107">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L107">
         <v>2019</v>
@@ -20525,10 +20600,10 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.9699142785578014</v>
+        <v>0.9703034529470306</v>
       </c>
       <c r="B108">
-        <v>-3.008572144219857</v>
+        <v>-2.969654705296942</v>
       </c>
       <c r="C108">
         <v>15</v>
@@ -20537,27 +20612,27 @@
         <v>12.74436540910119</v>
       </c>
       <c r="E108">
-        <v>5.678657645716405</v>
+        <v>5.764194927237705</v>
       </c>
       <c r="F108">
-        <v>1.590693766516135</v>
+        <v>1.614654291874325</v>
       </c>
       <c r="G108">
         <v>-6.4</v>
       </c>
       <c r="H108">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2016 - (jan 2018 - des 2019)</t>
+          <t>2016 - (des 2017 - nov 2019)</t>
         </is>
       </c>
       <c r="J108" s="2">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="K108">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L108">
         <v>2019</v>
@@ -20570,10 +20645,10 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.971625367470648</v>
+        <v>0.9699142785578014</v>
       </c>
       <c r="B109">
-        <v>-2.837463252935202</v>
+        <v>-3.008572144219857</v>
       </c>
       <c r="C109">
         <v>15</v>
@@ -20582,30 +20657,30 @@
         <v>12.74436540910119</v>
       </c>
       <c r="E109">
-        <v>5.647634437497139</v>
+        <v>5.678657645716405</v>
       </c>
       <c r="F109">
-        <v>1.582003609966736</v>
+        <v>1.590693766516135</v>
       </c>
       <c r="G109">
-        <v>-6.2</v>
+        <v>-6.4</v>
       </c>
       <c r="H109">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2016 - (feb 2018 - jan 2020)</t>
+          <t>2016 - (jan 2018 - des 2019)</t>
         </is>
       </c>
       <c r="J109" s="2">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="K109">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L109">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -20615,39 +20690,39 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.9801703307886801</v>
+        <v>0.971625367470648</v>
       </c>
       <c r="B110">
-        <v>-1.98296692113199</v>
+        <v>-2.837463252935202</v>
       </c>
       <c r="C110">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D110">
-        <v>13.74234275437077</v>
+        <v>12.74436540910119</v>
       </c>
       <c r="E110">
-        <v>5.962417271715874</v>
+        <v>5.647634437497139</v>
       </c>
       <c r="F110">
-        <v>1.608392273445882</v>
+        <v>1.582003609966736</v>
       </c>
       <c r="G110">
-        <v>-5.4</v>
+        <v>-6.2</v>
       </c>
       <c r="H110">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2016 - (mar 2018 - feb 2020)</t>
+          <t>2016 - (feb 2018 - jan 2020)</t>
         </is>
       </c>
       <c r="J110" s="2">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="K110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L110">
         <v>2020</v>
@@ -20660,10 +20735,10 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.9741024818202622</v>
+        <v>0.9801703307886801</v>
       </c>
       <c r="B111">
-        <v>-2.589751817973784</v>
+        <v>-1.98296692113199</v>
       </c>
       <c r="C111">
         <v>16</v>
@@ -20672,27 +20747,27 @@
         <v>13.74234275437077</v>
       </c>
       <c r="E111">
-        <v>5.968178180558724</v>
+        <v>5.962417271715874</v>
       </c>
       <c r="F111">
-        <v>1.609946307799502</v>
+        <v>1.608392273445882</v>
       </c>
       <c r="G111">
-        <v>-6</v>
+        <v>-5.4</v>
       </c>
       <c r="H111">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2016 - (apr 2018 - mar 2020)</t>
+          <t>2016 - (mar 2018 - feb 2020)</t>
         </is>
       </c>
       <c r="J111" s="2">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="K111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L111">
         <v>2020</v>
@@ -20705,39 +20780,39 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.9682403881324299</v>
+        <v>0.9741024818202622</v>
       </c>
       <c r="B112">
-        <v>-3.175961186757015</v>
+        <v>-2.589751817973784</v>
       </c>
       <c r="C112">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D112">
-        <v>12.7603248224164</v>
+        <v>13.74234275437077</v>
       </c>
       <c r="E112">
-        <v>6.168314328531091</v>
+        <v>5.968178180558724</v>
       </c>
       <c r="F112">
-        <v>1.726774520375962</v>
+        <v>1.609946307799502</v>
       </c>
       <c r="G112">
-        <v>-6.9</v>
+        <v>-6</v>
       </c>
       <c r="H112">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2016 - (mai 2018 - apr 2020)</t>
+          <t>2016 - (apr 2018 - mar 2020)</t>
         </is>
       </c>
       <c r="J112" s="2">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="K112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L112">
         <v>2020</v>
@@ -20750,10 +20825,10 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.9652250309437069</v>
+        <v>0.9682403881324299</v>
       </c>
       <c r="B113">
-        <v>-3.477496905629307</v>
+        <v>-3.175961186757015</v>
       </c>
       <c r="C113">
         <v>15</v>
@@ -20762,27 +20837,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E113">
-        <v>6.19230143829599</v>
+        <v>6.168314328531091</v>
       </c>
       <c r="F113">
-        <v>1.733489536465188</v>
+        <v>1.726774520375962</v>
       </c>
       <c r="G113">
-        <v>-7.2</v>
+        <v>-6.9</v>
       </c>
       <c r="H113">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2016 - (jun 2018 - mai 2020)</t>
+          <t>2016 - (mai 2018 - apr 2020)</t>
         </is>
       </c>
       <c r="J113" s="2">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="K113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L113">
         <v>2020</v>
@@ -20795,10 +20870,10 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.9655746339629433</v>
+        <v>0.9652250309437069</v>
       </c>
       <c r="B114">
-        <v>-3.44253660370567</v>
+        <v>-3.477496905629307</v>
       </c>
       <c r="C114">
         <v>15</v>
@@ -20807,27 +20882,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E114">
-        <v>6.285783705223438</v>
+        <v>6.19230143829599</v>
       </c>
       <c r="F114">
-        <v>1.759659213955625</v>
+        <v>1.733489536465188</v>
       </c>
       <c r="G114">
         <v>-7.2</v>
       </c>
       <c r="H114">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2016 - (jul 2018 - jun 2020)</t>
+          <t>2016 - (jun 2018 - mai 2020)</t>
         </is>
       </c>
       <c r="J114" s="2">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="K114">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L114">
         <v>2020</v>
@@ -20840,10 +20915,10 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.9685797746699921</v>
+        <v>0.9655746339629433</v>
       </c>
       <c r="B115">
-        <v>-3.142022533000788</v>
+        <v>-3.44253660370567</v>
       </c>
       <c r="C115">
         <v>15</v>
@@ -20852,27 +20927,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E115">
-        <v>6.452758547718644</v>
+        <v>6.285783705223438</v>
       </c>
       <c r="F115">
-        <v>1.806402600918068</v>
+        <v>1.759659213955625</v>
       </c>
       <c r="G115">
-        <v>-7</v>
+        <v>-7.2</v>
       </c>
       <c r="H115">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2016 - (aug 2018 - jul 2020)</t>
+          <t>2016 - (jul 2018 - jun 2020)</t>
         </is>
       </c>
       <c r="J115" s="2">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="K115">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L115">
         <v>2020</v>
@@ -20885,39 +20960,39 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.9573273427554309</v>
+        <v>0.9685797746699921</v>
       </c>
       <c r="B116">
-        <v>-4.267265724456914</v>
+        <v>-3.142022533000788</v>
       </c>
       <c r="C116">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D116">
-        <v>13.7571750172081</v>
+        <v>12.7603248224164</v>
       </c>
       <c r="E116">
-        <v>7.831424927703498</v>
+        <v>6.452758547718644</v>
       </c>
       <c r="F116">
-        <v>2.111427423576516</v>
+        <v>1.806402600918068</v>
       </c>
       <c r="G116">
-        <v>-8.800000000000001</v>
+        <v>-7</v>
       </c>
       <c r="H116">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2016 - (sep 2018 - aug 2020)</t>
+          <t>2016 - (aug 2018 - jul 2020)</t>
         </is>
       </c>
       <c r="J116" s="2">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="K116">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L116">
         <v>2020</v>
@@ -20930,10 +21005,10 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.9596668962833406</v>
+        <v>0.9573273427554309</v>
       </c>
       <c r="B117">
-        <v>-4.033310371665944</v>
+        <v>-4.267265724456914</v>
       </c>
       <c r="C117">
         <v>16</v>
@@ -20942,27 +21017,27 @@
         <v>13.7571750172081</v>
       </c>
       <c r="E117">
-        <v>8.257821833171901</v>
+        <v>7.831424927703498</v>
       </c>
       <c r="F117">
-        <v>2.226388127132434</v>
+        <v>2.111427423576516</v>
       </c>
       <c r="G117">
         <v>-8.800000000000001</v>
       </c>
       <c r="H117">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2016 - (okt 2018 - sep 2020)</t>
+          <t>2016 - (sep 2018 - aug 2020)</t>
         </is>
       </c>
       <c r="J117" s="2">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="K117">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L117">
         <v>2020</v>
@@ -20975,10 +21050,10 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.9593424868574312</v>
+        <v>0.9596668962833406</v>
       </c>
       <c r="B118">
-        <v>-4.065751314256882</v>
+        <v>-4.033310371665944</v>
       </c>
       <c r="C118">
         <v>16</v>
@@ -20987,27 +21062,27 @@
         <v>13.7571750172081</v>
       </c>
       <c r="E118">
-        <v>8.703215367820826</v>
+        <v>8.257821833171901</v>
       </c>
       <c r="F118">
-        <v>2.346470504480485</v>
+        <v>2.226388127132434</v>
       </c>
       <c r="G118">
-        <v>-9.1</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="H118">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2016 - (nov 2018 - okt 2020)</t>
+          <t>2016 - (okt 2018 - sep 2020)</t>
         </is>
       </c>
       <c r="J118" s="2">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="K118">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L118">
         <v>2020</v>
@@ -21020,10 +21095,10 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.9564286033373001</v>
+        <v>0.9593424868574312</v>
       </c>
       <c r="B119">
-        <v>-4.357139666269994</v>
+        <v>-4.065751314256882</v>
       </c>
       <c r="C119">
         <v>16</v>
@@ -21032,27 +21107,27 @@
         <v>13.7571750172081</v>
       </c>
       <c r="E119">
-        <v>8.969114321453779</v>
+        <v>8.703215367820826</v>
       </c>
       <c r="F119">
-        <v>2.418159417773247</v>
+        <v>2.346470504480485</v>
       </c>
       <c r="G119">
-        <v>-9.5</v>
+        <v>-9.1</v>
       </c>
       <c r="H119">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2016 - (des 2018 - nov 2020)</t>
+          <t>2016 - (nov 2018 - okt 2020)</t>
         </is>
       </c>
       <c r="J119" s="2">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="K119">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L119">
         <v>2020</v>
@@ -21065,10 +21140,10 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.9542939521864132</v>
+        <v>0.9564286033373001</v>
       </c>
       <c r="B120">
-        <v>-4.570604781358679</v>
+        <v>-4.357139666269994</v>
       </c>
       <c r="C120">
         <v>16</v>
@@ -21077,27 +21152,27 @@
         <v>13.7571750172081</v>
       </c>
       <c r="E120">
-        <v>9.152179218878235</v>
+        <v>8.969114321453779</v>
       </c>
       <c r="F120">
-        <v>2.467515473444404</v>
+        <v>2.418159417773247</v>
       </c>
       <c r="G120">
-        <v>-9.800000000000001</v>
+        <v>-9.5</v>
       </c>
       <c r="H120">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2016 - (jan 2019 - des 2020)</t>
+          <t>2016 - (des 2018 - nov 2020)</t>
         </is>
       </c>
       <c r="J120" s="2">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="K120">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L120">
         <v>2020</v>
@@ -21110,10 +21185,10 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.9492303341014582</v>
+        <v>0.9542939521864132</v>
       </c>
       <c r="B121">
-        <v>-5.076966589854182</v>
+        <v>-4.570604781358679</v>
       </c>
       <c r="C121">
         <v>16</v>
@@ -21122,30 +21197,30 @@
         <v>13.7571750172081</v>
       </c>
       <c r="E121">
-        <v>9.224165194691491</v>
+        <v>9.152179218878235</v>
       </c>
       <c r="F121">
-        <v>2.486923584337142</v>
+        <v>2.467515473444404</v>
       </c>
       <c r="G121">
-        <v>-10.4</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="H121">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2016 - (feb 2019 - jan 2021)</t>
+          <t>2016 - (jan 2019 - des 2020)</t>
         </is>
       </c>
       <c r="J121" s="2">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="K121">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L121">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
@@ -21155,10 +21230,10 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.9474871555553703</v>
+        <v>0.9492303341014582</v>
       </c>
       <c r="B122">
-        <v>-5.251284444462967</v>
+        <v>-5.076966589854182</v>
       </c>
       <c r="C122">
         <v>16</v>
@@ -21167,27 +21242,27 @@
         <v>13.7571750172081</v>
       </c>
       <c r="E122">
-        <v>9.297537218016432</v>
+        <v>9.224165194691491</v>
       </c>
       <c r="F122">
-        <v>2.506705386959491</v>
+        <v>2.486923584337142</v>
       </c>
       <c r="G122">
-        <v>-10.6</v>
+        <v>-10.4</v>
       </c>
       <c r="H122">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2016 - (mar 2019 - feb 2021)</t>
+          <t>2016 - (feb 2019 - jan 2021)</t>
         </is>
       </c>
       <c r="J122" s="2">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L122">
         <v>2021</v>
@@ -21200,10 +21275,10 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.944312445000388</v>
+        <v>0.9474871555553703</v>
       </c>
       <c r="B123">
-        <v>-5.568755499961197</v>
+        <v>-5.251284444462967</v>
       </c>
       <c r="C123">
         <v>16</v>
@@ -21212,27 +21287,27 @@
         <v>13.7571750172081</v>
       </c>
       <c r="E123">
-        <v>9.343629038076141</v>
+        <v>9.297537218016432</v>
       </c>
       <c r="F123">
-        <v>2.519132184608073</v>
+        <v>2.506705386959491</v>
       </c>
       <c r="G123">
-        <v>-10.9</v>
+        <v>-10.6</v>
       </c>
       <c r="H123">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2016 - (apr 2019 - mar 2021)</t>
+          <t>2016 - (mar 2019 - feb 2021)</t>
         </is>
       </c>
       <c r="J123" s="2">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="K123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L123">
         <v>2021</v>
@@ -21245,39 +21320,39 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.9473437037195528</v>
+        <v>0.944312445000388</v>
       </c>
       <c r="B124">
-        <v>-5.265629628044721</v>
+        <v>-5.568755499961197</v>
       </c>
       <c r="C124">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D124">
-        <v>14.69751491091071</v>
+        <v>13.7571750172081</v>
       </c>
       <c r="E124">
-        <v>9.594381673011094</v>
+        <v>9.343629038076141</v>
       </c>
       <c r="F124">
-        <v>2.502620722620184</v>
+        <v>2.519132184608073</v>
       </c>
       <c r="G124">
-        <v>-10.6</v>
+        <v>-10.9</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2016 - (mai 2019 - apr 2021)</t>
+          <t>2016 - (apr 2019 - mar 2021)</t>
         </is>
       </c>
       <c r="J124" s="2">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="K124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L124">
         <v>2021</v>
@@ -21290,10 +21365,10 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.9424030618756805</v>
+        <v>0.9473437037195528</v>
       </c>
       <c r="B125">
-        <v>-5.759693812431954</v>
+        <v>-5.265629628044721</v>
       </c>
       <c r="C125">
         <v>17</v>
@@ -21302,27 +21377,27 @@
         <v>14.69751491091071</v>
       </c>
       <c r="E125">
-        <v>9.596214367632534</v>
+        <v>9.594381673011094</v>
       </c>
       <c r="F125">
-        <v>2.503098766927172</v>
+        <v>2.502620722620184</v>
       </c>
       <c r="G125">
-        <v>-11.1</v>
+        <v>-10.6</v>
       </c>
       <c r="H125">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2016 - (jun 2019 - mai 2021)</t>
+          <t>2016 - (mai 2019 - apr 2021)</t>
         </is>
       </c>
       <c r="J125" s="2">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="K125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L125">
         <v>2021</v>
@@ -21335,39 +21410,39 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.9434539024255091</v>
+        <v>0.9424030618756805</v>
       </c>
       <c r="B126">
-        <v>-5.654609757449092</v>
+        <v>-5.759693812431954</v>
       </c>
       <c r="C126">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D126">
-        <v>15.09165507009222</v>
+        <v>14.69751491091071</v>
       </c>
       <c r="E126">
-        <v>9.556834238254551</v>
+        <v>9.596214367632534</v>
       </c>
       <c r="F126">
-        <v>2.460059538392805</v>
+        <v>2.503098766927172</v>
       </c>
       <c r="G126">
-        <v>-10.8</v>
+        <v>-11.1</v>
       </c>
       <c r="H126">
         <v>-0.5</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2016 - (jul 2019 - jun 2021)</t>
+          <t>2016 - (jun 2019 - mai 2021)</t>
         </is>
       </c>
       <c r="J126" s="2">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="K126">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L126">
         <v>2021</v>
@@ -21380,10 +21455,10 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.9467944743248593</v>
+        <v>0.9434539024255091</v>
       </c>
       <c r="B127">
-        <v>-5.32055256751407</v>
+        <v>-5.654609757449092</v>
       </c>
       <c r="C127">
         <v>18</v>
@@ -21392,27 +21467,27 @@
         <v>15.09165507009222</v>
       </c>
       <c r="E127">
-        <v>9.604723454272637</v>
+        <v>9.556834238254551</v>
       </c>
       <c r="F127">
-        <v>2.472386876056554</v>
+        <v>2.460059538392805</v>
       </c>
       <c r="G127">
-        <v>-10.5</v>
+        <v>-10.8</v>
       </c>
       <c r="H127">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2016 - (aug 2019 - jul 2021)</t>
+          <t>2016 - (jul 2019 - jun 2021)</t>
         </is>
       </c>
       <c r="J127" s="2">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="K127">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L127">
         <v>2021</v>
@@ -21425,39 +21500,39 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.9577482014965474</v>
+        <v>0.9467944743248593</v>
       </c>
       <c r="B128">
-        <v>-4.225179850345262</v>
+        <v>-5.32055256751407</v>
       </c>
       <c r="C128">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D128">
-        <v>14.09266341154559</v>
+        <v>15.09165507009222</v>
       </c>
       <c r="E128">
-        <v>9.353873116864785</v>
+        <v>9.604723454272637</v>
       </c>
       <c r="F128">
-        <v>2.491695310394697</v>
+        <v>2.472386876056554</v>
       </c>
       <c r="G128">
-        <v>-9.5</v>
+        <v>-10.5</v>
       </c>
       <c r="H128">
-        <v>1.1</v>
+        <v>-0.1</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2016 - (sep 2019 - aug 2021)</t>
+          <t>2016 - (aug 2019 - jul 2021)</t>
         </is>
       </c>
       <c r="J128" s="2">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="K128">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L128">
         <v>2021</v>
@@ -21470,39 +21545,39 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.9749797557995228</v>
+        <v>0.9577482014965474</v>
       </c>
       <c r="B129">
-        <v>-2.502024420047722</v>
+        <v>-4.225179850345262</v>
       </c>
       <c r="C129">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D129">
-        <v>14.86634233952037</v>
+        <v>14.09266341154559</v>
       </c>
       <c r="E129">
-        <v>12.11801027230559</v>
+        <v>9.353873116864785</v>
       </c>
       <c r="F129">
-        <v>3.142890509846483</v>
+        <v>2.491695310394697</v>
       </c>
       <c r="G129">
-        <v>-9.1</v>
+        <v>-9.5</v>
       </c>
       <c r="H129">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2016 - (okt 2019 - sep 2021)</t>
+          <t>2016 - (sep 2019 - aug 2021)</t>
         </is>
       </c>
       <c r="J129" s="2">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="K129">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L129">
         <v>2021</v>
@@ -21515,10 +21590,10 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.9746799094251892</v>
+        <v>0.9749797557995228</v>
       </c>
       <c r="B130">
-        <v>-2.532009057481077</v>
+        <v>-2.502024420047722</v>
       </c>
       <c r="C130">
         <v>18</v>
@@ -21527,10 +21602,10 @@
         <v>14.86634233952037</v>
       </c>
       <c r="E130">
-        <v>12.06366954023115</v>
+        <v>12.11801027230559</v>
       </c>
       <c r="F130">
-        <v>3.128796861855016</v>
+        <v>3.142890509846483</v>
       </c>
       <c r="G130">
         <v>-9.1</v>
@@ -21540,14 +21615,14 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2016 - (nov 2019 - okt 2021)</t>
+          <t>2016 - (okt 2019 - sep 2021)</t>
         </is>
       </c>
       <c r="J130" s="2">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="K130">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L130">
         <v>2021</v>
@@ -21560,10 +21635,10 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.9755727455740992</v>
+        <v>0.9746799094251892</v>
       </c>
       <c r="B131">
-        <v>-2.442725442590077</v>
+        <v>-2.532009057481077</v>
       </c>
       <c r="C131">
         <v>18</v>
@@ -21572,27 +21647,27 @@
         <v>14.86634233952037</v>
       </c>
       <c r="E131">
-        <v>12.07228377327426</v>
+        <v>12.06366954023115</v>
       </c>
       <c r="F131">
-        <v>3.131031023295088</v>
+        <v>3.128796861855016</v>
       </c>
       <c r="G131">
-        <v>-9</v>
+        <v>-9.1</v>
       </c>
       <c r="H131">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2016 - (des 2019 - nov 2021)</t>
+          <t>2016 - (nov 2019 - okt 2021)</t>
         </is>
       </c>
       <c r="J131" s="2">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="K131">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L131">
         <v>2021</v>
@@ -21605,39 +21680,39 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.9710313722052158</v>
+        <v>0.9755727455740992</v>
       </c>
       <c r="B132">
-        <v>-2.896862779478415</v>
+        <v>-2.442725442590077</v>
       </c>
       <c r="C132">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D132">
-        <v>13.88999092310759</v>
+        <v>14.86634233952037</v>
       </c>
       <c r="E132">
-        <v>12.50113441454054</v>
+        <v>12.07228377327426</v>
       </c>
       <c r="F132">
-        <v>3.354273289390636</v>
+        <v>3.131031023295088</v>
       </c>
       <c r="G132">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="H132">
         <v>4.2</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2016 - (jan 2020 - des 2021)</t>
+          <t>2016 - (des 2019 - nov 2021)</t>
         </is>
       </c>
       <c r="J132" s="2">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="K132">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L132">
         <v>2021</v>
@@ -21650,10 +21725,10 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.9669448094523272</v>
+        <v>0.9710313722052158</v>
       </c>
       <c r="B133">
-        <v>-3.305519054767281</v>
+        <v>-2.896862779478415</v>
       </c>
       <c r="C133">
         <v>17</v>
@@ -21662,30 +21737,30 @@
         <v>13.88999092310759</v>
       </c>
       <c r="E133">
-        <v>12.45313522574472</v>
+        <v>12.50113441454054</v>
       </c>
       <c r="F133">
-        <v>3.341394266451489</v>
+        <v>3.354273289390636</v>
       </c>
       <c r="G133">
-        <v>-10.4</v>
+        <v>-10</v>
       </c>
       <c r="H133">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2016 - (feb 2020 - jan 2022)</t>
+          <t>2016 - (jan 2020 - des 2021)</t>
         </is>
       </c>
       <c r="J133" s="2">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="K133">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L133">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
@@ -21695,39 +21770,39 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.9564408677116027</v>
+        <v>0.9669448094523272</v>
       </c>
       <c r="B134">
-        <v>-4.355913228839725</v>
+        <v>-3.305519054767281</v>
       </c>
       <c r="C134">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D134">
-        <v>15.8424766978712</v>
+        <v>13.88999092310759</v>
       </c>
       <c r="E134">
-        <v>12.38771269979354</v>
+        <v>12.45313522574472</v>
       </c>
       <c r="F134">
-        <v>3.112286622281502</v>
+        <v>3.341394266451489</v>
       </c>
       <c r="G134">
-        <v>-10.9</v>
+        <v>-10.4</v>
       </c>
       <c r="H134">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2016 - (mar 2020 - feb 2022)</t>
+          <t>2016 - (feb 2020 - jan 2022)</t>
         </is>
       </c>
       <c r="J134" s="2">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="K134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L134">
         <v>2022</v>
@@ -21740,10 +21815,10 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.9653345948190574</v>
+        <v>0.9564408677116027</v>
       </c>
       <c r="B135">
-        <v>-3.466540518094263</v>
+        <v>-4.355913228839725</v>
       </c>
       <c r="C135">
         <v>19</v>
@@ -21752,27 +21827,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E135">
-        <v>12.38735068570731</v>
+        <v>12.38771269979354</v>
       </c>
       <c r="F135">
-        <v>3.11219566993017</v>
+        <v>3.112286622281502</v>
       </c>
       <c r="G135">
-        <v>-10</v>
+        <v>-10.9</v>
       </c>
       <c r="H135">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2016 - (apr 2020 - mar 2022)</t>
+          <t>2016 - (mar 2020 - feb 2022)</t>
         </is>
       </c>
       <c r="J135" s="2">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="K135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L135">
         <v>2022</v>
@@ -21785,10 +21860,10 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.9734317482284802</v>
+        <v>0.9653345948190574</v>
       </c>
       <c r="B136">
-        <v>-2.656825177151978</v>
+        <v>-3.466540518094263</v>
       </c>
       <c r="C136">
         <v>19</v>
@@ -21797,27 +21872,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E136">
-        <v>12.38101989901812</v>
+        <v>12.38735068570731</v>
       </c>
       <c r="F136">
-        <v>3.110605124266192</v>
+        <v>3.11219566993017</v>
       </c>
       <c r="G136">
-        <v>-9.199999999999999</v>
+        <v>-10</v>
       </c>
       <c r="H136">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2016 - (mai 2020 - apr 2022)</t>
+          <t>2016 - (apr 2020 - mar 2022)</t>
         </is>
       </c>
       <c r="J136" s="2">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="K136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L136">
         <v>2022</v>
@@ -21830,10 +21905,10 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.9785435113344303</v>
+        <v>0.9734317482284802</v>
       </c>
       <c r="B137">
-        <v>-2.145648866556971</v>
+        <v>-2.656825177151978</v>
       </c>
       <c r="C137">
         <v>19</v>
@@ -21842,27 +21917,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E137">
-        <v>12.34821242471642</v>
+        <v>12.38101989901812</v>
       </c>
       <c r="F137">
-        <v>3.102362580557398</v>
+        <v>3.110605124266192</v>
       </c>
       <c r="G137">
-        <v>-8.699999999999999</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="H137">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2016 - (jun 2020 - mai 2022)</t>
+          <t>2016 - (mai 2020 - apr 2022)</t>
         </is>
       </c>
       <c r="J137" s="2">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="K137">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L137">
         <v>2022</v>
@@ -21875,10 +21950,10 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.9797236438490763</v>
+        <v>0.9785435113344303</v>
       </c>
       <c r="B138">
-        <v>-2.027635615092371</v>
+        <v>-2.145648866556971</v>
       </c>
       <c r="C138">
         <v>19</v>
@@ -21887,27 +21962,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E138">
-        <v>12.29875171502866</v>
+        <v>12.34821242471642</v>
       </c>
       <c r="F138">
-        <v>3.089936081104248</v>
+        <v>3.102362580557398</v>
       </c>
       <c r="G138">
-        <v>-8.5</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="H138">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2016 - (jul 2020 - jun 2022)</t>
+          <t>2016 - (jun 2020 - mai 2022)</t>
         </is>
       </c>
       <c r="J138" s="2">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="K138">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L138">
         <v>2022</v>
@@ -21920,10 +21995,10 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.9773691058576595</v>
+        <v>0.9797236438490763</v>
       </c>
       <c r="B139">
-        <v>-2.263089414234054</v>
+        <v>-2.027635615092371</v>
       </c>
       <c r="C139">
         <v>19</v>
@@ -21932,27 +22007,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E139">
-        <v>12.26199647709679</v>
+        <v>12.29875171502866</v>
       </c>
       <c r="F139">
-        <v>3.080701701999213</v>
+        <v>3.089936081104248</v>
       </c>
       <c r="G139">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="H139">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2016 - (aug 2020 - jul 2022)</t>
+          <t>2016 - (jul 2020 - jun 2022)</t>
         </is>
       </c>
       <c r="J139" s="2">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="K139">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L139">
         <v>2022</v>
@@ -21965,10 +22040,10 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.978259373895326</v>
+        <v>0.9773691058576595</v>
       </c>
       <c r="B140">
-        <v>-2.174062610467398</v>
+        <v>-2.263089414234054</v>
       </c>
       <c r="C140">
         <v>19</v>
@@ -21977,27 +22052,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E140">
-        <v>12.1642833158319</v>
+        <v>12.26199647709679</v>
       </c>
       <c r="F140">
-        <v>3.056152265634694</v>
+        <v>3.080701701999213</v>
       </c>
       <c r="G140">
-        <v>-8.6</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="H140">
         <v>4.2</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2016 - (sep 2020 - aug 2022)</t>
+          <t>2016 - (aug 2020 - jul 2022)</t>
         </is>
       </c>
       <c r="J140" s="2">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="K140">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L140">
         <v>2022</v>
@@ -22010,10 +22085,10 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.9783712993055295</v>
+        <v>0.978259373895326</v>
       </c>
       <c r="B141">
-        <v>-2.162870069447054</v>
+        <v>-2.174062610467398</v>
       </c>
       <c r="C141">
         <v>19</v>
@@ -22022,27 +22097,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E141">
-        <v>12.02107234656994</v>
+        <v>12.1642833158319</v>
       </c>
       <c r="F141">
-        <v>3.020171968496756</v>
+        <v>3.056152265634694</v>
       </c>
       <c r="G141">
-        <v>-8.5</v>
+        <v>-8.6</v>
       </c>
       <c r="H141">
         <v>4.2</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2016 - (okt 2020 - sep 2022)</t>
+          <t>2016 - (sep 2020 - aug 2022)</t>
         </is>
       </c>
       <c r="J141" s="2">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="K141">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L141">
         <v>2022</v>
@@ -22055,10 +22130,10 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.9781459785454013</v>
+        <v>0.9783712993055295</v>
       </c>
       <c r="B142">
-        <v>-2.185402145459869</v>
+        <v>-2.162870069447054</v>
       </c>
       <c r="C142">
         <v>19</v>
@@ -22067,27 +22142,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E142">
-        <v>11.83149633986932</v>
+        <v>12.02107234656994</v>
       </c>
       <c r="F142">
-        <v>2.972542928022665</v>
+        <v>3.020171968496756</v>
       </c>
       <c r="G142">
-        <v>-8.4</v>
+        <v>-8.5</v>
       </c>
       <c r="H142">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2016 - (nov 2020 - okt 2022)</t>
+          <t>2016 - (okt 2020 - sep 2022)</t>
         </is>
       </c>
       <c r="J142" s="2">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="K142">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L142">
         <v>2022</v>
@@ -22100,10 +22175,10 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.9814424233659909</v>
+        <v>0.9781459785454013</v>
       </c>
       <c r="B143">
-        <v>-1.855757663400914</v>
+        <v>-2.185402145459869</v>
       </c>
       <c r="C143">
         <v>19</v>
@@ -22112,27 +22187,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E143">
-        <v>11.8172919650211</v>
+        <v>11.83149633986932</v>
       </c>
       <c r="F143">
-        <v>2.968974223541915</v>
+        <v>2.972542928022665</v>
       </c>
       <c r="G143">
-        <v>-8.1</v>
+        <v>-8.4</v>
       </c>
       <c r="H143">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2016 - (des 2020 - nov 2022)</t>
+          <t>2016 - (nov 2020 - okt 2022)</t>
         </is>
       </c>
       <c r="J143" s="2">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="K143">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L143">
         <v>2022</v>
@@ -22145,10 +22220,10 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.9846765007441217</v>
+        <v>0.9814424233659909</v>
       </c>
       <c r="B144">
-        <v>-1.532349925587828</v>
+        <v>-1.855757663400914</v>
       </c>
       <c r="C144">
         <v>19</v>
@@ -22157,27 +22232,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E144">
-        <v>11.8141037546154</v>
+        <v>11.8172919650211</v>
       </c>
       <c r="F144">
-        <v>2.968173218155759</v>
+        <v>2.968974223541915</v>
       </c>
       <c r="G144">
-        <v>-7.8</v>
+        <v>-8.1</v>
       </c>
       <c r="H144">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2016 - (jan 2021 - des 2022)</t>
+          <t>2016 - (des 2020 - nov 2022)</t>
         </is>
       </c>
       <c r="J144" s="2">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="K144">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L144">
         <v>2022</v>
@@ -22190,42 +22265,42 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.9674710067709154</v>
+        <v>0.9846765007441217</v>
       </c>
       <c r="B145">
-        <v>-3.252899322908465</v>
+        <v>-1.532349925587828</v>
       </c>
       <c r="C145">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D145">
-        <v>16.82824765497094</v>
+        <v>15.8424766978712</v>
       </c>
       <c r="E145">
-        <v>15.15625246166242</v>
+        <v>11.8141037546154</v>
       </c>
       <c r="F145">
-        <v>3.694642174782071</v>
+        <v>2.968173218155759</v>
       </c>
       <c r="G145">
-        <v>-11</v>
+        <v>-7.8</v>
       </c>
       <c r="H145">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2016 - (feb 2021 - jan 2023)</t>
+          <t>2016 - (jan 2021 - des 2022)</t>
         </is>
       </c>
       <c r="J145" s="2">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="K145">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L145">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
@@ -22235,10 +22310,10 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.9709704287878327</v>
+        <v>0.9674710067709154</v>
       </c>
       <c r="B146">
-        <v>-2.902957121216732</v>
+        <v>-3.252899322908465</v>
       </c>
       <c r="C146">
         <v>20</v>
@@ -22247,27 +22322,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E146">
-        <v>15.17954408129968</v>
+        <v>15.15625246166242</v>
       </c>
       <c r="F146">
-        <v>3.700319976761715</v>
+        <v>3.694642174782071</v>
       </c>
       <c r="G146">
-        <v>-10.6</v>
+        <v>-11</v>
       </c>
       <c r="H146">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2016 - (mar 2021 - feb 2023)</t>
+          <t>2016 - (feb 2021 - jan 2023)</t>
         </is>
       </c>
       <c r="J146" s="2">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="K146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L146">
         <v>2023</v>
@@ -22280,10 +22355,10 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.9760550165546241</v>
+        <v>0.9709704287878327</v>
       </c>
       <c r="B147">
-        <v>-2.394498344537588</v>
+        <v>-2.902957121216732</v>
       </c>
       <c r="C147">
         <v>20</v>
@@ -22292,27 +22367,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E147">
-        <v>15.19956380286279</v>
+        <v>15.17954408129968</v>
       </c>
       <c r="F147">
-        <v>3.705200187605493</v>
+        <v>3.700319976761715</v>
       </c>
       <c r="G147">
-        <v>-10.1</v>
+        <v>-10.6</v>
       </c>
       <c r="H147">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2016 - (apr 2021 - mar 2023)</t>
+          <t>2016 - (mar 2021 - feb 2023)</t>
         </is>
       </c>
       <c r="J147" s="2">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="K147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L147">
         <v>2023</v>
@@ -22325,10 +22400,10 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.9784459964487164</v>
+        <v>0.9760550165546241</v>
       </c>
       <c r="B148">
-        <v>-2.155400355128356</v>
+        <v>-2.394498344537588</v>
       </c>
       <c r="C148">
         <v>20</v>
@@ -22337,27 +22412,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E148">
-        <v>15.25035570409302</v>
+        <v>15.19956380286279</v>
       </c>
       <c r="F148">
-        <v>3.717581737787323</v>
+        <v>3.705200187605493</v>
       </c>
       <c r="G148">
-        <v>-9.9</v>
+        <v>-10.1</v>
       </c>
       <c r="H148">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2016 - (mai 2021 - apr 2023)</t>
+          <t>2016 - (apr 2021 - mar 2023)</t>
         </is>
       </c>
       <c r="J148" s="2">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="K148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L148">
         <v>2023</v>
@@ -22370,10 +22445,10 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.9860783496764259</v>
+        <v>0.9784459964487164</v>
       </c>
       <c r="B149">
-        <v>-1.392165032357406</v>
+        <v>-2.155400355128356</v>
       </c>
       <c r="C149">
         <v>20</v>
@@ -22382,27 +22457,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E149">
-        <v>14.91437792234658</v>
+        <v>15.25035570409302</v>
       </c>
       <c r="F149">
-        <v>3.635680378241486</v>
+        <v>3.717581737787323</v>
       </c>
       <c r="G149">
-        <v>-9</v>
+        <v>-9.9</v>
       </c>
       <c r="H149">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2016 - (jun 2021 - mai 2023)</t>
+          <t>2016 - (mai 2021 - apr 2023)</t>
         </is>
       </c>
       <c r="J149" s="2">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="K149">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L149">
         <v>2023</v>
@@ -22415,10 +22490,10 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.9873969003761138</v>
+        <v>0.9860783496764259</v>
       </c>
       <c r="B150">
-        <v>-1.260309962388617</v>
+        <v>-1.392165032357406</v>
       </c>
       <c r="C150">
         <v>20</v>
@@ -22427,27 +22502,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E150">
-        <v>14.80041938593657</v>
+        <v>14.91437792234658</v>
       </c>
       <c r="F150">
-        <v>3.607900686931786</v>
+        <v>3.635680378241486</v>
       </c>
       <c r="G150">
-        <v>-8.800000000000001</v>
+        <v>-9</v>
       </c>
       <c r="H150">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2016 - (jul 2021 - jun 2023)</t>
+          <t>2016 - (jun 2021 - mai 2023)</t>
         </is>
       </c>
       <c r="J150" s="2">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="K150">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L150">
         <v>2023</v>
@@ -22460,10 +22535,10 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.9866483885710398</v>
+        <v>0.9873969003761138</v>
       </c>
       <c r="B151">
-        <v>-1.335161142896024</v>
+        <v>-1.260309962388617</v>
       </c>
       <c r="C151">
         <v>20</v>
@@ -22472,27 +22547,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E151">
-        <v>14.60099916722386</v>
+        <v>14.80041938593657</v>
       </c>
       <c r="F151">
-        <v>3.559287987161579</v>
+        <v>3.607900686931786</v>
       </c>
       <c r="G151">
         <v>-8.800000000000001</v>
       </c>
       <c r="H151">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2016 - (aug 2021 - jul 2023)</t>
+          <t>2016 - (jul 2021 - jun 2023)</t>
         </is>
       </c>
       <c r="J151" s="2">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="K151">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L151">
         <v>2023</v>
@@ -22505,10 +22580,10 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.9871420243467944</v>
+        <v>0.9866483885710398</v>
       </c>
       <c r="B152">
-        <v>-1.285797565320557</v>
+        <v>-1.335161142896024</v>
       </c>
       <c r="C152">
         <v>20</v>
@@ -22517,27 +22592,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E152">
-        <v>14.35560550143321</v>
+        <v>14.60099916722386</v>
       </c>
       <c r="F152">
-        <v>3.499468332576921</v>
+        <v>3.559287987161579</v>
       </c>
       <c r="G152">
-        <v>-8.6</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="H152">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2016 - (sep 2021 - aug 2023)</t>
+          <t>2016 - (aug 2021 - jul 2023)</t>
         </is>
       </c>
       <c r="J152" s="2">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="K152">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L152">
         <v>2023</v>
@@ -22550,10 +22625,10 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.9871728641473756</v>
+        <v>0.9871420243467944</v>
       </c>
       <c r="B153">
-        <v>-1.282713585262441</v>
+        <v>-1.285797565320557</v>
       </c>
       <c r="C153">
         <v>20</v>
@@ -22562,27 +22637,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E153">
-        <v>14.17349478862823</v>
+        <v>14.35560550143321</v>
       </c>
       <c r="F153">
-        <v>3.455075173930955</v>
+        <v>3.499468332576921</v>
       </c>
       <c r="G153">
-        <v>-8.5</v>
+        <v>-8.6</v>
       </c>
       <c r="H153">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2016 - (okt 2021 - sep 2023)</t>
+          <t>2016 - (sep 2021 - aug 2023)</t>
         </is>
       </c>
       <c r="J153" s="2">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="K153">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L153">
         <v>2023</v>
@@ -22595,10 +22670,10 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.9877940374210177</v>
+        <v>0.9871728641473756</v>
       </c>
       <c r="B154">
-        <v>-1.220596257898232</v>
+        <v>-1.282713585262441</v>
       </c>
       <c r="C154">
         <v>20</v>
@@ -22607,27 +22682,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E154">
-        <v>14.0579121302133</v>
+        <v>14.17349478862823</v>
       </c>
       <c r="F154">
-        <v>3.426899570130911</v>
+        <v>3.455075173930955</v>
       </c>
       <c r="G154">
-        <v>-8.4</v>
+        <v>-8.5</v>
       </c>
       <c r="H154">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2016 - (nov 2021 - okt 2023)</t>
+          <t>2016 - (okt 2021 - sep 2023)</t>
         </is>
       </c>
       <c r="J154" s="2">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="K154">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L154">
         <v>2023</v>
@@ -22640,10 +22715,10 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.9886680970594256</v>
+        <v>0.9877940374210177</v>
       </c>
       <c r="B155">
-        <v>-1.13319029405744</v>
+        <v>-1.220596257898232</v>
       </c>
       <c r="C155">
         <v>20</v>
@@ -22652,27 +22727,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E155">
-        <v>14.04443714985667</v>
+        <v>14.0579121302133</v>
       </c>
       <c r="F155">
-        <v>3.423614771935851</v>
+        <v>3.426899570130911</v>
       </c>
       <c r="G155">
-        <v>-8.300000000000001</v>
+        <v>-8.4</v>
       </c>
       <c r="H155">
         <v>6</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2016 - (des 2021 - nov 2023)</t>
+          <t>2016 - (nov 2021 - okt 2023)</t>
         </is>
       </c>
       <c r="J155" s="2">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="K155">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L155">
         <v>2023</v>
@@ -22685,39 +22760,39 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.990166350168458</v>
+        <v>0.9886680970594256</v>
       </c>
       <c r="B156">
-        <v>-0.9833649831542002</v>
+        <v>-1.13319029405744</v>
       </c>
       <c r="C156">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D156">
-        <v>17.82818578652688</v>
+        <v>16.82824765497094</v>
       </c>
       <c r="E156">
-        <v>13.61534305266147</v>
+        <v>14.04443714985667</v>
       </c>
       <c r="F156">
-        <v>3.224593785845179</v>
+        <v>3.423614771935851</v>
       </c>
       <c r="G156">
-        <v>-7.7</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="H156">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2016 - (jan 2022 - des 2023)</t>
+          <t>2016 - (des 2021 - nov 2023)</t>
         </is>
       </c>
       <c r="J156" s="2">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="K156">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L156">
         <v>2023</v>
@@ -22730,10 +22805,10 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.9922402972080995</v>
+        <v>0.990166350168458</v>
       </c>
       <c r="B157">
-        <v>-0.7759702791900525</v>
+        <v>-0.9833649831542002</v>
       </c>
       <c r="C157">
         <v>21</v>
@@ -22742,30 +22817,30 @@
         <v>17.82818578652688</v>
       </c>
       <c r="E157">
-        <v>13.6246605781058</v>
+        <v>13.61534305266147</v>
       </c>
       <c r="F157">
-        <v>3.226800504730708</v>
+        <v>3.224593785845179</v>
       </c>
       <c r="G157">
-        <v>-7.5</v>
+        <v>-7.7</v>
       </c>
       <c r="H157">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2016 - (feb 2022 - jan 2024)</t>
+          <t>2016 - (jan 2022 - des 2023)</t>
         </is>
       </c>
       <c r="J157" s="2">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="K157">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L157">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
@@ -22775,10 +22850,10 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.9940247033537304</v>
+        <v>0.9922402972080995</v>
       </c>
       <c r="B158">
-        <v>-0.5975296646269612</v>
+        <v>-0.7759702791900525</v>
       </c>
       <c r="C158">
         <v>21</v>
@@ -22787,27 +22862,27 @@
         <v>17.82818578652688</v>
       </c>
       <c r="E158">
-        <v>13.64828128528448</v>
+        <v>13.6246605781058</v>
       </c>
       <c r="F158">
-        <v>3.23239472187904</v>
+        <v>3.226800504730708</v>
       </c>
       <c r="G158">
-        <v>-7.3</v>
+        <v>-7.5</v>
       </c>
       <c r="H158">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2016 - (mar 2022 - feb 2024)</t>
+          <t>2016 - (feb 2022 - jan 2024)</t>
         </is>
       </c>
       <c r="J158" s="2">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="K158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L158">
         <v>2024</v>
@@ -22820,10 +22895,10 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.9922015915467327</v>
+        <v>0.9940247033537304</v>
       </c>
       <c r="B159">
-        <v>-0.7798408453267291</v>
+        <v>-0.5975296646269612</v>
       </c>
       <c r="C159">
         <v>21</v>
@@ -22832,27 +22907,27 @@
         <v>17.82818578652688</v>
       </c>
       <c r="E159">
-        <v>13.65313305810283</v>
+        <v>13.64828128528448</v>
       </c>
       <c r="F159">
-        <v>3.233543792924837</v>
+        <v>3.23239472187904</v>
       </c>
       <c r="G159">
-        <v>-7.5</v>
+        <v>-7.3</v>
       </c>
       <c r="H159">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2016 - (apr 2022 - mar 2024)</t>
+          <t>2016 - (mar 2022 - feb 2024)</t>
         </is>
       </c>
       <c r="J159" s="2">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="K159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L159">
         <v>2024</v>
@@ -22865,10 +22940,10 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.9946889000184461</v>
+        <v>0.9922015915467327</v>
       </c>
       <c r="B160">
-        <v>-0.531109998155388</v>
+        <v>-0.7798408453267291</v>
       </c>
       <c r="C160">
         <v>21</v>
@@ -22877,27 +22952,27 @@
         <v>17.82818578652688</v>
       </c>
       <c r="E160">
-        <v>13.59061826369468</v>
+        <v>13.65313305810283</v>
       </c>
       <c r="F160">
-        <v>3.218738083161063</v>
+        <v>3.233543792924837</v>
       </c>
       <c r="G160">
-        <v>-7.2</v>
+        <v>-7.5</v>
       </c>
       <c r="H160">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2016 - (mai 2022 - apr 2024)</t>
+          <t>2016 - (apr 2022 - mar 2024)</t>
         </is>
       </c>
       <c r="J160" s="2">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="K160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L160">
         <v>2024</v>
@@ -22910,10 +22985,10 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.9945611337576239</v>
+        <v>0.9946889000184461</v>
       </c>
       <c r="B161">
-        <v>-0.5438866242376106</v>
+        <v>-0.531109998155388</v>
       </c>
       <c r="C161">
         <v>21</v>
@@ -22922,27 +22997,27 @@
         <v>17.82818578652688</v>
       </c>
       <c r="E161">
-        <v>13.58770157489964</v>
+        <v>13.59061826369468</v>
       </c>
       <c r="F161">
-        <v>3.218047308310416</v>
+        <v>3.218738083161063</v>
       </c>
       <c r="G161">
-        <v>-7.3</v>
+        <v>-7.2</v>
       </c>
       <c r="H161">
         <v>6.2</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2016 - (jun 2022 - mai 2024)</t>
+          <t>2016 - (mai 2022 - apr 2024)</t>
         </is>
       </c>
       <c r="J161" s="2">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="K161">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L161">
         <v>2024</v>
@@ -22955,39 +23030,39 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>1.003284346850033</v>
+        <v>0.9945611337576239</v>
       </c>
       <c r="B162">
-        <v>0.3284346850033204</v>
+        <v>-0.5438866242376106</v>
       </c>
       <c r="C162">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D162">
-        <v>18.80539195873661</v>
+        <v>17.82818578652688</v>
       </c>
       <c r="E162">
-        <v>13.43984714795896</v>
+        <v>13.58770157489964</v>
       </c>
       <c r="F162">
-        <v>3.099225199464311</v>
+        <v>3.218047308310416</v>
       </c>
       <c r="G162">
-        <v>-6.1</v>
+        <v>-7.3</v>
       </c>
       <c r="H162">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2016 - (jul 2022 - jun 2024)</t>
+          <t>2016 - (jun 2022 - mai 2024)</t>
         </is>
       </c>
       <c r="J162" s="2">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="K162">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L162">
         <v>2024</v>
@@ -23000,10 +23075,10 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>1.004505701384729</v>
+        <v>1.003284346850033</v>
       </c>
       <c r="B163">
-        <v>0.4505701384728722</v>
+        <v>0.3284346850033204</v>
       </c>
       <c r="C163">
         <v>22</v>
@@ -23012,27 +23087,27 @@
         <v>18.80539195873661</v>
       </c>
       <c r="E163">
-        <v>13.3696062444865</v>
+        <v>13.43984714795896</v>
       </c>
       <c r="F163">
-        <v>3.083027665691909</v>
+        <v>3.099225199464311</v>
       </c>
       <c r="G163">
-        <v>-6</v>
+        <v>-6.1</v>
       </c>
       <c r="H163">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2016 - (aug 2022 - jul 2024)</t>
+          <t>2016 - (jul 2022 - jun 2024)</t>
         </is>
       </c>
       <c r="J163" s="2">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="K163">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L163">
         <v>2024</v>
@@ -23045,10 +23120,10 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>1.005105439041971</v>
+        <v>1.004505701384729</v>
       </c>
       <c r="B164">
-        <v>0.5105439041970916</v>
+        <v>0.4505701384728722</v>
       </c>
       <c r="C164">
         <v>22</v>
@@ -23057,27 +23132,27 @@
         <v>18.80539195873661</v>
       </c>
       <c r="E164">
-        <v>13.30434514934585</v>
+        <v>13.3696062444865</v>
       </c>
       <c r="F164">
-        <v>3.067978474404399</v>
+        <v>3.083027665691909</v>
       </c>
       <c r="G164">
-        <v>-5.9</v>
+        <v>-6</v>
       </c>
       <c r="H164">
         <v>6.9</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2016 - (sep 2022 - aug 2024)</t>
+          <t>2016 - (aug 2022 - jul 2024)</t>
         </is>
       </c>
       <c r="J164" s="2">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="K164">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L164">
         <v>2024</v>
@@ -23090,39 +23165,39 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>1.008596344978222</v>
+        <v>1.005105439041971</v>
       </c>
       <c r="B165">
-        <v>0.8596344978222481</v>
+        <v>0.5105439041970916</v>
       </c>
       <c r="C165">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D165">
-        <v>17.87589620808778</v>
+        <v>18.80539195873661</v>
       </c>
       <c r="E165">
-        <v>13.65839831788607</v>
+        <v>13.30434514934585</v>
       </c>
       <c r="F165">
-        <v>3.230471111006505</v>
+        <v>3.067978474404399</v>
       </c>
       <c r="G165">
         <v>-5.9</v>
       </c>
       <c r="H165">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2016 - (okt 2022 - sep 2024)</t>
+          <t>2016 - (sep 2022 - aug 2024)</t>
         </is>
       </c>
       <c r="J165" s="2">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="K165">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L165">
         <v>2024</v>
@@ -23135,10 +23210,10 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>1.010228257369455</v>
+        <v>1.008596344978222</v>
       </c>
       <c r="B166">
-        <v>1.022825736945454</v>
+        <v>0.8596344978222481</v>
       </c>
       <c r="C166">
         <v>21</v>
@@ -23147,27 +23222,27 @@
         <v>17.87589620808778</v>
       </c>
       <c r="E166">
-        <v>13.60501281844831</v>
+        <v>13.65839831788607</v>
       </c>
       <c r="F166">
-        <v>3.217844424504436</v>
+        <v>3.230471111006505</v>
       </c>
       <c r="G166">
-        <v>-5.7</v>
+        <v>-5.9</v>
       </c>
       <c r="H166">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2016 - (nov 2022 - okt 2024)</t>
+          <t>2016 - (okt 2022 - sep 2024)</t>
         </is>
       </c>
       <c r="J166" s="2">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="K166">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L166">
         <v>2024</v>
@@ -23180,39 +23255,39 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>1.003815851693727</v>
+        <v>1.010228257369455</v>
       </c>
       <c r="B167">
-        <v>0.3815851693727002</v>
+        <v>1.022825736945454</v>
       </c>
       <c r="C167">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D167">
-        <v>16.88220645671328</v>
+        <v>17.87589620808778</v>
       </c>
       <c r="E167">
-        <v>13.56629382985027</v>
+        <v>13.60501281844831</v>
       </c>
       <c r="F167">
-        <v>3.301768467363281</v>
+        <v>3.217844424504436</v>
       </c>
       <c r="G167">
-        <v>-6.5</v>
+        <v>-5.7</v>
       </c>
       <c r="H167">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2016 - (des 2022 - nov 2024)</t>
+          <t>2016 - (nov 2022 - okt 2024)</t>
         </is>
       </c>
       <c r="J167" s="2">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="K167">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L167">
         <v>2024</v>
@@ -23225,10 +23300,10 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>1.0036007631051</v>
+        <v>1.003815851693727</v>
       </c>
       <c r="B168">
-        <v>0.3600763105099825</v>
+        <v>0.3815851693727002</v>
       </c>
       <c r="C168">
         <v>20</v>
@@ -23237,27 +23312,27 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E168">
-        <v>13.51715763919829</v>
+        <v>13.56629382985027</v>
       </c>
       <c r="F168">
-        <v>3.28980968724722</v>
+        <v>3.301768467363281</v>
       </c>
       <c r="G168">
         <v>-6.5</v>
       </c>
       <c r="H168">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2016 - (jan 2023 - des 2024)</t>
+          <t>2016 - (des 2022 - nov 2024)</t>
         </is>
       </c>
       <c r="J168" s="2">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="K168">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L168">
         <v>2024</v>
@@ -23270,10 +23345,10 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>1.00326626945198</v>
+        <v>1.0036007631051</v>
       </c>
       <c r="B169">
-        <v>0.3266269451980275</v>
+        <v>0.3600763105099825</v>
       </c>
       <c r="C169">
         <v>20</v>
@@ -23282,10 +23357,10 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E169">
-        <v>13.455724817356</v>
+        <v>13.51715763919829</v>
       </c>
       <c r="F169">
-        <v>3.274858149519672</v>
+        <v>3.28980968724722</v>
       </c>
       <c r="G169">
         <v>-6.5</v>
@@ -23295,17 +23370,17 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2016 - (feb 2023 - jan 2025)</t>
+          <t>2016 - (jan 2023 - des 2024)</t>
         </is>
       </c>
       <c r="J169" s="2">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="K169">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L169">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
@@ -23315,10 +23390,10 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>1.002848451396593</v>
+        <v>1.00326626945198</v>
       </c>
       <c r="B170">
-        <v>0.2848451396593399</v>
+        <v>0.3266269451980275</v>
       </c>
       <c r="C170">
         <v>20</v>
@@ -23327,27 +23402,27 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E170">
-        <v>13.40893818530444</v>
+        <v>13.455724817356</v>
       </c>
       <c r="F170">
-        <v>3.263471205646904</v>
+        <v>3.274858149519672</v>
       </c>
       <c r="G170">
         <v>-6.5</v>
       </c>
       <c r="H170">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2016 - (mar 2023 - feb 2025)</t>
+          <t>2016 - (feb 2023 - jan 2025)</t>
         </is>
       </c>
       <c r="J170" s="2">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="K170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L170">
         <v>2025</v>
@@ -23360,10 +23435,10 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>1.002586916430626</v>
+        <v>1.002848451396593</v>
       </c>
       <c r="B171">
-        <v>0.2586916430626252</v>
+        <v>0.2848451396593399</v>
       </c>
       <c r="C171">
         <v>20</v>
@@ -23372,27 +23447,27 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E171">
-        <v>13.39489679241905</v>
+        <v>13.40893818530444</v>
       </c>
       <c r="F171">
-        <v>3.260053807435698</v>
+        <v>3.263471205646904</v>
       </c>
       <c r="G171">
-        <v>-6.6</v>
+        <v>-6.5</v>
       </c>
       <c r="H171">
         <v>7.1</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2016 - (apr 2023 - mar 2025)</t>
+          <t>2016 - (mar 2023 - feb 2025)</t>
         </is>
       </c>
       <c r="J171" s="2">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="K171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L171">
         <v>2025</v>
@@ -23405,10 +23480,10 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>1.004987775523698</v>
+        <v>1.002586916430626</v>
       </c>
       <c r="B172">
-        <v>0.4987775523697779</v>
+        <v>0.2586916430626252</v>
       </c>
       <c r="C172">
         <v>20</v>
@@ -23417,27 +23492,27 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E172">
-        <v>13.43471535184375</v>
+        <v>13.39489679241905</v>
       </c>
       <c r="F172">
-        <v>3.269744859802191</v>
+        <v>3.260053807435698</v>
       </c>
       <c r="G172">
-        <v>-6.3</v>
+        <v>-6.6</v>
       </c>
       <c r="H172">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2016 - (mai 2023 - apr 2025)</t>
+          <t>2016 - (apr 2023 - mar 2025)</t>
         </is>
       </c>
       <c r="J172" s="2">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="K172">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L172">
         <v>2025</v>
@@ -23450,10 +23525,10 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>1.005460412264787</v>
+        <v>1.004987775523698</v>
       </c>
       <c r="B173">
-        <v>0.5460412264786552</v>
+        <v>0.4987775523697779</v>
       </c>
       <c r="C173">
         <v>20</v>
@@ -23462,27 +23537,27 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E173">
-        <v>13.38746896126159</v>
+        <v>13.43471535184375</v>
       </c>
       <c r="F173">
-        <v>3.258246019766921</v>
+        <v>3.269744859802191</v>
       </c>
       <c r="G173">
         <v>-6.3</v>
       </c>
       <c r="H173">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2016 - (jun 2023 - mai 2025)</t>
+          <t>2016 - (mai 2023 - apr 2025)</t>
         </is>
       </c>
       <c r="J173" s="2">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="K173">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L173">
         <v>2025</v>
@@ -23495,10 +23570,10 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>1.004326163822444</v>
+        <v>1.005460412264787</v>
       </c>
       <c r="B174">
-        <v>0.4326163822443663</v>
+        <v>0.5460412264786552</v>
       </c>
       <c r="C174">
         <v>20</v>
@@ -23507,27 +23582,27 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E174">
-        <v>13.36272017597942</v>
+        <v>13.38746896126159</v>
       </c>
       <c r="F174">
-        <v>3.252222653335743</v>
+        <v>3.258246019766921</v>
       </c>
       <c r="G174">
-        <v>-6.4</v>
+        <v>-6.3</v>
       </c>
       <c r="H174">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2016 - (jul 2023 - jun 2025)</t>
+          <t>2016 - (jun 2023 - mai 2025)</t>
         </is>
       </c>
       <c r="J174" s="2">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="K174">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L174">
         <v>2025</v>
@@ -23540,10 +23615,10 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>1.005419348085679</v>
+        <v>1.004326163822444</v>
       </c>
       <c r="B175">
-        <v>0.5419348085678788</v>
+        <v>0.4326163822443663</v>
       </c>
       <c r="C175">
         <v>20</v>
@@ -23552,27 +23627,27 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E175">
-        <v>13.38607364202854</v>
+        <v>13.36272017597942</v>
       </c>
       <c r="F175">
-        <v>3.257906426573424</v>
+        <v>3.252222653335743</v>
       </c>
       <c r="G175">
-        <v>-6.3</v>
+        <v>-6.4</v>
       </c>
       <c r="H175">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2016 - (aug 2023 - jul 2025)</t>
+          <t>2016 - (jul 2023 - jun 2025)</t>
         </is>
       </c>
       <c r="J175" s="2">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="K175">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L175">
         <v>2025</v>
@@ -23585,10 +23660,10 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>1.005979894064566</v>
+        <v>1.005419348085679</v>
       </c>
       <c r="B176">
-        <v>0.5979894064566116</v>
+        <v>0.5419348085678788</v>
       </c>
       <c r="C176">
         <v>20</v>
@@ -23597,10 +23672,10 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E176">
-        <v>13.44330877962815</v>
+        <v>13.38607364202854</v>
       </c>
       <c r="F176">
-        <v>3.271836330710971</v>
+        <v>3.257906426573424</v>
       </c>
       <c r="G176">
         <v>-6.3</v>
@@ -23610,14 +23685,14 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2016 - (sep 2023 - aug 2025)</t>
+          <t>2016 - (aug 2023 - jul 2025)</t>
         </is>
       </c>
       <c r="J176" s="2">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="K176">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L176">
         <v>2025</v>
@@ -23630,10 +23705,10 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>1.0070367983249</v>
+        <v>1.005979894064566</v>
       </c>
       <c r="B177">
-        <v>0.7036798324900451</v>
+        <v>0.5979894064566116</v>
       </c>
       <c r="C177">
         <v>20</v>
@@ -23642,27 +23717,27 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E177">
-        <v>13.39410765994257</v>
+        <v>13.44330877962815</v>
       </c>
       <c r="F177">
-        <v>3.259861748148165</v>
+        <v>3.271836330710971</v>
       </c>
       <c r="G177">
-        <v>-6.1</v>
+        <v>-6.3</v>
       </c>
       <c r="H177">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2016 - (okt 2023 - sep 2025)</t>
+          <t>2016 - (sep 2023 - aug 2025)</t>
         </is>
       </c>
       <c r="J177" s="2">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="K177">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L177">
         <v>2025</v>
@@ -23675,100 +23750,100 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>0.9731235536538212</v>
+        <v>1.0070367983249</v>
       </c>
       <c r="B178">
-        <v>-2.687644634617881</v>
+        <v>0.7036798324900451</v>
       </c>
       <c r="C178">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D178">
-        <v>12.74436540910119</v>
+        <v>16.88220645671328</v>
       </c>
       <c r="E178">
-        <v>5.815881681151314</v>
+        <v>13.39410765994257</v>
       </c>
       <c r="F178">
-        <v>1.629132677857648</v>
+        <v>3.259861748148165</v>
       </c>
       <c r="G178">
-        <v>-6.2</v>
+        <v>-6.1</v>
       </c>
       <c r="H178">
-        <v>0.8</v>
+        <v>7.5</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2016 - (jan 2017 - des 2019)</t>
+          <t>2016 - (okt 2023 - sep 2025)</t>
         </is>
       </c>
       <c r="J178" s="2">
-        <v>43800</v>
+        <v>45901</v>
       </c>
       <c r="K178">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L178">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>36_months</t>
+          <t>24_months</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>0.9740431819957736</v>
+        <v>1.008921963091023</v>
       </c>
       <c r="B179">
-        <v>-2.595681800422645</v>
+        <v>0.8921963091022889</v>
       </c>
       <c r="C179">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D179">
-        <v>12.74436540910119</v>
+        <v>16.88220645671328</v>
       </c>
       <c r="E179">
-        <v>5.803157261078308</v>
+        <v>13.34224484054603</v>
       </c>
       <c r="F179">
-        <v>1.625568339777164</v>
+        <v>3.247239360349423</v>
       </c>
       <c r="G179">
-        <v>-6.1</v>
+        <v>-5.9</v>
       </c>
       <c r="H179">
-        <v>0.9</v>
+        <v>7.7</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2016 - (feb 2017 - jan 2020)</t>
+          <t>2016 - (nov 2023 - okt 2025)</t>
         </is>
       </c>
       <c r="J179" s="2">
-        <v>43831</v>
+        <v>45931</v>
       </c>
       <c r="K179">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L179">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>36_months</t>
+          <t>24_months</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.9746347696807275</v>
+        <v>0.9731235536538212</v>
       </c>
       <c r="B180">
-        <v>-2.536523031927251</v>
+        <v>-2.687644634617881</v>
       </c>
       <c r="C180">
         <v>15</v>
@@ -23777,30 +23852,30 @@
         <v>12.74436540910119</v>
       </c>
       <c r="E180">
-        <v>5.815659777635309</v>
+        <v>5.815881681151314</v>
       </c>
       <c r="F180">
-        <v>1.629070518706367</v>
+        <v>1.629132677857648</v>
       </c>
       <c r="G180">
-        <v>-6</v>
+        <v>-6.2</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2016 - (mar 2017 - feb 2020)</t>
+          <t>2016 - (jan 2017 - des 2019)</t>
         </is>
       </c>
       <c r="J180" s="2">
-        <v>43862</v>
+        <v>43800</v>
       </c>
       <c r="K180">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L180">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
@@ -23810,10 +23885,10 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.9683689718705626</v>
+        <v>0.9740431819957736</v>
       </c>
       <c r="B181">
-        <v>-3.163102812943741</v>
+        <v>-2.595681800422645</v>
       </c>
       <c r="C181">
         <v>15</v>
@@ -23822,27 +23897,27 @@
         <v>12.74436540910119</v>
       </c>
       <c r="E181">
-        <v>5.85766996660876</v>
+        <v>5.803157261078308</v>
       </c>
       <c r="F181">
-        <v>1.640838325448624</v>
+        <v>1.625568339777164</v>
       </c>
       <c r="G181">
-        <v>-6.7</v>
+        <v>-6.1</v>
       </c>
       <c r="H181">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2016 - (apr 2017 - mar 2020)</t>
+          <t>2016 - (feb 2017 - jan 2020)</t>
         </is>
       </c>
       <c r="J181" s="2">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="K181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L181">
         <v>2020</v>
@@ -23855,10 +23930,10 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.9639489866405199</v>
+        <v>0.9746347696807275</v>
       </c>
       <c r="B182">
-        <v>-3.605101335948013</v>
+        <v>-2.536523031927251</v>
       </c>
       <c r="C182">
         <v>15</v>
@@ -23867,27 +23942,27 @@
         <v>12.74436540910119</v>
       </c>
       <c r="E182">
-        <v>5.921825741594147</v>
+        <v>5.815659777635309</v>
       </c>
       <c r="F182">
-        <v>1.65880950767551</v>
+        <v>1.629070518706367</v>
       </c>
       <c r="G182">
-        <v>-7.2</v>
+        <v>-6</v>
       </c>
       <c r="H182">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2016 - (mai 2017 - apr 2020)</t>
+          <t>2016 - (mar 2017 - feb 2020)</t>
         </is>
       </c>
       <c r="J182" s="2">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="K182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L182">
         <v>2020</v>
@@ -23900,10 +23975,10 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>0.9609281116120592</v>
+        <v>0.9683689718705626</v>
       </c>
       <c r="B183">
-        <v>-3.907188838794085</v>
+        <v>-3.163102812943741</v>
       </c>
       <c r="C183">
         <v>15</v>
@@ -23912,27 +23987,27 @@
         <v>12.74436540910119</v>
       </c>
       <c r="E183">
-        <v>5.847495658278277</v>
+        <v>5.85766996660876</v>
       </c>
       <c r="F183">
-        <v>1.637988319364507</v>
+        <v>1.640838325448624</v>
       </c>
       <c r="G183">
-        <v>-7.4</v>
+        <v>-6.7</v>
       </c>
       <c r="H183">
-        <v>-0.4</v>
+        <v>0.4</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2016 - (jun 2017 - mai 2020)</t>
+          <t>2016 - (apr 2017 - mar 2020)</t>
         </is>
       </c>
       <c r="J183" s="2">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="K183">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L183">
         <v>2020</v>
@@ -23945,10 +24020,10 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.9607851930745109</v>
+        <v>0.9639489866405199</v>
       </c>
       <c r="B184">
-        <v>-3.921480692548907</v>
+        <v>-3.605101335948013</v>
       </c>
       <c r="C184">
         <v>15</v>
@@ -23957,27 +24032,27 @@
         <v>12.74436540910119</v>
       </c>
       <c r="E184">
-        <v>5.761552423139178</v>
+        <v>5.921825741594147</v>
       </c>
       <c r="F184">
-        <v>1.613914079123396</v>
+        <v>1.65880950767551</v>
       </c>
       <c r="G184">
-        <v>-7.4</v>
+        <v>-7.2</v>
       </c>
       <c r="H184">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2016 - (jul 2017 - jun 2020)</t>
+          <t>2016 - (mai 2017 - apr 2020)</t>
         </is>
       </c>
       <c r="J184" s="2">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="K184">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L184">
         <v>2020</v>
@@ -23990,10 +24065,10 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.9619372279373845</v>
+        <v>0.9609281116120592</v>
       </c>
       <c r="B185">
-        <v>-3.806277206261555</v>
+        <v>-3.907188838794085</v>
       </c>
       <c r="C185">
         <v>15</v>
@@ -24002,27 +24077,27 @@
         <v>12.74436540910119</v>
       </c>
       <c r="E185">
-        <v>5.648594545746626</v>
+        <v>5.847495658278277</v>
       </c>
       <c r="F185">
-        <v>1.582272553492288</v>
+        <v>1.637988319364507</v>
       </c>
       <c r="G185">
-        <v>-7.2</v>
+        <v>-7.4</v>
       </c>
       <c r="H185">
         <v>-0.4</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>2016 - (aug 2017 - jul 2020)</t>
+          <t>2016 - (jun 2017 - mai 2020)</t>
         </is>
       </c>
       <c r="J185" s="2">
-        <v>44013</v>
+        <v>43952</v>
       </c>
       <c r="K185">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L185">
         <v>2020</v>
@@ -24035,39 +24110,39 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.9637990480672979</v>
+        <v>0.9607851930745109</v>
       </c>
       <c r="B186">
-        <v>-3.620095193270212</v>
+        <v>-3.921480692548907</v>
       </c>
       <c r="C186">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D186">
-        <v>11.76145776665505</v>
+        <v>12.74436540910119</v>
       </c>
       <c r="E186">
-        <v>5.835830991072816</v>
+        <v>5.761552423139178</v>
       </c>
       <c r="F186">
-        <v>1.701657410141837</v>
+        <v>1.613914079123396</v>
       </c>
       <c r="G186">
-        <v>-7.3</v>
+        <v>-7.4</v>
       </c>
       <c r="H186">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>2016 - (sep 2017 - aug 2020)</t>
+          <t>2016 - (jul 2017 - jun 2020)</t>
         </is>
       </c>
       <c r="J186" s="2">
-        <v>44044</v>
+        <v>43983</v>
       </c>
       <c r="K186">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L186">
         <v>2020</v>
@@ -24080,39 +24155,39 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>0.9642976801675073</v>
+        <v>0.9619372279373845</v>
       </c>
       <c r="B187">
-        <v>-3.570231983249272</v>
+        <v>-3.806277206261555</v>
       </c>
       <c r="C187">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D187">
-        <v>11.76145776665505</v>
+        <v>12.74436540910119</v>
       </c>
       <c r="E187">
-        <v>5.887176819660942</v>
+        <v>5.648594545746626</v>
       </c>
       <c r="F187">
-        <v>1.716629229893045</v>
+        <v>1.582272553492288</v>
       </c>
       <c r="G187">
-        <v>-7.3</v>
+        <v>-7.2</v>
       </c>
       <c r="H187">
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2016 - (okt 2017 - sep 2020)</t>
+          <t>2016 - (aug 2017 - jul 2020)</t>
         </is>
       </c>
       <c r="J187" s="2">
-        <v>44075</v>
+        <v>44013</v>
       </c>
       <c r="K187">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L187">
         <v>2020</v>
@@ -24125,10 +24200,10 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>0.9640034261126973</v>
+        <v>0.9637990480672979</v>
       </c>
       <c r="B188">
-        <v>-3.599657388730271</v>
+        <v>-3.620095193270212</v>
       </c>
       <c r="C188">
         <v>14</v>
@@ -24137,27 +24212,27 @@
         <v>11.76145776665505</v>
       </c>
       <c r="E188">
-        <v>6.019231124538624</v>
+        <v>5.835830991072816</v>
       </c>
       <c r="F188">
-        <v>1.755134660701439</v>
+        <v>1.701657410141837</v>
       </c>
       <c r="G188">
-        <v>-7.4</v>
+        <v>-7.3</v>
       </c>
       <c r="H188">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2016 - (nov 2017 - okt 2020)</t>
+          <t>2016 - (sep 2017 - aug 2020)</t>
         </is>
       </c>
       <c r="J188" s="2">
-        <v>44105</v>
+        <v>44044</v>
       </c>
       <c r="K188">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L188">
         <v>2020</v>
@@ -24170,10 +24245,10 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>0.9619564101223631</v>
+        <v>0.9642976801675073</v>
       </c>
       <c r="B189">
-        <v>-3.80435898776369</v>
+        <v>-3.570231983249272</v>
       </c>
       <c r="C189">
         <v>14</v>
@@ -24182,27 +24257,27 @@
         <v>11.76145776665505</v>
       </c>
       <c r="E189">
-        <v>6.097919537684239</v>
+        <v>5.887176819660942</v>
       </c>
       <c r="F189">
-        <v>1.778079245890141</v>
+        <v>1.716629229893045</v>
       </c>
       <c r="G189">
-        <v>-7.6</v>
+        <v>-7.3</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>2016 - (des 2017 - nov 2020)</t>
+          <t>2016 - (okt 2017 - sep 2020)</t>
         </is>
       </c>
       <c r="J189" s="2">
-        <v>44136</v>
+        <v>44075</v>
       </c>
       <c r="K189">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L189">
         <v>2020</v>
@@ -24215,10 +24290,10 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>0.960080877557984</v>
+        <v>0.9640034261126973</v>
       </c>
       <c r="B190">
-        <v>-3.991912244201601</v>
+        <v>-3.599657388730271</v>
       </c>
       <c r="C190">
         <v>14</v>
@@ -24227,27 +24302,27 @@
         <v>11.76145776665505</v>
       </c>
       <c r="E190">
-        <v>6.180018304689217</v>
+        <v>6.019231124538624</v>
       </c>
       <c r="F190">
-        <v>1.802018248827553</v>
+        <v>1.755134660701439</v>
       </c>
       <c r="G190">
-        <v>-7.9</v>
+        <v>-7.4</v>
       </c>
       <c r="H190">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>2016 - (jan 2018 - des 2020)</t>
+          <t>2016 - (nov 2017 - okt 2020)</t>
         </is>
       </c>
       <c r="J190" s="2">
-        <v>44166</v>
+        <v>44105</v>
       </c>
       <c r="K190">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L190">
         <v>2020</v>
@@ -24260,42 +24335,42 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.9644095397479687</v>
+        <v>0.9619564101223631</v>
       </c>
       <c r="B191">
-        <v>-3.559046025203128</v>
+        <v>-3.80435898776369</v>
       </c>
       <c r="C191">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D191">
-        <v>12.7603248224164</v>
+        <v>11.76145776665505</v>
       </c>
       <c r="E191">
-        <v>6.59151620531087</v>
+        <v>6.097919537684239</v>
       </c>
       <c r="F191">
-        <v>1.845246793168298</v>
+        <v>1.778079245890141</v>
       </c>
       <c r="G191">
-        <v>-7.5</v>
+        <v>-7.6</v>
       </c>
       <c r="H191">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2016 - (feb 2018 - jan 2021)</t>
+          <t>2016 - (des 2017 - nov 2020)</t>
         </is>
       </c>
       <c r="J191" s="2">
-        <v>44197</v>
+        <v>44136</v>
       </c>
       <c r="K191">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L191">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
@@ -24305,42 +24380,42 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.9637479602639543</v>
+        <v>0.960080877557984</v>
       </c>
       <c r="B192">
-        <v>-3.625203973604574</v>
+        <v>-3.991912244201601</v>
       </c>
       <c r="C192">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D192">
-        <v>12.7603248224164</v>
+        <v>11.76145776665505</v>
       </c>
       <c r="E192">
-        <v>6.605689342534895</v>
+        <v>6.180018304689217</v>
       </c>
       <c r="F192">
-        <v>1.849214459361805</v>
+        <v>1.802018248827553</v>
       </c>
       <c r="G192">
-        <v>-7.6</v>
+        <v>-7.9</v>
       </c>
       <c r="H192">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2016 - (mar 2018 - feb 2021)</t>
+          <t>2016 - (jan 2018 - des 2020)</t>
         </is>
       </c>
       <c r="J192" s="2">
-        <v>44228</v>
+        <v>44166</v>
       </c>
       <c r="K192">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L192">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
@@ -24350,10 +24425,10 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>0.963132894842846</v>
+        <v>0.9644095397479687</v>
       </c>
       <c r="B193">
-        <v>-3.686710515715397</v>
+        <v>-3.559046025203128</v>
       </c>
       <c r="C193">
         <v>15</v>
@@ -24362,27 +24437,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E193">
-        <v>6.719310614776861</v>
+        <v>6.59151620531087</v>
       </c>
       <c r="F193">
-        <v>1.881021904221193</v>
+        <v>1.845246793168298</v>
       </c>
       <c r="G193">
-        <v>-7.7</v>
+        <v>-7.5</v>
       </c>
       <c r="H193">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2016 - (apr 2018 - mar 2021)</t>
+          <t>2016 - (feb 2018 - jan 2021)</t>
         </is>
       </c>
       <c r="J193" s="2">
-        <v>44256</v>
+        <v>44197</v>
       </c>
       <c r="K193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L193">
         <v>2021</v>
@@ -24395,10 +24470,10 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>0.9609431622707086</v>
+        <v>0.9637479602639543</v>
       </c>
       <c r="B194">
-        <v>-3.905683772929136</v>
+        <v>-3.625203973604574</v>
       </c>
       <c r="C194">
         <v>15</v>
@@ -24407,27 +24482,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E194">
-        <v>6.848777039761551</v>
+        <v>6.605689342534895</v>
       </c>
       <c r="F194">
-        <v>1.917265083800041</v>
+        <v>1.849214459361805</v>
       </c>
       <c r="G194">
-        <v>-8</v>
+        <v>-7.6</v>
       </c>
       <c r="H194">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>2016 - (mai 2018 - apr 2021)</t>
+          <t>2016 - (mar 2018 - feb 2021)</t>
         </is>
       </c>
       <c r="J194" s="2">
-        <v>44287</v>
+        <v>44228</v>
       </c>
       <c r="K194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L194">
         <v>2021</v>
@@ -24440,10 +24515,10 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.9580361994607227</v>
+        <v>0.963132894842846</v>
       </c>
       <c r="B195">
-        <v>-4.196380053927729</v>
+        <v>-3.686710515715397</v>
       </c>
       <c r="C195">
         <v>15</v>
@@ -24452,27 +24527,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E195">
-        <v>6.981501024103025</v>
+        <v>6.719310614776861</v>
       </c>
       <c r="F195">
-        <v>1.954420193315708</v>
+        <v>1.881021904221193</v>
       </c>
       <c r="G195">
-        <v>-8.4</v>
+        <v>-7.7</v>
       </c>
       <c r="H195">
-        <v>-0</v>
+        <v>0.3</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>2016 - (jun 2018 - mai 2021)</t>
+          <t>2016 - (apr 2018 - mar 2021)</t>
         </is>
       </c>
       <c r="J195" s="2">
-        <v>44317</v>
+        <v>44256</v>
       </c>
       <c r="K195">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L195">
         <v>2021</v>
@@ -24485,10 +24560,10 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.9591998816416445</v>
+        <v>0.9609431622707086</v>
       </c>
       <c r="B196">
-        <v>-4.080011835835551</v>
+        <v>-3.905683772929136</v>
       </c>
       <c r="C196">
         <v>15</v>
@@ -24497,27 +24572,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E196">
-        <v>7.137582473502269</v>
+        <v>6.848777039761551</v>
       </c>
       <c r="F196">
-        <v>1.998114054486066</v>
+        <v>1.917265083800041</v>
       </c>
       <c r="G196">
-        <v>-8.4</v>
+        <v>-8</v>
       </c>
       <c r="H196">
         <v>0.2</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>2016 - (jul 2018 - jun 2021)</t>
+          <t>2016 - (mai 2018 - apr 2021)</t>
         </is>
       </c>
       <c r="J196" s="2">
-        <v>44348</v>
+        <v>44287</v>
       </c>
       <c r="K196">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L196">
         <v>2021</v>
@@ -24530,10 +24605,10 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>0.961877430448511</v>
+        <v>0.9580361994607227</v>
       </c>
       <c r="B197">
-        <v>-3.812256955148896</v>
+        <v>-4.196380053927729</v>
       </c>
       <c r="C197">
         <v>15</v>
@@ -24542,27 +24617,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E197">
-        <v>7.367659351557208</v>
+        <v>6.981501024103025</v>
       </c>
       <c r="F197">
-        <v>2.062522395175722</v>
+        <v>1.954420193315708</v>
       </c>
       <c r="G197">
-        <v>-8.199999999999999</v>
+        <v>-8.4</v>
       </c>
       <c r="H197">
-        <v>0.6</v>
+        <v>-0</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2016 - (aug 2018 - jul 2021)</t>
+          <t>2016 - (jun 2018 - mai 2021)</t>
         </is>
       </c>
       <c r="J197" s="2">
-        <v>44378</v>
+        <v>44317</v>
       </c>
       <c r="K197">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L197">
         <v>2021</v>
@@ -24575,10 +24650,10 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>0.963005396473987</v>
+        <v>0.9591998816416445</v>
       </c>
       <c r="B198">
-        <v>-3.699460352601303</v>
+        <v>-4.080011835835551</v>
       </c>
       <c r="C198">
         <v>15</v>
@@ -24587,27 +24662,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E198">
-        <v>7.684083633770681</v>
+        <v>7.137582473502269</v>
       </c>
       <c r="F198">
-        <v>2.151103060662753</v>
+        <v>1.998114054486066</v>
       </c>
       <c r="G198">
-        <v>-8.300000000000001</v>
+        <v>-8.4</v>
       </c>
       <c r="H198">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>2016 - (sep 2018 - aug 2021)</t>
+          <t>2016 - (jul 2018 - jun 2021)</t>
         </is>
       </c>
       <c r="J198" s="2">
-        <v>44409</v>
+        <v>44348</v>
       </c>
       <c r="K198">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L198">
         <v>2021</v>
@@ -24620,10 +24695,10 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>0.9653684769912766</v>
+        <v>0.961877430448511</v>
       </c>
       <c r="B199">
-        <v>-3.463152300872341</v>
+        <v>-3.812256955148896</v>
       </c>
       <c r="C199">
         <v>15</v>
@@ -24632,27 +24707,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E199">
-        <v>8.066158251358784</v>
+        <v>7.367659351557208</v>
       </c>
       <c r="F199">
-        <v>2.25806205778809</v>
+        <v>2.062522395175722</v>
       </c>
       <c r="G199">
-        <v>-8.300000000000001</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="H199">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>2016 - (okt 2018 - sep 2021)</t>
+          <t>2016 - (aug 2018 - jul 2021)</t>
         </is>
       </c>
       <c r="J199" s="2">
-        <v>44440</v>
+        <v>44378</v>
       </c>
       <c r="K199">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L199">
         <v>2021</v>
@@ -24665,10 +24740,10 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>0.965905382174537</v>
+        <v>0.963005396473987</v>
       </c>
       <c r="B200">
-        <v>-3.409461782546297</v>
+        <v>-3.699460352601303</v>
       </c>
       <c r="C200">
         <v>15</v>
@@ -24677,27 +24752,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E200">
-        <v>8.388043904661535</v>
+        <v>7.684083633770681</v>
       </c>
       <c r="F200">
-        <v>2.348171594201764</v>
+        <v>2.151103060662753</v>
       </c>
       <c r="G200">
-        <v>-8.4</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="H200">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2016 - (nov 2018 - okt 2021)</t>
+          <t>2016 - (sep 2018 - aug 2021)</t>
         </is>
       </c>
       <c r="J200" s="2">
-        <v>44470</v>
+        <v>44409</v>
       </c>
       <c r="K200">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L200">
         <v>2021</v>
@@ -24710,10 +24785,10 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.9666634783390821</v>
+        <v>0.9653684769912766</v>
       </c>
       <c r="B201">
-        <v>-3.333652166091794</v>
+        <v>-3.463152300872341</v>
       </c>
       <c r="C201">
         <v>15</v>
@@ -24722,27 +24797,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E201">
-        <v>8.618385472180252</v>
+        <v>8.066158251358784</v>
       </c>
       <c r="F201">
-        <v>2.412654032772546</v>
+        <v>2.25806205778809</v>
       </c>
       <c r="G201">
-        <v>-8.5</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="H201">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>2016 - (des 2018 - nov 2021)</t>
+          <t>2016 - (okt 2018 - sep 2021)</t>
         </is>
       </c>
       <c r="J201" s="2">
-        <v>44501</v>
+        <v>44440</v>
       </c>
       <c r="K201">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L201">
         <v>2021</v>
@@ -24755,10 +24830,10 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.9663315672759155</v>
+        <v>0.965905382174537</v>
       </c>
       <c r="B202">
-        <v>-3.366843272408448</v>
+        <v>-3.409461782546297</v>
       </c>
       <c r="C202">
         <v>15</v>
@@ -24767,27 +24842,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E202">
-        <v>8.733938168991978</v>
+        <v>8.388043904661535</v>
       </c>
       <c r="F202">
-        <v>2.445002165826059</v>
+        <v>2.348171594201764</v>
       </c>
       <c r="G202">
-        <v>-8.6</v>
+        <v>-8.4</v>
       </c>
       <c r="H202">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>2016 - (jan 2019 - des 2021)</t>
+          <t>2016 - (nov 2018 - okt 2021)</t>
         </is>
       </c>
       <c r="J202" s="2">
-        <v>44531</v>
+        <v>44470</v>
       </c>
       <c r="K202">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L202">
         <v>2021</v>
@@ -24800,42 +24875,42 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>0.9595344770438154</v>
+        <v>0.9666634783390821</v>
       </c>
       <c r="B203">
-        <v>-4.046552295618455</v>
+        <v>-3.333652166091794</v>
       </c>
       <c r="C203">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D203">
-        <v>11.77088794161442</v>
+        <v>12.7603248224164</v>
       </c>
       <c r="E203">
-        <v>9.092201956222636</v>
+        <v>8.618385472180252</v>
       </c>
       <c r="F203">
-        <v>2.650113418469985</v>
+        <v>2.412654032772546</v>
       </c>
       <c r="G203">
-        <v>-9.800000000000001</v>
+        <v>-8.5</v>
       </c>
       <c r="H203">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>2016 - (feb 2019 - jan 2022)</t>
+          <t>2016 - (des 2018 - nov 2021)</t>
         </is>
       </c>
       <c r="J203" s="2">
-        <v>44562</v>
+        <v>44501</v>
       </c>
       <c r="K203">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L203">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
@@ -24845,42 +24920,42 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>0.9591469672235925</v>
+        <v>0.9663315672759155</v>
       </c>
       <c r="B204">
-        <v>-4.085303277640751</v>
+        <v>-3.366843272408448</v>
       </c>
       <c r="C204">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D204">
-        <v>11.77088794161442</v>
+        <v>12.7603248224164</v>
       </c>
       <c r="E204">
-        <v>9.212608393620416</v>
+        <v>8.733938168991978</v>
       </c>
       <c r="F204">
-        <v>2.685208406125823</v>
+        <v>2.445002165826059</v>
       </c>
       <c r="G204">
-        <v>-9.9</v>
+        <v>-8.6</v>
       </c>
       <c r="H204">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>2016 - (mar 2019 - feb 2022)</t>
+          <t>2016 - (jan 2019 - des 2021)</t>
         </is>
       </c>
       <c r="J204" s="2">
-        <v>44593</v>
+        <v>44531</v>
       </c>
       <c r="K204">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L204">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
@@ -24890,39 +24965,39 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.9657423026909662</v>
+        <v>0.9595344770438154</v>
       </c>
       <c r="B205">
-        <v>-3.425769730903383</v>
+        <v>-4.046552295618455</v>
       </c>
       <c r="C205">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D205">
-        <v>12.71351431826491</v>
+        <v>11.77088794161442</v>
       </c>
       <c r="E205">
-        <v>9.346809191536549</v>
+        <v>9.092201956222636</v>
       </c>
       <c r="F205">
-        <v>2.621383543681084</v>
+        <v>2.650113418469985</v>
       </c>
       <c r="G205">
-        <v>-9</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="H205">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>2016 - (apr 2019 - mar 2022)</t>
+          <t>2016 - (feb 2019 - jan 2022)</t>
         </is>
       </c>
       <c r="J205" s="2">
-        <v>44621</v>
+        <v>44562</v>
       </c>
       <c r="K205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L205">
         <v>2022</v>
@@ -24935,39 +25010,39 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.9657950819813155</v>
+        <v>0.9591469672235925</v>
       </c>
       <c r="B206">
-        <v>-3.420491801868453</v>
+        <v>-4.085303277640751</v>
       </c>
       <c r="C206">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D206">
-        <v>12.71351431826491</v>
+        <v>11.77088794161442</v>
       </c>
       <c r="E206">
-        <v>9.530489775273447</v>
+        <v>9.212608393620416</v>
       </c>
       <c r="F206">
-        <v>2.672898156811052</v>
+        <v>2.685208406125823</v>
       </c>
       <c r="G206">
-        <v>-9.199999999999999</v>
+        <v>-9.9</v>
       </c>
       <c r="H206">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>2016 - (mai 2019 - apr 2022)</t>
+          <t>2016 - (mar 2019 - feb 2022)</t>
         </is>
       </c>
       <c r="J206" s="2">
-        <v>44652</v>
+        <v>44593</v>
       </c>
       <c r="K206">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L206">
         <v>2022</v>
@@ -24980,39 +25055,39 @@
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.9653597240489706</v>
+        <v>0.9657423026909662</v>
       </c>
       <c r="B207">
-        <v>-3.464027595102936</v>
+        <v>-3.425769730903383</v>
       </c>
       <c r="C207">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D207">
-        <v>13.11045531680985</v>
+        <v>12.71351431826491</v>
       </c>
       <c r="E207">
-        <v>9.651975063869749</v>
+        <v>9.346809191536549</v>
       </c>
       <c r="F207">
-        <v>2.665675643910762</v>
+        <v>2.621383543681084</v>
       </c>
       <c r="G207">
-        <v>-9.1</v>
+        <v>-9</v>
       </c>
       <c r="H207">
         <v>2.2</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>2016 - (jun 2019 - mai 2022)</t>
+          <t>2016 - (apr 2019 - mar 2022)</t>
         </is>
       </c>
       <c r="J207" s="2">
-        <v>44682</v>
+        <v>44621</v>
       </c>
       <c r="K207">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L207">
         <v>2022</v>
@@ -25025,39 +25100,39 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.9664752391556581</v>
+        <v>0.9657950819813155</v>
       </c>
       <c r="B208">
-        <v>-3.352476084434186</v>
+        <v>-3.420491801868453</v>
       </c>
       <c r="C208">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D208">
-        <v>13.11045531680985</v>
+        <v>12.71351431826491</v>
       </c>
       <c r="E208">
-        <v>10.01425450043057</v>
+        <v>9.530489775273447</v>
       </c>
       <c r="F208">
-        <v>2.765729722370296</v>
+        <v>2.672898156811052</v>
       </c>
       <c r="G208">
         <v>-9.199999999999999</v>
       </c>
       <c r="H208">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>2016 - (jul 2019 - jun 2022)</t>
+          <t>2016 - (mai 2019 - apr 2022)</t>
         </is>
       </c>
       <c r="J208" s="2">
-        <v>44713</v>
+        <v>44652</v>
       </c>
       <c r="K208">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L208">
         <v>2022</v>
@@ -25070,10 +25145,10 @@
     </row>
     <row r="209">
       <c r="A209">
-        <v>0.9661439658049046</v>
+        <v>0.9653597240489706</v>
       </c>
       <c r="B209">
-        <v>-3.385603419509542</v>
+        <v>-3.464027595102936</v>
       </c>
       <c r="C209">
         <v>16</v>
@@ -25082,27 +25157,27 @@
         <v>13.11045531680985</v>
       </c>
       <c r="E209">
-        <v>10.15424079739942</v>
+        <v>9.651975063869749</v>
       </c>
       <c r="F209">
-        <v>2.804391038820228</v>
+        <v>2.665675643910762</v>
       </c>
       <c r="G209">
-        <v>-9.4</v>
+        <v>-9.1</v>
       </c>
       <c r="H209">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>2016 - (aug 2019 - jul 2022)</t>
+          <t>2016 - (jun 2019 - mai 2022)</t>
         </is>
       </c>
       <c r="J209" s="2">
-        <v>44743</v>
+        <v>44682</v>
       </c>
       <c r="K209">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L209">
         <v>2022</v>
@@ -25115,10 +25190,10 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>0.9667155845989283</v>
+        <v>0.9664752391556581</v>
       </c>
       <c r="B210">
-        <v>-3.328441540107174</v>
+        <v>-3.352476084434186</v>
       </c>
       <c r="C210">
         <v>16</v>
@@ -25127,27 +25202,27 @@
         <v>13.11045531680985</v>
       </c>
       <c r="E210">
-        <v>10.28850338359482</v>
+        <v>10.01425450043057</v>
       </c>
       <c r="F210">
-        <v>2.841471584878546</v>
+        <v>2.765729722370296</v>
       </c>
       <c r="G210">
-        <v>-9.4</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="H210">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>2016 - (sep 2019 - aug 2022)</t>
+          <t>2016 - (jul 2019 - jun 2022)</t>
         </is>
       </c>
       <c r="J210" s="2">
-        <v>44774</v>
+        <v>44713</v>
       </c>
       <c r="K210">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L210">
         <v>2022</v>
@@ -25160,39 +25235,39 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.980576443033453</v>
+        <v>0.9661439658049046</v>
       </c>
       <c r="B211">
-        <v>-1.942355696654696</v>
+        <v>-3.385603419509542</v>
       </c>
       <c r="C211">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D211">
-        <v>13.88999092310759</v>
+        <v>13.11045531680985</v>
       </c>
       <c r="E211">
-        <v>12.02770260294899</v>
+        <v>10.15424079739942</v>
       </c>
       <c r="F211">
-        <v>3.22724324337159</v>
+        <v>2.804391038820228</v>
       </c>
       <c r="G211">
-        <v>-8.800000000000001</v>
+        <v>-9.4</v>
       </c>
       <c r="H211">
-        <v>4.9</v>
+        <v>2.6</v>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>2016 - (okt 2019 - sep 2022)</t>
+          <t>2016 - (aug 2019 - jul 2022)</t>
         </is>
       </c>
       <c r="J211" s="2">
-        <v>44805</v>
+        <v>44743</v>
       </c>
       <c r="K211">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L211">
         <v>2022</v>
@@ -25205,39 +25280,39 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.9799002317787093</v>
+        <v>0.9667155845989283</v>
       </c>
       <c r="B212">
-        <v>-2.009976822129067</v>
+        <v>-3.328441540107174</v>
       </c>
       <c r="C212">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D212">
-        <v>13.88999092310759</v>
+        <v>13.11045531680985</v>
       </c>
       <c r="E212">
-        <v>12.01886176655834</v>
+        <v>10.28850338359482</v>
       </c>
       <c r="F212">
-        <v>3.224871092142935</v>
+        <v>2.841471584878546</v>
       </c>
       <c r="G212">
-        <v>-8.800000000000001</v>
+        <v>-9.4</v>
       </c>
       <c r="H212">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>2016 - (nov 2019 - okt 2022)</t>
+          <t>2016 - (sep 2019 - aug 2022)</t>
         </is>
       </c>
       <c r="J212" s="2">
-        <v>44835</v>
+        <v>44774</v>
       </c>
       <c r="K212">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L212">
         <v>2022</v>
@@ -25250,10 +25325,10 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>0.9802432859732928</v>
+        <v>0.980576443033453</v>
       </c>
       <c r="B213">
-        <v>-1.97567140267072</v>
+        <v>-1.942355696654696</v>
       </c>
       <c r="C213">
         <v>17</v>
@@ -25262,10 +25337,10 @@
         <v>13.88999092310759</v>
       </c>
       <c r="E213">
-        <v>12.03087238464876</v>
+        <v>12.02770260294899</v>
       </c>
       <c r="F213">
-        <v>3.228093751312405</v>
+        <v>3.22724324337159</v>
       </c>
       <c r="G213">
         <v>-8.800000000000001</v>
@@ -25275,14 +25350,14 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>2016 - (des 2019 - nov 2022)</t>
+          <t>2016 - (okt 2019 - sep 2022)</t>
         </is>
       </c>
       <c r="J213" s="2">
-        <v>44866</v>
+        <v>44805</v>
       </c>
       <c r="K213">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L213">
         <v>2022</v>
@@ -25295,10 +25370,10 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>0.9807595436886044</v>
+        <v>0.9799002317787093</v>
       </c>
       <c r="B214">
-        <v>-1.924045631139559</v>
+        <v>-2.009976822129067</v>
       </c>
       <c r="C214">
         <v>17</v>
@@ -25307,27 +25382,27 @@
         <v>13.88999092310759</v>
       </c>
       <c r="E214">
-        <v>12.0880040324787</v>
+        <v>12.01886176655834</v>
       </c>
       <c r="F214">
-        <v>3.243423172942488</v>
+        <v>3.224871092142935</v>
       </c>
       <c r="G214">
         <v>-8.800000000000001</v>
       </c>
       <c r="H214">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>2016 - (jan 2020 - des 2022)</t>
+          <t>2016 - (nov 2019 - okt 2022)</t>
         </is>
       </c>
       <c r="J214" s="2">
-        <v>44896</v>
+        <v>44835</v>
       </c>
       <c r="K214">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L214">
         <v>2022</v>
@@ -25340,42 +25415,42 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.9857626681667772</v>
+        <v>0.9802432859732928</v>
       </c>
       <c r="B215">
-        <v>-1.423733183322284</v>
+        <v>-1.97567140267072</v>
       </c>
       <c r="C215">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D215">
-        <v>14.88364264682306</v>
+        <v>13.88999092310759</v>
       </c>
       <c r="E215">
-        <v>11.97833409290357</v>
+        <v>12.03087238464876</v>
       </c>
       <c r="F215">
-        <v>3.104858445621591</v>
+        <v>3.228093751312405</v>
       </c>
       <c r="G215">
-        <v>-8</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="H215">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>2016 - (feb 2020 - jan 2023)</t>
+          <t>2016 - (des 2019 - nov 2022)</t>
         </is>
       </c>
       <c r="J215" s="2">
-        <v>44927</v>
+        <v>44866</v>
       </c>
       <c r="K215">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L215">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
@@ -25385,42 +25460,42 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.9736424141350238</v>
+        <v>0.9807595436886044</v>
       </c>
       <c r="B216">
-        <v>-2.635758586497616</v>
+        <v>-1.924045631139559</v>
       </c>
       <c r="C216">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D216">
-        <v>15.8424766978712</v>
+        <v>13.88999092310759</v>
       </c>
       <c r="E216">
-        <v>12.29343151884637</v>
+        <v>12.0880040324787</v>
       </c>
       <c r="F216">
-        <v>3.08859943601025</v>
+        <v>3.243423172942488</v>
       </c>
       <c r="G216">
-        <v>-9.1</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="H216">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>2016 - (mar 2020 - feb 2023)</t>
+          <t>2016 - (jan 2020 - des 2022)</t>
         </is>
       </c>
       <c r="J216" s="2">
-        <v>44958</v>
+        <v>44896</v>
       </c>
       <c r="K216">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L216">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
@@ -25430,39 +25505,39 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>0.9798780575169367</v>
+        <v>0.9857626681667772</v>
       </c>
       <c r="B217">
-        <v>-2.012194248306332</v>
+        <v>-1.423733183322284</v>
       </c>
       <c r="C217">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D217">
-        <v>15.8424766978712</v>
+        <v>14.88364264682306</v>
       </c>
       <c r="E217">
-        <v>12.26817010345073</v>
+        <v>11.97833409290357</v>
       </c>
       <c r="F217">
-        <v>3.082252762729953</v>
+        <v>3.104858445621591</v>
       </c>
       <c r="G217">
-        <v>-8.5</v>
+        <v>-8</v>
       </c>
       <c r="H217">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>2016 - (apr 2020 - mar 2023)</t>
+          <t>2016 - (feb 2020 - jan 2023)</t>
         </is>
       </c>
       <c r="J217" s="2">
-        <v>44986</v>
+        <v>44927</v>
       </c>
       <c r="K217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L217">
         <v>2023</v>
@@ -25475,10 +25550,10 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>0.9847991420785268</v>
+        <v>0.9736424141350238</v>
       </c>
       <c r="B218">
-        <v>-1.520085792147319</v>
+        <v>-2.635758586497616</v>
       </c>
       <c r="C218">
         <v>19</v>
@@ -25487,27 +25562,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E218">
-        <v>12.22046297916076</v>
+        <v>12.29343151884637</v>
       </c>
       <c r="F218">
-        <v>3.070266833744236</v>
+        <v>3.08859943601025</v>
       </c>
       <c r="G218">
-        <v>-8</v>
+        <v>-9.1</v>
       </c>
       <c r="H218">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>2016 - (mai 2020 - apr 2023)</t>
+          <t>2016 - (mar 2020 - feb 2023)</t>
         </is>
       </c>
       <c r="J218" s="2">
-        <v>45017</v>
+        <v>44958</v>
       </c>
       <c r="K218">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L218">
         <v>2023</v>
@@ -25520,10 +25595,10 @@
     </row>
     <row r="219">
       <c r="A219">
-        <v>0.9878958150912861</v>
+        <v>0.9798780575169367</v>
       </c>
       <c r="B219">
-        <v>-1.21041849087139</v>
+        <v>-2.012194248306332</v>
       </c>
       <c r="C219">
         <v>19</v>
@@ -25532,27 +25607,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E219">
-        <v>12.201805221747</v>
+        <v>12.26817010345073</v>
       </c>
       <c r="F219">
-        <v>3.065579262260473</v>
+        <v>3.082252762729953</v>
       </c>
       <c r="G219">
-        <v>-7.7</v>
+        <v>-8.5</v>
       </c>
       <c r="H219">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>2016 - (jun 2020 - mai 2023)</t>
+          <t>2016 - (apr 2020 - mar 2023)</t>
         </is>
       </c>
       <c r="J219" s="2">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="K219">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L219">
         <v>2023</v>
@@ -25565,10 +25640,10 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>0.9897572678484173</v>
+        <v>0.9847991420785268</v>
       </c>
       <c r="B220">
-        <v>-1.024273215158267</v>
+        <v>-1.520085792147319</v>
       </c>
       <c r="C220">
         <v>19</v>
@@ -25577,27 +25652,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E220">
-        <v>12.07485828133487</v>
+        <v>12.22046297916076</v>
       </c>
       <c r="F220">
-        <v>3.033685136689509</v>
+        <v>3.070266833744236</v>
       </c>
       <c r="G220">
-        <v>-7.4</v>
+        <v>-8</v>
       </c>
       <c r="H220">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>2016 - (jul 2020 - jun 2023)</t>
+          <t>2016 - (mai 2020 - apr 2023)</t>
         </is>
       </c>
       <c r="J220" s="2">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="K220">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L220">
         <v>2023</v>
@@ -25610,10 +25685,10 @@
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.989101712912994</v>
+        <v>0.9878958150912861</v>
       </c>
       <c r="B221">
-        <v>-1.089828708700602</v>
+        <v>-1.21041849087139</v>
       </c>
       <c r="C221">
         <v>19</v>
@@ -25622,27 +25697,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E221">
-        <v>12.05869127229827</v>
+        <v>12.201805221747</v>
       </c>
       <c r="F221">
-        <v>3.029623340362268</v>
+        <v>3.065579262260473</v>
       </c>
       <c r="G221">
-        <v>-7.5</v>
+        <v>-7.7</v>
       </c>
       <c r="H221">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>2016 - (aug 2020 - jul 2023)</t>
+          <t>2016 - (jun 2020 - mai 2023)</t>
         </is>
       </c>
       <c r="J221" s="2">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="K221">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L221">
         <v>2023</v>
@@ -25655,10 +25730,10 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.9900951185394136</v>
+        <v>0.9897572678484173</v>
       </c>
       <c r="B222">
-        <v>-0.9904881460586434</v>
+        <v>-1.024273215158267</v>
       </c>
       <c r="C222">
         <v>19</v>
@@ -25667,27 +25742,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E222">
-        <v>11.98073122982094</v>
+        <v>12.07485828133487</v>
       </c>
       <c r="F222">
-        <v>3.010036673868242</v>
+        <v>3.033685136689509</v>
       </c>
       <c r="G222">
-        <v>-7.3</v>
+        <v>-7.4</v>
       </c>
       <c r="H222">
         <v>5.3</v>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>2016 - (sep 2020 - aug 2023)</t>
+          <t>2016 - (jul 2020 - jun 2023)</t>
         </is>
       </c>
       <c r="J222" s="2">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="K222">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L222">
         <v>2023</v>
@@ -25700,10 +25775,10 @@
     </row>
     <row r="223">
       <c r="A223">
-        <v>0.9901870947676858</v>
+        <v>0.989101712912994</v>
       </c>
       <c r="B223">
-        <v>-0.9812905232314151</v>
+        <v>-1.089828708700602</v>
       </c>
       <c r="C223">
         <v>19</v>
@@ -25712,27 +25787,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E223">
-        <v>11.93111451199188</v>
+        <v>12.05869127229827</v>
       </c>
       <c r="F223">
-        <v>2.997570978958843</v>
+        <v>3.029623340362268</v>
       </c>
       <c r="G223">
-        <v>-7.3</v>
+        <v>-7.5</v>
       </c>
       <c r="H223">
         <v>5.3</v>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>2016 - (okt 2020 - sep 2023)</t>
+          <t>2016 - (aug 2020 - jul 2023)</t>
         </is>
       </c>
       <c r="J223" s="2">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="K223">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L223">
         <v>2023</v>
@@ -25745,10 +25820,10 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>0.9903816867879272</v>
+        <v>0.9900951185394136</v>
       </c>
       <c r="B224">
-        <v>-0.9618313212072849</v>
+        <v>-0.9904881460586434</v>
       </c>
       <c r="C224">
         <v>19</v>
@@ -25757,27 +25832,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E224">
-        <v>11.86246364256088</v>
+        <v>11.98073122982094</v>
       </c>
       <c r="F224">
-        <v>2.980323147360224</v>
+        <v>3.010036673868242</v>
       </c>
       <c r="G224">
-        <v>-7.2</v>
+        <v>-7.3</v>
       </c>
       <c r="H224">
         <v>5.3</v>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>2016 - (nov 2020 - okt 2023)</t>
+          <t>2016 - (sep 2020 - aug 2023)</t>
         </is>
       </c>
       <c r="J224" s="2">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="K224">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L224">
         <v>2023</v>
@@ -25790,10 +25865,10 @@
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.9930017493453545</v>
+        <v>0.9901870947676858</v>
       </c>
       <c r="B225">
-        <v>-0.6998250654645544</v>
+        <v>-0.9812905232314151</v>
       </c>
       <c r="C225">
         <v>19</v>
@@ -25802,27 +25877,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E225">
-        <v>11.90758798670682</v>
+        <v>11.93111451199188</v>
       </c>
       <c r="F225">
-        <v>2.991660179145518</v>
+        <v>2.997570978958843</v>
       </c>
       <c r="G225">
-        <v>-7</v>
+        <v>-7.3</v>
       </c>
       <c r="H225">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>2016 - (des 2020 - nov 2023)</t>
+          <t>2016 - (okt 2020 - sep 2023)</t>
         </is>
       </c>
       <c r="J225" s="2">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="K225">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L225">
         <v>2023</v>
@@ -25835,39 +25910,39 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.9751983333199845</v>
+        <v>0.9903816867879272</v>
       </c>
       <c r="B226">
-        <v>-2.480166668001549</v>
+        <v>-0.9618313212072849</v>
       </c>
       <c r="C226">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D226">
-        <v>16.82824765497094</v>
+        <v>15.8424766978712</v>
       </c>
       <c r="E226">
-        <v>14.32684250541769</v>
+        <v>11.86246364256088</v>
       </c>
       <c r="F226">
-        <v>3.492456772270649</v>
+        <v>2.980323147360224</v>
       </c>
       <c r="G226">
-        <v>-9.800000000000001</v>
+        <v>-7.2</v>
       </c>
       <c r="H226">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>2016 - (jan 2021 - des 2023)</t>
+          <t>2016 - (nov 2020 - okt 2023)</t>
         </is>
       </c>
       <c r="J226" s="2">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="K226">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L226">
         <v>2023</v>
@@ -25880,42 +25955,42 @@
     </row>
     <row r="227">
       <c r="A227">
-        <v>0.9781136561461091</v>
+        <v>0.9930017493453545</v>
       </c>
       <c r="B227">
-        <v>-2.188634385389088</v>
+        <v>-0.6998250654645544</v>
       </c>
       <c r="C227">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D227">
-        <v>16.82824765497094</v>
+        <v>15.8424766978712</v>
       </c>
       <c r="E227">
-        <v>14.3347903045744</v>
+        <v>11.90758798670682</v>
       </c>
       <c r="F227">
-        <v>3.494394208588458</v>
+        <v>2.991660179145518</v>
       </c>
       <c r="G227">
-        <v>-9.5</v>
+        <v>-7</v>
       </c>
       <c r="H227">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>2016 - (feb 2021 - jan 2024)</t>
+          <t>2016 - (des 2020 - nov 2023)</t>
         </is>
       </c>
       <c r="J227" s="2">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="K227">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L227">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M227" t="inlineStr">
         <is>
@@ -25925,10 +26000,10 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>0.9798585919596392</v>
+        <v>0.9751983333199845</v>
       </c>
       <c r="B228">
-        <v>-2.01414080403608</v>
+        <v>-2.480166668001549</v>
       </c>
       <c r="C228">
         <v>20</v>
@@ -25937,30 +26012,30 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E228">
-        <v>14.34990049928532</v>
+        <v>14.32684250541769</v>
       </c>
       <c r="F228">
-        <v>3.498077623257707</v>
+        <v>3.492456772270649</v>
       </c>
       <c r="G228">
-        <v>-9.300000000000001</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="H228">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>2016 - (mar 2021 - feb 2024)</t>
+          <t>2016 - (jan 2021 - des 2023)</t>
         </is>
       </c>
       <c r="J228" s="2">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="K228">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L228">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M228" t="inlineStr">
         <is>
@@ -25970,10 +26045,10 @@
     </row>
     <row r="229">
       <c r="A229">
-        <v>0.9811398032878706</v>
+        <v>0.9781136561461091</v>
       </c>
       <c r="B229">
-        <v>-1.886019671212935</v>
+        <v>-2.188634385389088</v>
       </c>
       <c r="C229">
         <v>20</v>
@@ -25982,27 +26057,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E229">
-        <v>14.40580329507555</v>
+        <v>14.3347903045744</v>
       </c>
       <c r="F229">
-        <v>3.511705057053578</v>
+        <v>3.494394208588458</v>
       </c>
       <c r="G229">
-        <v>-9.199999999999999</v>
+        <v>-9.5</v>
       </c>
       <c r="H229">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>2016 - (apr 2021 - mar 2024)</t>
+          <t>2016 - (feb 2021 - jan 2024)</t>
         </is>
       </c>
       <c r="J229" s="2">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="K229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L229">
         <v>2024</v>
@@ -26015,10 +26090,10 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>0.9850324493427365</v>
+        <v>0.9798585919596392</v>
       </c>
       <c r="B230">
-        <v>-1.496755065726352</v>
+        <v>-2.01414080403608</v>
       </c>
       <c r="C230">
         <v>20</v>
@@ -26027,27 +26102,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E230">
-        <v>14.43271144960618</v>
+        <v>14.34990049928532</v>
       </c>
       <c r="F230">
-        <v>3.51826446234363</v>
+        <v>3.498077623257707</v>
       </c>
       <c r="G230">
-        <v>-8.9</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="H230">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>2016 - (mai 2021 - apr 2024)</t>
+          <t>2016 - (mar 2021 - feb 2024)</t>
         </is>
       </c>
       <c r="J230" s="2">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="K230">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L230">
         <v>2024</v>
@@ -26060,10 +26135,10 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.9899667511135772</v>
+        <v>0.9811398032878706</v>
       </c>
       <c r="B231">
-        <v>-1.003324888642276</v>
+        <v>-1.886019671212935</v>
       </c>
       <c r="C231">
         <v>20</v>
@@ -26072,27 +26147,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E231">
-        <v>14.31039343665413</v>
+        <v>14.40580329507555</v>
       </c>
       <c r="F231">
-        <v>3.488446980051665</v>
+        <v>3.511705057053578</v>
       </c>
       <c r="G231">
-        <v>-8.300000000000001</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="H231">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>2016 - (jun 2021 - mai 2024)</t>
+          <t>2016 - (apr 2021 - mar 2024)</t>
         </is>
       </c>
       <c r="J231" s="2">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="K231">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L231">
         <v>2024</v>
@@ -26105,10 +26180,10 @@
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.9900356598292845</v>
+        <v>0.9850324493427365</v>
       </c>
       <c r="B232">
-        <v>-0.9964340170715458</v>
+        <v>-1.496755065726352</v>
       </c>
       <c r="C232">
         <v>20</v>
@@ -26117,27 +26192,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E232">
-        <v>14.17175139459991</v>
+        <v>14.43271144960618</v>
       </c>
       <c r="F232">
-        <v>3.454650186479697</v>
+        <v>3.51826446234363</v>
       </c>
       <c r="G232">
-        <v>-8.199999999999999</v>
+        <v>-8.9</v>
       </c>
       <c r="H232">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>2016 - (jul 2021 - jun 2024)</t>
+          <t>2016 - (mai 2021 - apr 2024)</t>
         </is>
       </c>
       <c r="J232" s="2">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="K232">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L232">
         <v>2024</v>
@@ -26150,10 +26225,10 @@
     </row>
     <row r="233">
       <c r="A233">
-        <v>0.9894678095656797</v>
+        <v>0.9899667511135772</v>
       </c>
       <c r="B233">
-        <v>-1.05321904343203</v>
+        <v>-1.003324888642276</v>
       </c>
       <c r="C233">
         <v>20</v>
@@ -26162,27 +26237,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E233">
-        <v>14.03994019020322</v>
+        <v>14.31039343665413</v>
       </c>
       <c r="F233">
-        <v>3.422518547335742</v>
+        <v>3.488446980051665</v>
       </c>
       <c r="G233">
-        <v>-8.199999999999999</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="H233">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>2016 - (aug 2021 - jul 2024)</t>
+          <t>2016 - (jun 2021 - mai 2024)</t>
         </is>
       </c>
       <c r="J233" s="2">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="K233">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L233">
         <v>2024</v>
@@ -26195,10 +26270,10 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>0.9896373953078004</v>
+        <v>0.9900356598292845</v>
       </c>
       <c r="B234">
-        <v>-1.036260469219963</v>
+        <v>-0.9964340170715458</v>
       </c>
       <c r="C234">
         <v>20</v>
@@ -26207,27 +26282,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E234">
-        <v>13.89070563605795</v>
+        <v>14.17175139459991</v>
       </c>
       <c r="F234">
-        <v>3.386139615335592</v>
+        <v>3.454650186479697</v>
       </c>
       <c r="G234">
-        <v>-8.1</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="H234">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>2016 - (sep 2021 - aug 2024)</t>
+          <t>2016 - (jul 2021 - jun 2024)</t>
         </is>
       </c>
       <c r="J234" s="2">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="K234">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L234">
         <v>2024</v>
@@ -26240,10 +26315,10 @@
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.989544809583905</v>
+        <v>0.9894678095656797</v>
       </c>
       <c r="B235">
-        <v>-1.045519041609499</v>
+        <v>-1.05321904343203</v>
       </c>
       <c r="C235">
         <v>20</v>
@@ -26252,27 +26327,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E235">
-        <v>13.75906843199314</v>
+        <v>14.03994019020322</v>
       </c>
       <c r="F235">
-        <v>3.35405039228138</v>
+        <v>3.422518547335742</v>
       </c>
       <c r="G235">
-        <v>-8.1</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="H235">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>2016 - (okt 2021 - sep 2024)</t>
+          <t>2016 - (aug 2021 - jul 2024)</t>
         </is>
       </c>
       <c r="J235" s="2">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="K235">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L235">
         <v>2024</v>
@@ -26285,10 +26360,10 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.9904883085152344</v>
+        <v>0.9896373953078004</v>
       </c>
       <c r="B236">
-        <v>-0.9511691484765605</v>
+        <v>-1.036260469219963</v>
       </c>
       <c r="C236">
         <v>20</v>
@@ -26297,27 +26372,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E236">
-        <v>13.66859368160997</v>
+        <v>13.89070563605795</v>
       </c>
       <c r="F236">
-        <v>3.331995347383964</v>
+        <v>3.386139615335592</v>
       </c>
       <c r="G236">
-        <v>-7.9</v>
+        <v>-8.1</v>
       </c>
       <c r="H236">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>2016 - (nov 2021 - okt 2024)</t>
+          <t>2016 - (sep 2021 - aug 2024)</t>
         </is>
       </c>
       <c r="J236" s="2">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="K236">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L236">
         <v>2024</v>
@@ -26330,39 +26405,39 @@
     </row>
     <row r="237">
       <c r="A237">
-        <v>0.9910635323676144</v>
+        <v>0.989544809583905</v>
       </c>
       <c r="B237">
-        <v>-0.8936467632385647</v>
+        <v>-1.045519041609499</v>
       </c>
       <c r="C237">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D237">
-        <v>17.82818578652688</v>
+        <v>16.82824765497094</v>
       </c>
       <c r="E237">
-        <v>13.23457161834859</v>
+        <v>13.75906843199314</v>
       </c>
       <c r="F237">
-        <v>3.134413670943657</v>
+        <v>3.35405039228138</v>
       </c>
       <c r="G237">
-        <v>-7.4</v>
+        <v>-8.1</v>
       </c>
       <c r="H237">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>2016 - (des 2021 - nov 2024)</t>
+          <t>2016 - (okt 2021 - sep 2024)</t>
         </is>
       </c>
       <c r="J237" s="2">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="K237">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L237">
         <v>2024</v>
@@ -26375,39 +26450,39 @@
     </row>
     <row r="238">
       <c r="A238">
-        <v>0.9849813205874506</v>
+        <v>0.9904883085152344</v>
       </c>
       <c r="B238">
-        <v>-1.501867941254942</v>
+        <v>-0.9511691484765605</v>
       </c>
       <c r="C238">
         <v>20</v>
       </c>
       <c r="D238">
-        <v>16.83588108450572</v>
+        <v>16.82824765497094</v>
       </c>
       <c r="E238">
-        <v>13.1732117320752</v>
+        <v>13.66859368160997</v>
       </c>
       <c r="F238">
-        <v>3.210507933779732</v>
+        <v>3.331995347383964</v>
       </c>
       <c r="G238">
-        <v>-8.199999999999999</v>
+        <v>-7.9</v>
       </c>
       <c r="H238">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>2016 - (jan 2022 - des 2024)</t>
+          <t>2016 - (nov 2021 - okt 2024)</t>
         </is>
       </c>
       <c r="J238" s="2">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="K238">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L238">
         <v>2024</v>
@@ -26420,42 +26495,42 @@
     </row>
     <row r="239">
       <c r="A239">
-        <v>0.986773069411722</v>
+        <v>0.9910635323676144</v>
       </c>
       <c r="B239">
-        <v>-1.322693058827795</v>
+        <v>-0.8936467632385647</v>
       </c>
       <c r="C239">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D239">
-        <v>16.83588108450572</v>
+        <v>17.82818578652688</v>
       </c>
       <c r="E239">
-        <v>13.18054104364779</v>
+        <v>13.23457161834859</v>
       </c>
       <c r="F239">
-        <v>3.21229419619102</v>
+        <v>3.134413670943657</v>
       </c>
       <c r="G239">
-        <v>-8</v>
+        <v>-7.4</v>
       </c>
       <c r="H239">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>2016 - (feb 2022 - jan 2025)</t>
+          <t>2016 - (des 2021 - nov 2024)</t>
         </is>
       </c>
       <c r="J239" s="2">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="K239">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L239">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M239" t="inlineStr">
         <is>
@@ -26465,10 +26540,10 @@
     </row>
     <row r="240">
       <c r="A240">
-        <v>0.988244441055927</v>
+        <v>0.9849813205874506</v>
       </c>
       <c r="B240">
-        <v>-1.175555894407299</v>
+        <v>-1.501867941254942</v>
       </c>
       <c r="C240">
         <v>20</v>
@@ -26477,30 +26552,30 @@
         <v>16.83588108450572</v>
       </c>
       <c r="E240">
-        <v>13.20352448139742</v>
+        <v>13.1732117320752</v>
       </c>
       <c r="F240">
-        <v>3.217895602343253</v>
+        <v>3.210507933779732</v>
       </c>
       <c r="G240">
-        <v>-7.9</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="H240">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>2016 - (mar 2022 - feb 2025)</t>
+          <t>2016 - (jan 2022 - des 2024)</t>
         </is>
       </c>
       <c r="J240" s="2">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="K240">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L240">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M240" t="inlineStr">
         <is>
@@ -26510,39 +26585,39 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.9913817804742887</v>
+        <v>0.986773069411722</v>
       </c>
       <c r="B241">
-        <v>-0.861821952571129</v>
+        <v>-1.322693058827795</v>
       </c>
       <c r="C241">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D241">
-        <v>15.91069786421691</v>
+        <v>16.83588108450572</v>
       </c>
       <c r="E241">
-        <v>13.71862388442884</v>
+        <v>13.18054104364779</v>
       </c>
       <c r="F241">
-        <v>3.439267336008514</v>
+        <v>3.21229419619102</v>
       </c>
       <c r="G241">
-        <v>-8.1</v>
+        <v>-8</v>
       </c>
       <c r="H241">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>2016 - (apr 2022 - mar 2025)</t>
+          <t>2016 - (feb 2022 - jan 2025)</t>
         </is>
       </c>
       <c r="J241" s="2">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="K241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L241">
         <v>2025</v>
@@ -26555,39 +26630,39 @@
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.9926261221991188</v>
+        <v>0.988244441055927</v>
       </c>
       <c r="B242">
-        <v>-0.7373877800881168</v>
+        <v>-1.175555894407299</v>
       </c>
       <c r="C242">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D242">
-        <v>15.91069786421691</v>
+        <v>16.83588108450572</v>
       </c>
       <c r="E242">
-        <v>13.72914657808078</v>
+        <v>13.20352448139742</v>
       </c>
       <c r="F242">
-        <v>3.441905381695081</v>
+        <v>3.217895602343253</v>
       </c>
       <c r="G242">
-        <v>-8</v>
+        <v>-7.9</v>
       </c>
       <c r="H242">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>2016 - (mai 2022 - apr 2025)</t>
+          <t>2016 - (mar 2022 - feb 2025)</t>
         </is>
       </c>
       <c r="J242" s="2">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="K242">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L242">
         <v>2025</v>
@@ -26600,39 +26675,39 @@
     </row>
     <row r="243">
       <c r="A243">
-        <v>1.002867322313853</v>
+        <v>0.9913817804742887</v>
       </c>
       <c r="B243">
-        <v>0.2867322313853338</v>
+        <v>-0.861821952571129</v>
       </c>
       <c r="C243">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D243">
-        <v>16.88220645671328</v>
+        <v>15.91069786421691</v>
       </c>
       <c r="E243">
-        <v>13.75160282941133</v>
+        <v>13.71862388442884</v>
       </c>
       <c r="F243">
-        <v>3.346869024607817</v>
+        <v>3.439267336008514</v>
       </c>
       <c r="G243">
-        <v>-6.7</v>
+        <v>-8.1</v>
       </c>
       <c r="H243">
-        <v>7.3</v>
+        <v>6.4</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>2016 - (jun 2022 - mai 2025)</t>
+          <t>2016 - (apr 2022 - mar 2025)</t>
         </is>
       </c>
       <c r="J243" s="2">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="K243">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L243">
         <v>2025</v>
@@ -26645,39 +26720,39 @@
     </row>
     <row r="244">
       <c r="A244">
-        <v>1.002852969785233</v>
+        <v>0.9926261221991188</v>
       </c>
       <c r="B244">
-        <v>0.2852969785233084</v>
+        <v>-0.7373877800881168</v>
       </c>
       <c r="C244">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D244">
-        <v>16.88220645671328</v>
+        <v>15.91069786421691</v>
       </c>
       <c r="E244">
-        <v>13.67014283847969</v>
+        <v>13.72914657808078</v>
       </c>
       <c r="F244">
-        <v>3.327043268746773</v>
+        <v>3.441905381695081</v>
       </c>
       <c r="G244">
-        <v>-6.7</v>
+        <v>-8</v>
       </c>
       <c r="H244">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>2016 - (jul 2022 - jun 2025)</t>
+          <t>2016 - (mai 2022 - apr 2025)</t>
         </is>
       </c>
       <c r="J244" s="2">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="K244">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L244">
         <v>2025</v>
@@ -26690,10 +26765,10 @@
     </row>
     <row r="245">
       <c r="A245">
-        <v>1.004483709402807</v>
+        <v>1.002867322313853</v>
       </c>
       <c r="B245">
-        <v>0.4483709402806513</v>
+        <v>0.2867322313853338</v>
       </c>
       <c r="C245">
         <v>20</v>
@@ -26702,27 +26777,27 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E245">
-        <v>13.64715092733889</v>
+        <v>13.75160282941133</v>
       </c>
       <c r="F245">
-        <v>3.321447490845952</v>
+        <v>3.346869024607817</v>
       </c>
       <c r="G245">
-        <v>-6.5</v>
+        <v>-6.7</v>
       </c>
       <c r="H245">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>2016 - (aug 2022 - jul 2025)</t>
+          <t>2016 - (jun 2022 - mai 2025)</t>
         </is>
       </c>
       <c r="J245" s="2">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="K245">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L245">
         <v>2025</v>
@@ -26735,10 +26810,10 @@
     </row>
     <row r="246">
       <c r="A246">
-        <v>1.005242001331571</v>
+        <v>1.002852969785233</v>
       </c>
       <c r="B246">
-        <v>0.5242001331571489</v>
+        <v>0.2852969785233084</v>
       </c>
       <c r="C246">
         <v>20</v>
@@ -26747,27 +26822,27 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E246">
-        <v>13.63018202439119</v>
+        <v>13.67014283847969</v>
       </c>
       <c r="F246">
-        <v>3.317317594399573</v>
+        <v>3.327043268746773</v>
       </c>
       <c r="G246">
-        <v>-6.4</v>
+        <v>-6.7</v>
       </c>
       <c r="H246">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>2016 - (sep 2022 - aug 2025)</t>
+          <t>2016 - (jul 2022 - jun 2025)</t>
         </is>
       </c>
       <c r="J246" s="2">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="K246">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L246">
         <v>2025</v>
@@ -26780,10 +26855,10 @@
     </row>
     <row r="247">
       <c r="A247">
-        <v>1.006143021183837</v>
+        <v>1.004483709402807</v>
       </c>
       <c r="B247">
-        <v>0.6143021183836916</v>
+        <v>0.4483709402806513</v>
       </c>
       <c r="C247">
         <v>20</v>
@@ -26792,32 +26867,167 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E247">
-        <v>13.57201197384196</v>
+        <v>13.64715092733889</v>
       </c>
       <c r="F247">
-        <v>3.3031601508813</v>
+        <v>3.321447490845952</v>
       </c>
       <c r="G247">
-        <v>-6.3</v>
+        <v>-6.5</v>
       </c>
       <c r="H247">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>2016 - (okt 2022 - sep 2025)</t>
+          <t>2016 - (aug 2022 - jul 2025)</t>
         </is>
       </c>
       <c r="J247" s="2">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="K247">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L247">
         <v>2025</v>
       </c>
       <c r="M247" t="inlineStr">
+        <is>
+          <t>36_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248">
+        <v>1.005242001331571</v>
+      </c>
+      <c r="B248">
+        <v>0.5242001331571489</v>
+      </c>
+      <c r="C248">
+        <v>20</v>
+      </c>
+      <c r="D248">
+        <v>16.88220645671328</v>
+      </c>
+      <c r="E248">
+        <v>13.63018202439119</v>
+      </c>
+      <c r="F248">
+        <v>3.317317594399573</v>
+      </c>
+      <c r="G248">
+        <v>-6.4</v>
+      </c>
+      <c r="H248">
+        <v>7.5</v>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>2016 - (sep 2022 - aug 2025)</t>
+        </is>
+      </c>
+      <c r="J248" s="2">
+        <v>45870</v>
+      </c>
+      <c r="K248">
+        <v>8</v>
+      </c>
+      <c r="L248">
+        <v>2025</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>36_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249">
+        <v>1.006143021183837</v>
+      </c>
+      <c r="B249">
+        <v>0.6143021183836916</v>
+      </c>
+      <c r="C249">
+        <v>20</v>
+      </c>
+      <c r="D249">
+        <v>16.88220645671328</v>
+      </c>
+      <c r="E249">
+        <v>13.57201197384196</v>
+      </c>
+      <c r="F249">
+        <v>3.3031601508813</v>
+      </c>
+      <c r="G249">
+        <v>-6.3</v>
+      </c>
+      <c r="H249">
+        <v>7.5</v>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>2016 - (okt 2022 - sep 2025)</t>
+        </is>
+      </c>
+      <c r="J249" s="2">
+        <v>45901</v>
+      </c>
+      <c r="K249">
+        <v>9</v>
+      </c>
+      <c r="L249">
+        <v>2025</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>36_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250">
+        <v>1.007847251063697</v>
+      </c>
+      <c r="B250">
+        <v>0.7847251063696881</v>
+      </c>
+      <c r="C250">
+        <v>20</v>
+      </c>
+      <c r="D250">
+        <v>16.88220645671328</v>
+      </c>
+      <c r="E250">
+        <v>13.53184871971395</v>
+      </c>
+      <c r="F250">
+        <v>3.293385206619459</v>
+      </c>
+      <c r="G250">
+        <v>-6.1</v>
+      </c>
+      <c r="H250">
+        <v>7.7</v>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>2016 - (nov 2022 - okt 2025)</t>
+        </is>
+      </c>
+      <c r="J250" s="2">
+        <v>45931</v>
+      </c>
+      <c r="K250">
+        <v>10</v>
+      </c>
+      <c r="L250">
+        <v>2025</v>
+      </c>
+      <c r="M250" t="inlineStr">
         <is>
           <t>36_months</t>
         </is>

--- a/data_indexpoints_tidy/tallmateriale_955.xlsx
+++ b/data_indexpoints_tidy/tallmateriale_955.xlsx
@@ -10,7 +10,8 @@
     <sheet name="punkt_adt" sheetId="1" r:id="rId1"/>
     <sheet name="punktindeks_maned" sheetId="2" r:id="rId2"/>
     <sheet name="byindeks_aarlig" sheetId="3" r:id="rId3"/>
-    <sheet name="by_glid_indeks" sheetId="4" r:id="rId4"/>
+    <sheet name="byindeks_hittil" sheetId="4" r:id="rId4"/>
+    <sheet name="by_glid_indeks" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -3059,6 +3060,9 @@
       <c r="N10">
         <v>18.29</v>
       </c>
+      <c r="O10">
+        <v>17.63</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3365,6 +3369,9 @@
       <c r="N19">
         <v>-0.15</v>
       </c>
+      <c r="O19">
+        <v>-4.56</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3791,6 +3798,9 @@
       <c r="N28">
         <v>2.4</v>
       </c>
+      <c r="O28">
+        <v>-0.51</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4289,6 +4299,9 @@
       <c r="N37">
         <v>1.53</v>
       </c>
+      <c r="O37">
+        <v>-1.6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4787,6 +4800,9 @@
       <c r="N46">
         <v>3.01</v>
       </c>
+      <c r="O46">
+        <v>2.31</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5141,6 +5157,9 @@
       <c r="N55">
         <v>-0.97</v>
       </c>
+      <c r="O55">
+        <v>-2.41</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5543,6 +5562,9 @@
       <c r="N64">
         <v>-10.12</v>
       </c>
+      <c r="O64">
+        <v>-8.59</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6035,6 +6057,9 @@
       <c r="N73">
         <v>-1.18</v>
       </c>
+      <c r="O73">
+        <v>-2.49</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6473,6 +6498,9 @@
       <c r="N82">
         <v>0.36</v>
       </c>
+      <c r="O82">
+        <v>-0.43</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7220,6 +7248,9 @@
       <c r="N100">
         <v>-1.74</v>
       </c>
+      <c r="O100">
+        <v>-3.48</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7490,6 +7521,9 @@
       <c r="N109">
         <v>-3.72</v>
       </c>
+      <c r="O109">
+        <v>-4.77</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7988,6 +8022,9 @@
       <c r="N118">
         <v>4.97</v>
       </c>
+      <c r="O118">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8402,6 +8439,9 @@
       <c r="N127">
         <v>2.47</v>
       </c>
+      <c r="O127">
+        <v>-1.03</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9281,6 +9321,9 @@
       <c r="N145">
         <v>1.6</v>
       </c>
+      <c r="O145">
+        <v>-0.95</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10457,6 +10500,9 @@
       <c r="N172">
         <v>4.08</v>
       </c>
+      <c r="O172">
+        <v>3.68</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -10805,6 +10851,9 @@
       <c r="N181">
         <v>0.74</v>
       </c>
+      <c r="O181">
+        <v>-2.35</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -11600,6 +11649,9 @@
       <c r="N199">
         <v>14.47</v>
       </c>
+      <c r="O199">
+        <v>12.73</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -12098,6 +12150,9 @@
       <c r="N208">
         <v>-2.8</v>
       </c>
+      <c r="O208">
+        <v>-6.54</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -12542,6 +12597,9 @@
       <c r="N217">
         <v>5.14</v>
       </c>
+      <c r="O217">
+        <v>2.72</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -12791,12 +12849,6 @@
       <c r="D226">
         <v>2025</v>
       </c>
-      <c r="K226">
-        <v>9.41</v>
-      </c>
-      <c r="L226">
-        <v>4.19</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -13184,6 +13236,9 @@
       <c r="N235">
         <v>-3.55</v>
       </c>
+      <c r="O235">
+        <v>-4.93</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -13598,6 +13653,9 @@
       <c r="N244">
         <v>7.31</v>
       </c>
+      <c r="O244">
+        <v>1.73</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -13946,6 +14004,9 @@
       <c r="H253">
         <v>-6.1</v>
       </c>
+      <c r="O253">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -14339,6 +14400,9 @@
       <c r="N262">
         <v>1.09</v>
       </c>
+      <c r="O262">
+        <v>-3.02</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -14794,6 +14858,9 @@
       </c>
       <c r="N271">
         <v>1.4</v>
+      </c>
+      <c r="O271">
+        <v>-0.36</v>
       </c>
     </row>
   </sheetData>
@@ -15321,19 +15388,19 @@
         <v>2025</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="E10">
-        <v>1.0173</v>
+        <v>1.015</v>
       </c>
       <c r="F10">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10">
-        <v>0.6256724722530927</v>
+        <v>0.6239177349010729</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -15352,19 +15419,19 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>okt</t>
+          <t>nov</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>jan-okt</t>
+          <t>jan-nov</t>
         </is>
       </c>
       <c r="M10">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N10">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="11">
@@ -15752,7 +15819,1010 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M250"/>
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>year_base</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>index_p</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>index_i</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>n_trp</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>standard_error</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>index_type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>year_from_to</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>area_name</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>month_name_short</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ci_lower</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ci_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>2016</v>
+      </c>
+      <c r="B2">
+        <v>2017</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>-4.3</v>
+      </c>
+      <c r="E2">
+        <v>0.9574</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>1.284897871547505</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2016-2017</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Grenland</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M2">
+        <v>-6.8</v>
+      </c>
+      <c r="N2">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2017</v>
+      </c>
+      <c r="B3">
+        <v>2018</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>-0.4</v>
+      </c>
+      <c r="E3">
+        <v>0.9963</v>
+      </c>
+      <c r="F3">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>0.7423541996410561</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2017-2018</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Grenland</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M3">
+        <v>-1.9</v>
+      </c>
+      <c r="N3">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4">
+        <v>2019</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>0.9</v>
+      </c>
+      <c r="E4">
+        <v>1.0088</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>2.765565597621583</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2018-2019</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Grenland</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M4">
+        <v>-4.5</v>
+      </c>
+      <c r="N4">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5">
+        <v>2020</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>-4.3</v>
+      </c>
+      <c r="E5">
+        <v>0.9571</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>1.094465249471595</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2019-2020</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Grenland</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M5">
+        <v>-6.4</v>
+      </c>
+      <c r="N5">
+        <v>-2.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6">
+        <v>2021</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>0.6</v>
+      </c>
+      <c r="E6">
+        <v>1.0055</v>
+      </c>
+      <c r="F6">
+        <v>27</v>
+      </c>
+      <c r="G6">
+        <v>1.04810064027639</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Grenland</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M6">
+        <v>-1.5</v>
+      </c>
+      <c r="N6">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>2021</v>
+      </c>
+      <c r="B7">
+        <v>2022</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>3.9</v>
+      </c>
+      <c r="E7">
+        <v>1.0394</v>
+      </c>
+      <c r="F7">
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>2.068399905791586</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2021-2022</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Grenland</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M7">
+        <v>-0.2</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>2022</v>
+      </c>
+      <c r="B8">
+        <v>2023</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1.0201</v>
+      </c>
+      <c r="F8">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>0.8899158369690544</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2022-2023</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Grenland</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M8">
+        <v>0.3</v>
+      </c>
+      <c r="N8">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>2023</v>
+      </c>
+      <c r="B9">
+        <v>2024</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>0.4</v>
+      </c>
+      <c r="E9">
+        <v>1.0038</v>
+      </c>
+      <c r="F9">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>0.7182133173726728</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Grenland</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M9">
+        <v>-1</v>
+      </c>
+      <c r="N9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>2024</v>
+      </c>
+      <c r="B10">
+        <v>2025</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>1.5</v>
+      </c>
+      <c r="E10">
+        <v>1.015</v>
+      </c>
+      <c r="F10">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>0.6239177349010729</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Grenland</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M10">
+        <v>0.3</v>
+      </c>
+      <c r="N10">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>2016</v>
+      </c>
+      <c r="B11">
+        <v>2018</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>-4.6</v>
+      </c>
+      <c r="E11">
+        <v>0.95385762</v>
+      </c>
+      <c r="F11">
+        <v>27</v>
+      </c>
+      <c r="G11">
+        <v>1.464239054272267</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2016-2018</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Grenland</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M11">
+        <v>-7.5</v>
+      </c>
+      <c r="N11">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>2016</v>
+      </c>
+      <c r="B12">
+        <v>2019</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>-3.8</v>
+      </c>
+      <c r="E12">
+        <v>0.9622515670559999</v>
+      </c>
+      <c r="F12">
+        <v>27</v>
+      </c>
+      <c r="G12">
+        <v>3.023631438381594</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2016-2019</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Grenland</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M12">
+        <v>-9.699999999999999</v>
+      </c>
+      <c r="N12">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>2016</v>
+      </c>
+      <c r="B13">
+        <v>2020</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>-7.9</v>
+      </c>
+      <c r="E13">
+        <v>0.9209709748292975</v>
+      </c>
+      <c r="F13">
+        <v>27</v>
+      </c>
+      <c r="G13">
+        <v>3.079769683608207</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2016-2020</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Grenland</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M13">
+        <v>-13.9</v>
+      </c>
+      <c r="N13">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>2016</v>
+      </c>
+      <c r="B14">
+        <v>2021</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>-7.4</v>
+      </c>
+      <c r="E14">
+        <v>0.9260363151908586</v>
+      </c>
+      <c r="F14">
+        <v>27</v>
+      </c>
+      <c r="G14">
+        <v>3.243823615661967</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2016-2021</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Grenland</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M14">
+        <v>-13.8</v>
+      </c>
+      <c r="N14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>2016</v>
+      </c>
+      <c r="B15">
+        <v>2022</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>-3.7</v>
+      </c>
+      <c r="E15">
+        <v>0.9625221460093786</v>
+      </c>
+      <c r="F15">
+        <v>27</v>
+      </c>
+      <c r="G15">
+        <v>3.878298727531916</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2016-2022</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Grenland</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M15">
+        <v>-11.3</v>
+      </c>
+      <c r="N15">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>2016</v>
+      </c>
+      <c r="B16">
+        <v>2023</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>-1.8</v>
+      </c>
+      <c r="E16">
+        <v>0.9818688411441671</v>
+      </c>
+      <c r="F16">
+        <v>27</v>
+      </c>
+      <c r="G16">
+        <v>4.04806455716444</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2016-2023</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Grenland</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M16">
+        <v>-9.699999999999999</v>
+      </c>
+      <c r="N16">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>2016</v>
+      </c>
+      <c r="B17">
+        <v>2024</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>-1.4</v>
+      </c>
+      <c r="E17">
+        <v>0.9855999427405149</v>
+      </c>
+      <c r="F17">
+        <v>28</v>
+      </c>
+      <c r="G17">
+        <v>4.124286991429704</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2016-2024</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Grenland</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M17">
+        <v>-9.5</v>
+      </c>
+      <c r="N17">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18">
+        <v>2025</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1.000383941881622</v>
+      </c>
+      <c r="F18">
+        <v>28</v>
+      </c>
+      <c r="G18">
+        <v>4.231154424385239</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2016-2025</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Grenland</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M18">
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="N18">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M253"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20105,55 +21175,55 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.9710468619357012</v>
+        <v>1.026397203818694</v>
       </c>
       <c r="B97">
-        <v>-2.895313806429878</v>
+        <v>2.639720381869437</v>
       </c>
       <c r="C97">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D97">
-        <v>15.85597785867931</v>
+        <v>17.87589620808778</v>
       </c>
       <c r="E97">
-        <v>8.024286884417938</v>
+        <v>13.78723896423378</v>
       </c>
       <c r="F97">
-        <v>2.015161845901169</v>
+        <v>3.260944375606252</v>
       </c>
       <c r="G97">
-        <v>-7.1</v>
+        <v>-4.2</v>
       </c>
       <c r="H97">
-        <v>1.3</v>
+        <v>9.4</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2016 - (jan 2017 - des 2018)</t>
+          <t>2016 - (des 2024 - nov 2025)</t>
         </is>
       </c>
       <c r="J97" s="2">
-        <v>43435</v>
+        <v>45962</v>
       </c>
       <c r="K97">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L97">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>24_months</t>
+          <t>12_months</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.9707024725464798</v>
+        <v>0.9710468619357012</v>
       </c>
       <c r="B98">
-        <v>-2.929752745352021</v>
+        <v>-2.895313806429878</v>
       </c>
       <c r="C98">
         <v>19</v>
@@ -20162,30 +21232,30 @@
         <v>15.85597785867931</v>
       </c>
       <c r="E98">
-        <v>8.019123704857787</v>
+        <v>8.024286884417938</v>
       </c>
       <c r="F98">
-        <v>2.01386520202452</v>
+        <v>2.015161845901169</v>
       </c>
       <c r="G98">
-        <v>-7.2</v>
+        <v>-7.1</v>
       </c>
       <c r="H98">
         <v>1.3</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2016 - (feb 2017 - jan 2019)</t>
+          <t>2016 - (jan 2017 - des 2018)</t>
         </is>
       </c>
       <c r="J98" s="2">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="K98">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L98">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -20195,10 +21265,10 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.9703150344836057</v>
+        <v>0.9707024725464798</v>
       </c>
       <c r="B99">
-        <v>-2.968496551639432</v>
+        <v>-2.929752745352021</v>
       </c>
       <c r="C99">
         <v>19</v>
@@ -20207,10 +21277,10 @@
         <v>15.85597785867931</v>
       </c>
       <c r="E99">
-        <v>8.008778565887392</v>
+        <v>8.019123704857787</v>
       </c>
       <c r="F99">
-        <v>2.011267198034387</v>
+        <v>2.01386520202452</v>
       </c>
       <c r="G99">
         <v>-7.2</v>
@@ -20220,14 +21290,14 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2016 - (mar 2017 - feb 2019)</t>
+          <t>2016 - (feb 2017 - jan 2019)</t>
         </is>
       </c>
       <c r="J99" s="2">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L99">
         <v>2019</v>
@@ -20240,10 +21310,10 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.9690376478788734</v>
+        <v>0.9703150344836057</v>
       </c>
       <c r="B100">
-        <v>-3.096235212112664</v>
+        <v>-2.968496551639432</v>
       </c>
       <c r="C100">
         <v>19</v>
@@ -20252,27 +21322,27 @@
         <v>15.85597785867931</v>
       </c>
       <c r="E100">
-        <v>7.98591244001933</v>
+        <v>8.008778565887392</v>
       </c>
       <c r="F100">
-        <v>2.005524763214121</v>
+        <v>2.011267198034387</v>
       </c>
       <c r="G100">
-        <v>-7.3</v>
+        <v>-7.2</v>
       </c>
       <c r="H100">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2016 - (apr 2017 - mar 2019)</t>
+          <t>2016 - (mar 2017 - feb 2019)</t>
         </is>
       </c>
       <c r="J100" s="2">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="K100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L100">
         <v>2019</v>
@@ -20285,10 +21355,10 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.9699969296210856</v>
+        <v>0.9690376478788734</v>
       </c>
       <c r="B101">
-        <v>-3.000307037891436</v>
+        <v>-3.096235212112664</v>
       </c>
       <c r="C101">
         <v>19</v>
@@ -20297,27 +21367,27 @@
         <v>15.85597785867931</v>
       </c>
       <c r="E101">
-        <v>7.898832480577641</v>
+        <v>7.98591244001933</v>
       </c>
       <c r="F101">
-        <v>1.983656126868345</v>
+        <v>2.005524763214121</v>
       </c>
       <c r="G101">
-        <v>-7.2</v>
+        <v>-7.3</v>
       </c>
       <c r="H101">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2016 - (mai 2017 - apr 2019)</t>
+          <t>2016 - (apr 2017 - mar 2019)</t>
         </is>
       </c>
       <c r="J101" s="2">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="K101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L101">
         <v>2019</v>
@@ -20330,39 +21400,39 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.9684088121409516</v>
+        <v>0.9699969296210856</v>
       </c>
       <c r="B102">
-        <v>-3.159118785904835</v>
+        <v>-3.000307037891436</v>
       </c>
       <c r="C102">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D102">
-        <v>15.46070630568147</v>
+        <v>15.85597785867931</v>
       </c>
       <c r="E102">
-        <v>7.581477961922743</v>
+        <v>7.898832480577641</v>
       </c>
       <c r="F102">
-        <v>1.928142874299848</v>
+        <v>1.983656126868345</v>
       </c>
       <c r="G102">
         <v>-7.2</v>
       </c>
       <c r="H102">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2016 - (jun 2017 - mai 2019)</t>
+          <t>2016 - (mai 2017 - apr 2019)</t>
         </is>
       </c>
       <c r="J102" s="2">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="K102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L102">
         <v>2019</v>
@@ -20375,39 +21445,39 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.9704055395776459</v>
+        <v>0.9684088121409516</v>
       </c>
       <c r="B103">
-        <v>-2.959446042235414</v>
+        <v>-3.159118785904835</v>
       </c>
       <c r="C103">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D103">
-        <v>14.48234754371101</v>
+        <v>15.46070630568147</v>
       </c>
       <c r="E103">
-        <v>7.331277673531565</v>
+        <v>7.581477961922743</v>
       </c>
       <c r="F103">
-        <v>1.926460843444459</v>
+        <v>1.928142874299848</v>
       </c>
       <c r="G103">
-        <v>-7</v>
+        <v>-7.2</v>
       </c>
       <c r="H103">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2016 - (jul 2017 - jun 2019)</t>
+          <t>2016 - (jun 2017 - mai 2019)</t>
         </is>
       </c>
       <c r="J103" s="2">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="K103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L103">
         <v>2019</v>
@@ -20420,10 +21490,10 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.9706673327583824</v>
+        <v>0.9704055395776459</v>
       </c>
       <c r="B104">
-        <v>-2.933266724161765</v>
+        <v>-2.959446042235414</v>
       </c>
       <c r="C104">
         <v>17</v>
@@ -20432,27 +21502,27 @@
         <v>14.48234754371101</v>
       </c>
       <c r="E104">
-        <v>6.98982883836526</v>
+        <v>7.331277673531565</v>
       </c>
       <c r="F104">
-        <v>1.836737354541229</v>
+        <v>1.926460843444459</v>
       </c>
       <c r="G104">
-        <v>-6.8</v>
+        <v>-7</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2016 - (aug 2017 - jul 2019)</t>
+          <t>2016 - (jul 2017 - jun 2019)</t>
         </is>
       </c>
       <c r="J104" s="2">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="K104">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L104">
         <v>2019</v>
@@ -20465,39 +21535,39 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.9750331445614941</v>
+        <v>0.9706673327583824</v>
       </c>
       <c r="B105">
-        <v>-2.496685543850585</v>
+        <v>-2.933266724161765</v>
       </c>
       <c r="C105">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D105">
-        <v>13.49793435042139</v>
+        <v>14.48234754371101</v>
       </c>
       <c r="E105">
-        <v>6.574375516450938</v>
+        <v>6.98982883836526</v>
       </c>
       <c r="F105">
-        <v>1.789455285452538</v>
+        <v>1.836737354541229</v>
       </c>
       <c r="G105">
-        <v>-6.3</v>
+        <v>-6.8</v>
       </c>
       <c r="H105">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2016 - (sep 2017 - aug 2019)</t>
+          <t>2016 - (aug 2017 - jul 2019)</t>
         </is>
       </c>
       <c r="J105" s="2">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="K105">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L105">
         <v>2019</v>
@@ -20510,39 +21580,39 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.9697822591977154</v>
+        <v>0.9750331445614941</v>
       </c>
       <c r="B106">
-        <v>-3.021774080228457</v>
+        <v>-2.496685543850585</v>
       </c>
       <c r="C106">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D106">
-        <v>12.74436540910119</v>
+        <v>13.49793435042139</v>
       </c>
       <c r="E106">
-        <v>6.047813825337393</v>
+        <v>6.574375516450938</v>
       </c>
       <c r="F106">
-        <v>1.694101027603088</v>
+        <v>1.789455285452538</v>
       </c>
       <c r="G106">
-        <v>-6.7</v>
+        <v>-6.3</v>
       </c>
       <c r="H106">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2016 - (okt 2017 - sep 2019)</t>
+          <t>2016 - (sep 2017 - aug 2019)</t>
         </is>
       </c>
       <c r="J106" s="2">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="K106">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L106">
         <v>2019</v>
@@ -20555,10 +21625,10 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.9704303095388451</v>
+        <v>0.9697822591977154</v>
       </c>
       <c r="B107">
-        <v>-2.956969046115487</v>
+        <v>-3.021774080228457</v>
       </c>
       <c r="C107">
         <v>15</v>
@@ -20567,27 +21637,27 @@
         <v>12.74436540910119</v>
       </c>
       <c r="E107">
-        <v>5.868227074056673</v>
+        <v>6.047813825337393</v>
       </c>
       <c r="F107">
-        <v>1.643795560425187</v>
+        <v>1.694101027603088</v>
       </c>
       <c r="G107">
-        <v>-6.5</v>
+        <v>-6.7</v>
       </c>
       <c r="H107">
         <v>0.6</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2016 - (nov 2017 - okt 2019)</t>
+          <t>2016 - (okt 2017 - sep 2019)</t>
         </is>
       </c>
       <c r="J107" s="2">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="K107">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L107">
         <v>2019</v>
@@ -20600,10 +21670,10 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.9703034529470306</v>
+        <v>0.9704303095388451</v>
       </c>
       <c r="B108">
-        <v>-2.969654705296942</v>
+        <v>-2.956969046115487</v>
       </c>
       <c r="C108">
         <v>15</v>
@@ -20612,27 +21682,27 @@
         <v>12.74436540910119</v>
       </c>
       <c r="E108">
-        <v>5.764194927237705</v>
+        <v>5.868227074056673</v>
       </c>
       <c r="F108">
-        <v>1.614654291874325</v>
+        <v>1.643795560425187</v>
       </c>
       <c r="G108">
-        <v>-6.4</v>
+        <v>-6.5</v>
       </c>
       <c r="H108">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2016 - (des 2017 - nov 2019)</t>
+          <t>2016 - (nov 2017 - okt 2019)</t>
         </is>
       </c>
       <c r="J108" s="2">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="K108">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L108">
         <v>2019</v>
@@ -20645,10 +21715,10 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.9699142785578014</v>
+        <v>0.9703034529470306</v>
       </c>
       <c r="B109">
-        <v>-3.008572144219857</v>
+        <v>-2.969654705296942</v>
       </c>
       <c r="C109">
         <v>15</v>
@@ -20657,27 +21727,27 @@
         <v>12.74436540910119</v>
       </c>
       <c r="E109">
-        <v>5.678657645716405</v>
+        <v>5.764194927237705</v>
       </c>
       <c r="F109">
-        <v>1.590693766516135</v>
+        <v>1.614654291874325</v>
       </c>
       <c r="G109">
         <v>-6.4</v>
       </c>
       <c r="H109">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2016 - (jan 2018 - des 2019)</t>
+          <t>2016 - (des 2017 - nov 2019)</t>
         </is>
       </c>
       <c r="J109" s="2">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="K109">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L109">
         <v>2019</v>
@@ -20690,10 +21760,10 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.971625367470648</v>
+        <v>0.9699142785578014</v>
       </c>
       <c r="B110">
-        <v>-2.837463252935202</v>
+        <v>-3.008572144219857</v>
       </c>
       <c r="C110">
         <v>15</v>
@@ -20702,30 +21772,30 @@
         <v>12.74436540910119</v>
       </c>
       <c r="E110">
-        <v>5.647634437497139</v>
+        <v>5.678657645716405</v>
       </c>
       <c r="F110">
-        <v>1.582003609966736</v>
+        <v>1.590693766516135</v>
       </c>
       <c r="G110">
-        <v>-6.2</v>
+        <v>-6.4</v>
       </c>
       <c r="H110">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2016 - (feb 2018 - jan 2020)</t>
+          <t>2016 - (jan 2018 - des 2019)</t>
         </is>
       </c>
       <c r="J110" s="2">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L110">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
@@ -20735,39 +21805,39 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.9801703307886801</v>
+        <v>0.971625367470648</v>
       </c>
       <c r="B111">
-        <v>-1.98296692113199</v>
+        <v>-2.837463252935202</v>
       </c>
       <c r="C111">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D111">
-        <v>13.74234275437077</v>
+        <v>12.74436540910119</v>
       </c>
       <c r="E111">
-        <v>5.962417271715874</v>
+        <v>5.647634437497139</v>
       </c>
       <c r="F111">
-        <v>1.608392273445882</v>
+        <v>1.582003609966736</v>
       </c>
       <c r="G111">
-        <v>-5.4</v>
+        <v>-6.2</v>
       </c>
       <c r="H111">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2016 - (mar 2018 - feb 2020)</t>
+          <t>2016 - (feb 2018 - jan 2020)</t>
         </is>
       </c>
       <c r="J111" s="2">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="K111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L111">
         <v>2020</v>
@@ -20780,10 +21850,10 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.9741024818202622</v>
+        <v>0.9801703307886801</v>
       </c>
       <c r="B112">
-        <v>-2.589751817973784</v>
+        <v>-1.98296692113199</v>
       </c>
       <c r="C112">
         <v>16</v>
@@ -20792,27 +21862,27 @@
         <v>13.74234275437077</v>
       </c>
       <c r="E112">
-        <v>5.968178180558724</v>
+        <v>5.962417271715874</v>
       </c>
       <c r="F112">
-        <v>1.609946307799502</v>
+        <v>1.608392273445882</v>
       </c>
       <c r="G112">
-        <v>-6</v>
+        <v>-5.4</v>
       </c>
       <c r="H112">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2016 - (apr 2018 - mar 2020)</t>
+          <t>2016 - (mar 2018 - feb 2020)</t>
         </is>
       </c>
       <c r="J112" s="2">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="K112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L112">
         <v>2020</v>
@@ -20825,39 +21895,39 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.9682403881324299</v>
+        <v>0.9741024818202622</v>
       </c>
       <c r="B113">
-        <v>-3.175961186757015</v>
+        <v>-2.589751817973784</v>
       </c>
       <c r="C113">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D113">
-        <v>12.7603248224164</v>
+        <v>13.74234275437077</v>
       </c>
       <c r="E113">
-        <v>6.168314328531091</v>
+        <v>5.968178180558724</v>
       </c>
       <c r="F113">
-        <v>1.726774520375962</v>
+        <v>1.609946307799502</v>
       </c>
       <c r="G113">
-        <v>-6.9</v>
+        <v>-6</v>
       </c>
       <c r="H113">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2016 - (mai 2018 - apr 2020)</t>
+          <t>2016 - (apr 2018 - mar 2020)</t>
         </is>
       </c>
       <c r="J113" s="2">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="K113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L113">
         <v>2020</v>
@@ -20870,10 +21940,10 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.9652250309437069</v>
+        <v>0.9682403881324299</v>
       </c>
       <c r="B114">
-        <v>-3.477496905629307</v>
+        <v>-3.175961186757015</v>
       </c>
       <c r="C114">
         <v>15</v>
@@ -20882,27 +21952,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E114">
-        <v>6.19230143829599</v>
+        <v>6.168314328531091</v>
       </c>
       <c r="F114">
-        <v>1.733489536465188</v>
+        <v>1.726774520375962</v>
       </c>
       <c r="G114">
-        <v>-7.2</v>
+        <v>-6.9</v>
       </c>
       <c r="H114">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2016 - (jun 2018 - mai 2020)</t>
+          <t>2016 - (mai 2018 - apr 2020)</t>
         </is>
       </c>
       <c r="J114" s="2">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="K114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L114">
         <v>2020</v>
@@ -20915,10 +21985,10 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.9655746339629433</v>
+        <v>0.9652250309437069</v>
       </c>
       <c r="B115">
-        <v>-3.44253660370567</v>
+        <v>-3.477496905629307</v>
       </c>
       <c r="C115">
         <v>15</v>
@@ -20927,27 +21997,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E115">
-        <v>6.285783705223438</v>
+        <v>6.19230143829599</v>
       </c>
       <c r="F115">
-        <v>1.759659213955625</v>
+        <v>1.733489536465188</v>
       </c>
       <c r="G115">
         <v>-7.2</v>
       </c>
       <c r="H115">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2016 - (jul 2018 - jun 2020)</t>
+          <t>2016 - (jun 2018 - mai 2020)</t>
         </is>
       </c>
       <c r="J115" s="2">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="K115">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L115">
         <v>2020</v>
@@ -20960,10 +22030,10 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.9685797746699921</v>
+        <v>0.9655746339629433</v>
       </c>
       <c r="B116">
-        <v>-3.142022533000788</v>
+        <v>-3.44253660370567</v>
       </c>
       <c r="C116">
         <v>15</v>
@@ -20972,27 +22042,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E116">
-        <v>6.452758547718644</v>
+        <v>6.285783705223438</v>
       </c>
       <c r="F116">
-        <v>1.806402600918068</v>
+        <v>1.759659213955625</v>
       </c>
       <c r="G116">
-        <v>-7</v>
+        <v>-7.2</v>
       </c>
       <c r="H116">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2016 - (aug 2018 - jul 2020)</t>
+          <t>2016 - (jul 2018 - jun 2020)</t>
         </is>
       </c>
       <c r="J116" s="2">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="K116">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L116">
         <v>2020</v>
@@ -21005,39 +22075,39 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.9573273427554309</v>
+        <v>0.9685797746699921</v>
       </c>
       <c r="B117">
-        <v>-4.267265724456914</v>
+        <v>-3.142022533000788</v>
       </c>
       <c r="C117">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D117">
-        <v>13.7571750172081</v>
+        <v>12.7603248224164</v>
       </c>
       <c r="E117">
-        <v>7.831424927703498</v>
+        <v>6.452758547718644</v>
       </c>
       <c r="F117">
-        <v>2.111427423576516</v>
+        <v>1.806402600918068</v>
       </c>
       <c r="G117">
-        <v>-8.800000000000001</v>
+        <v>-7</v>
       </c>
       <c r="H117">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2016 - (sep 2018 - aug 2020)</t>
+          <t>2016 - (aug 2018 - jul 2020)</t>
         </is>
       </c>
       <c r="J117" s="2">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="K117">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L117">
         <v>2020</v>
@@ -21050,10 +22120,10 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.9596668962833406</v>
+        <v>0.9573273427554309</v>
       </c>
       <c r="B118">
-        <v>-4.033310371665944</v>
+        <v>-4.267265724456914</v>
       </c>
       <c r="C118">
         <v>16</v>
@@ -21062,27 +22132,27 @@
         <v>13.7571750172081</v>
       </c>
       <c r="E118">
-        <v>8.257821833171901</v>
+        <v>7.831424927703498</v>
       </c>
       <c r="F118">
-        <v>2.226388127132434</v>
+        <v>2.111427423576516</v>
       </c>
       <c r="G118">
         <v>-8.800000000000001</v>
       </c>
       <c r="H118">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2016 - (okt 2018 - sep 2020)</t>
+          <t>2016 - (sep 2018 - aug 2020)</t>
         </is>
       </c>
       <c r="J118" s="2">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="K118">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L118">
         <v>2020</v>
@@ -21095,10 +22165,10 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.9593424868574312</v>
+        <v>0.9596668962833406</v>
       </c>
       <c r="B119">
-        <v>-4.065751314256882</v>
+        <v>-4.033310371665944</v>
       </c>
       <c r="C119">
         <v>16</v>
@@ -21107,27 +22177,27 @@
         <v>13.7571750172081</v>
       </c>
       <c r="E119">
-        <v>8.703215367820826</v>
+        <v>8.257821833171901</v>
       </c>
       <c r="F119">
-        <v>2.346470504480485</v>
+        <v>2.226388127132434</v>
       </c>
       <c r="G119">
-        <v>-9.1</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="H119">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2016 - (nov 2018 - okt 2020)</t>
+          <t>2016 - (okt 2018 - sep 2020)</t>
         </is>
       </c>
       <c r="J119" s="2">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="K119">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L119">
         <v>2020</v>
@@ -21140,10 +22210,10 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.9564286033373001</v>
+        <v>0.9593424868574312</v>
       </c>
       <c r="B120">
-        <v>-4.357139666269994</v>
+        <v>-4.065751314256882</v>
       </c>
       <c r="C120">
         <v>16</v>
@@ -21152,27 +22222,27 @@
         <v>13.7571750172081</v>
       </c>
       <c r="E120">
-        <v>8.969114321453779</v>
+        <v>8.703215367820826</v>
       </c>
       <c r="F120">
-        <v>2.418159417773247</v>
+        <v>2.346470504480485</v>
       </c>
       <c r="G120">
-        <v>-9.5</v>
+        <v>-9.1</v>
       </c>
       <c r="H120">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2016 - (des 2018 - nov 2020)</t>
+          <t>2016 - (nov 2018 - okt 2020)</t>
         </is>
       </c>
       <c r="J120" s="2">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="K120">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L120">
         <v>2020</v>
@@ -21185,10 +22255,10 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.9542939521864132</v>
+        <v>0.9564286033373001</v>
       </c>
       <c r="B121">
-        <v>-4.570604781358679</v>
+        <v>-4.357139666269994</v>
       </c>
       <c r="C121">
         <v>16</v>
@@ -21197,27 +22267,27 @@
         <v>13.7571750172081</v>
       </c>
       <c r="E121">
-        <v>9.152179218878235</v>
+        <v>8.969114321453779</v>
       </c>
       <c r="F121">
-        <v>2.467515473444404</v>
+        <v>2.418159417773247</v>
       </c>
       <c r="G121">
-        <v>-9.800000000000001</v>
+        <v>-9.5</v>
       </c>
       <c r="H121">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2016 - (jan 2019 - des 2020)</t>
+          <t>2016 - (des 2018 - nov 2020)</t>
         </is>
       </c>
       <c r="J121" s="2">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="K121">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L121">
         <v>2020</v>
@@ -21230,10 +22300,10 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.9492303341014582</v>
+        <v>0.9542939521864132</v>
       </c>
       <c r="B122">
-        <v>-5.076966589854182</v>
+        <v>-4.570604781358679</v>
       </c>
       <c r="C122">
         <v>16</v>
@@ -21242,30 +22312,30 @@
         <v>13.7571750172081</v>
       </c>
       <c r="E122">
-        <v>9.224165194691491</v>
+        <v>9.152179218878235</v>
       </c>
       <c r="F122">
-        <v>2.486923584337142</v>
+        <v>2.467515473444404</v>
       </c>
       <c r="G122">
-        <v>-10.4</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="H122">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2016 - (feb 2019 - jan 2021)</t>
+          <t>2016 - (jan 2019 - des 2020)</t>
         </is>
       </c>
       <c r="J122" s="2">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L122">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
@@ -21275,10 +22345,10 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.9474871555553703</v>
+        <v>0.9492303341014582</v>
       </c>
       <c r="B123">
-        <v>-5.251284444462967</v>
+        <v>-5.076966589854182</v>
       </c>
       <c r="C123">
         <v>16</v>
@@ -21287,27 +22357,27 @@
         <v>13.7571750172081</v>
       </c>
       <c r="E123">
-        <v>9.297537218016432</v>
+        <v>9.224165194691491</v>
       </c>
       <c r="F123">
-        <v>2.506705386959491</v>
+        <v>2.486923584337142</v>
       </c>
       <c r="G123">
-        <v>-10.6</v>
+        <v>-10.4</v>
       </c>
       <c r="H123">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2016 - (mar 2019 - feb 2021)</t>
+          <t>2016 - (feb 2019 - jan 2021)</t>
         </is>
       </c>
       <c r="J123" s="2">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L123">
         <v>2021</v>
@@ -21320,10 +22390,10 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.944312445000388</v>
+        <v>0.9474871555553703</v>
       </c>
       <c r="B124">
-        <v>-5.568755499961197</v>
+        <v>-5.251284444462967</v>
       </c>
       <c r="C124">
         <v>16</v>
@@ -21332,27 +22402,27 @@
         <v>13.7571750172081</v>
       </c>
       <c r="E124">
-        <v>9.343629038076141</v>
+        <v>9.297537218016432</v>
       </c>
       <c r="F124">
-        <v>2.519132184608073</v>
+        <v>2.506705386959491</v>
       </c>
       <c r="G124">
-        <v>-10.9</v>
+        <v>-10.6</v>
       </c>
       <c r="H124">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2016 - (apr 2019 - mar 2021)</t>
+          <t>2016 - (mar 2019 - feb 2021)</t>
         </is>
       </c>
       <c r="J124" s="2">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="K124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L124">
         <v>2021</v>
@@ -21365,39 +22435,39 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.9473437037195528</v>
+        <v>0.944312445000388</v>
       </c>
       <c r="B125">
-        <v>-5.265629628044721</v>
+        <v>-5.568755499961197</v>
       </c>
       <c r="C125">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D125">
-        <v>14.69751491091071</v>
+        <v>13.7571750172081</v>
       </c>
       <c r="E125">
-        <v>9.594381673011094</v>
+        <v>9.343629038076141</v>
       </c>
       <c r="F125">
-        <v>2.502620722620184</v>
+        <v>2.519132184608073</v>
       </c>
       <c r="G125">
-        <v>-10.6</v>
+        <v>-10.9</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2016 - (mai 2019 - apr 2021)</t>
+          <t>2016 - (apr 2019 - mar 2021)</t>
         </is>
       </c>
       <c r="J125" s="2">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="K125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L125">
         <v>2021</v>
@@ -21410,10 +22480,10 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.9424030618756805</v>
+        <v>0.9473437037195528</v>
       </c>
       <c r="B126">
-        <v>-5.759693812431954</v>
+        <v>-5.265629628044721</v>
       </c>
       <c r="C126">
         <v>17</v>
@@ -21422,27 +22492,27 @@
         <v>14.69751491091071</v>
       </c>
       <c r="E126">
-        <v>9.596214367632534</v>
+        <v>9.594381673011094</v>
       </c>
       <c r="F126">
-        <v>2.503098766927172</v>
+        <v>2.502620722620184</v>
       </c>
       <c r="G126">
-        <v>-11.1</v>
+        <v>-10.6</v>
       </c>
       <c r="H126">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2016 - (jun 2019 - mai 2021)</t>
+          <t>2016 - (mai 2019 - apr 2021)</t>
         </is>
       </c>
       <c r="J126" s="2">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="K126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L126">
         <v>2021</v>
@@ -21455,39 +22525,39 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.9434539024255091</v>
+        <v>0.9424030618756805</v>
       </c>
       <c r="B127">
-        <v>-5.654609757449092</v>
+        <v>-5.759693812431954</v>
       </c>
       <c r="C127">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D127">
-        <v>15.09165507009222</v>
+        <v>14.69751491091071</v>
       </c>
       <c r="E127">
-        <v>9.556834238254551</v>
+        <v>9.596214367632534</v>
       </c>
       <c r="F127">
-        <v>2.460059538392805</v>
+        <v>2.503098766927172</v>
       </c>
       <c r="G127">
-        <v>-10.8</v>
+        <v>-11.1</v>
       </c>
       <c r="H127">
         <v>-0.5</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2016 - (jul 2019 - jun 2021)</t>
+          <t>2016 - (jun 2019 - mai 2021)</t>
         </is>
       </c>
       <c r="J127" s="2">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="K127">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L127">
         <v>2021</v>
@@ -21500,10 +22570,10 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.9467944743248593</v>
+        <v>0.9434539024255091</v>
       </c>
       <c r="B128">
-        <v>-5.32055256751407</v>
+        <v>-5.654609757449092</v>
       </c>
       <c r="C128">
         <v>18</v>
@@ -21512,27 +22582,27 @@
         <v>15.09165507009222</v>
       </c>
       <c r="E128">
-        <v>9.604723454272637</v>
+        <v>9.556834238254551</v>
       </c>
       <c r="F128">
-        <v>2.472386876056554</v>
+        <v>2.460059538392805</v>
       </c>
       <c r="G128">
-        <v>-10.5</v>
+        <v>-10.8</v>
       </c>
       <c r="H128">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2016 - (aug 2019 - jul 2021)</t>
+          <t>2016 - (jul 2019 - jun 2021)</t>
         </is>
       </c>
       <c r="J128" s="2">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="K128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L128">
         <v>2021</v>
@@ -21545,39 +22615,39 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.9577482014965474</v>
+        <v>0.9467944743248593</v>
       </c>
       <c r="B129">
-        <v>-4.225179850345262</v>
+        <v>-5.32055256751407</v>
       </c>
       <c r="C129">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D129">
-        <v>14.09266341154559</v>
+        <v>15.09165507009222</v>
       </c>
       <c r="E129">
-        <v>9.353873116864785</v>
+        <v>9.604723454272637</v>
       </c>
       <c r="F129">
-        <v>2.491695310394697</v>
+        <v>2.472386876056554</v>
       </c>
       <c r="G129">
-        <v>-9.5</v>
+        <v>-10.5</v>
       </c>
       <c r="H129">
-        <v>1.1</v>
+        <v>-0.1</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2016 - (sep 2019 - aug 2021)</t>
+          <t>2016 - (aug 2019 - jul 2021)</t>
         </is>
       </c>
       <c r="J129" s="2">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="K129">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L129">
         <v>2021</v>
@@ -21590,39 +22660,39 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.9749797557995228</v>
+        <v>0.9577482014965474</v>
       </c>
       <c r="B130">
-        <v>-2.502024420047722</v>
+        <v>-4.225179850345262</v>
       </c>
       <c r="C130">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D130">
-        <v>14.86634233952037</v>
+        <v>14.09266341154559</v>
       </c>
       <c r="E130">
-        <v>12.11801027230559</v>
+        <v>9.353873116864785</v>
       </c>
       <c r="F130">
-        <v>3.142890509846483</v>
+        <v>2.491695310394697</v>
       </c>
       <c r="G130">
-        <v>-9.1</v>
+        <v>-9.5</v>
       </c>
       <c r="H130">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2016 - (okt 2019 - sep 2021)</t>
+          <t>2016 - (sep 2019 - aug 2021)</t>
         </is>
       </c>
       <c r="J130" s="2">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="K130">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L130">
         <v>2021</v>
@@ -21635,10 +22705,10 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.9746799094251892</v>
+        <v>0.9749797557995228</v>
       </c>
       <c r="B131">
-        <v>-2.532009057481077</v>
+        <v>-2.502024420047722</v>
       </c>
       <c r="C131">
         <v>18</v>
@@ -21647,10 +22717,10 @@
         <v>14.86634233952037</v>
       </c>
       <c r="E131">
-        <v>12.06366954023115</v>
+        <v>12.11801027230559</v>
       </c>
       <c r="F131">
-        <v>3.128796861855016</v>
+        <v>3.142890509846483</v>
       </c>
       <c r="G131">
         <v>-9.1</v>
@@ -21660,14 +22730,14 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2016 - (nov 2019 - okt 2021)</t>
+          <t>2016 - (okt 2019 - sep 2021)</t>
         </is>
       </c>
       <c r="J131" s="2">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="K131">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L131">
         <v>2021</v>
@@ -21680,10 +22750,10 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.9755727455740992</v>
+        <v>0.9746799094251892</v>
       </c>
       <c r="B132">
-        <v>-2.442725442590077</v>
+        <v>-2.532009057481077</v>
       </c>
       <c r="C132">
         <v>18</v>
@@ -21692,27 +22762,27 @@
         <v>14.86634233952037</v>
       </c>
       <c r="E132">
-        <v>12.07228377327426</v>
+        <v>12.06366954023115</v>
       </c>
       <c r="F132">
-        <v>3.131031023295088</v>
+        <v>3.128796861855016</v>
       </c>
       <c r="G132">
-        <v>-9</v>
+        <v>-9.1</v>
       </c>
       <c r="H132">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2016 - (des 2019 - nov 2021)</t>
+          <t>2016 - (nov 2019 - okt 2021)</t>
         </is>
       </c>
       <c r="J132" s="2">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="K132">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L132">
         <v>2021</v>
@@ -21725,39 +22795,39 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.9710313722052158</v>
+        <v>0.9755727455740992</v>
       </c>
       <c r="B133">
-        <v>-2.896862779478415</v>
+        <v>-2.442725442590077</v>
       </c>
       <c r="C133">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D133">
-        <v>13.88999092310759</v>
+        <v>14.86634233952037</v>
       </c>
       <c r="E133">
-        <v>12.50113441454054</v>
+        <v>12.07228377327426</v>
       </c>
       <c r="F133">
-        <v>3.354273289390636</v>
+        <v>3.131031023295088</v>
       </c>
       <c r="G133">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="H133">
         <v>4.2</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2016 - (jan 2020 - des 2021)</t>
+          <t>2016 - (des 2019 - nov 2021)</t>
         </is>
       </c>
       <c r="J133" s="2">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="K133">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L133">
         <v>2021</v>
@@ -21770,10 +22840,10 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.9669448094523272</v>
+        <v>0.9710313722052158</v>
       </c>
       <c r="B134">
-        <v>-3.305519054767281</v>
+        <v>-2.896862779478415</v>
       </c>
       <c r="C134">
         <v>17</v>
@@ -21782,30 +22852,30 @@
         <v>13.88999092310759</v>
       </c>
       <c r="E134">
-        <v>12.45313522574472</v>
+        <v>12.50113441454054</v>
       </c>
       <c r="F134">
-        <v>3.341394266451489</v>
+        <v>3.354273289390636</v>
       </c>
       <c r="G134">
-        <v>-10.4</v>
+        <v>-10</v>
       </c>
       <c r="H134">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2016 - (feb 2020 - jan 2022)</t>
+          <t>2016 - (jan 2020 - des 2021)</t>
         </is>
       </c>
       <c r="J134" s="2">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="K134">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L134">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
@@ -21815,39 +22885,39 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.9564408677116027</v>
+        <v>0.9669448094523272</v>
       </c>
       <c r="B135">
-        <v>-4.355913228839725</v>
+        <v>-3.305519054767281</v>
       </c>
       <c r="C135">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D135">
-        <v>15.8424766978712</v>
+        <v>13.88999092310759</v>
       </c>
       <c r="E135">
-        <v>12.38771269979354</v>
+        <v>12.45313522574472</v>
       </c>
       <c r="F135">
-        <v>3.112286622281502</v>
+        <v>3.341394266451489</v>
       </c>
       <c r="G135">
-        <v>-10.9</v>
+        <v>-10.4</v>
       </c>
       <c r="H135">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2016 - (mar 2020 - feb 2022)</t>
+          <t>2016 - (feb 2020 - jan 2022)</t>
         </is>
       </c>
       <c r="J135" s="2">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L135">
         <v>2022</v>
@@ -21860,10 +22930,10 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.9653345948190574</v>
+        <v>0.9564408677116027</v>
       </c>
       <c r="B136">
-        <v>-3.466540518094263</v>
+        <v>-4.355913228839725</v>
       </c>
       <c r="C136">
         <v>19</v>
@@ -21872,27 +22942,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E136">
-        <v>12.38735068570731</v>
+        <v>12.38771269979354</v>
       </c>
       <c r="F136">
-        <v>3.11219566993017</v>
+        <v>3.112286622281502</v>
       </c>
       <c r="G136">
-        <v>-10</v>
+        <v>-10.9</v>
       </c>
       <c r="H136">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2016 - (apr 2020 - mar 2022)</t>
+          <t>2016 - (mar 2020 - feb 2022)</t>
         </is>
       </c>
       <c r="J136" s="2">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="K136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L136">
         <v>2022</v>
@@ -21905,10 +22975,10 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.9734317482284802</v>
+        <v>0.9653345948190574</v>
       </c>
       <c r="B137">
-        <v>-2.656825177151978</v>
+        <v>-3.466540518094263</v>
       </c>
       <c r="C137">
         <v>19</v>
@@ -21917,27 +22987,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E137">
-        <v>12.38101989901812</v>
+        <v>12.38735068570731</v>
       </c>
       <c r="F137">
-        <v>3.110605124266192</v>
+        <v>3.11219566993017</v>
       </c>
       <c r="G137">
-        <v>-9.199999999999999</v>
+        <v>-10</v>
       </c>
       <c r="H137">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2016 - (mai 2020 - apr 2022)</t>
+          <t>2016 - (apr 2020 - mar 2022)</t>
         </is>
       </c>
       <c r="J137" s="2">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="K137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L137">
         <v>2022</v>
@@ -21950,10 +23020,10 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.9785435113344303</v>
+        <v>0.9734317482284802</v>
       </c>
       <c r="B138">
-        <v>-2.145648866556971</v>
+        <v>-2.656825177151978</v>
       </c>
       <c r="C138">
         <v>19</v>
@@ -21962,27 +23032,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E138">
-        <v>12.34821242471642</v>
+        <v>12.38101989901812</v>
       </c>
       <c r="F138">
-        <v>3.102362580557398</v>
+        <v>3.110605124266192</v>
       </c>
       <c r="G138">
-        <v>-8.699999999999999</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="H138">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2016 - (jun 2020 - mai 2022)</t>
+          <t>2016 - (mai 2020 - apr 2022)</t>
         </is>
       </c>
       <c r="J138" s="2">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="K138">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L138">
         <v>2022</v>
@@ -21995,10 +23065,10 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.9797236438490763</v>
+        <v>0.9785435113344303</v>
       </c>
       <c r="B139">
-        <v>-2.027635615092371</v>
+        <v>-2.145648866556971</v>
       </c>
       <c r="C139">
         <v>19</v>
@@ -22007,27 +23077,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E139">
-        <v>12.29875171502866</v>
+        <v>12.34821242471642</v>
       </c>
       <c r="F139">
-        <v>3.089936081104248</v>
+        <v>3.102362580557398</v>
       </c>
       <c r="G139">
-        <v>-8.5</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="H139">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2016 - (jul 2020 - jun 2022)</t>
+          <t>2016 - (jun 2020 - mai 2022)</t>
         </is>
       </c>
       <c r="J139" s="2">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="K139">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L139">
         <v>2022</v>
@@ -22040,10 +23110,10 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.9773691058576595</v>
+        <v>0.9797236438490763</v>
       </c>
       <c r="B140">
-        <v>-2.263089414234054</v>
+        <v>-2.027635615092371</v>
       </c>
       <c r="C140">
         <v>19</v>
@@ -22052,27 +23122,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E140">
-        <v>12.26199647709679</v>
+        <v>12.29875171502866</v>
       </c>
       <c r="F140">
-        <v>3.080701701999213</v>
+        <v>3.089936081104248</v>
       </c>
       <c r="G140">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="H140">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2016 - (aug 2020 - jul 2022)</t>
+          <t>2016 - (jul 2020 - jun 2022)</t>
         </is>
       </c>
       <c r="J140" s="2">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="K140">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L140">
         <v>2022</v>
@@ -22085,10 +23155,10 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.978259373895326</v>
+        <v>0.9773691058576595</v>
       </c>
       <c r="B141">
-        <v>-2.174062610467398</v>
+        <v>-2.263089414234054</v>
       </c>
       <c r="C141">
         <v>19</v>
@@ -22097,27 +23167,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E141">
-        <v>12.1642833158319</v>
+        <v>12.26199647709679</v>
       </c>
       <c r="F141">
-        <v>3.056152265634694</v>
+        <v>3.080701701999213</v>
       </c>
       <c r="G141">
-        <v>-8.6</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="H141">
         <v>4.2</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2016 - (sep 2020 - aug 2022)</t>
+          <t>2016 - (aug 2020 - jul 2022)</t>
         </is>
       </c>
       <c r="J141" s="2">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="K141">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L141">
         <v>2022</v>
@@ -22130,10 +23200,10 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.9783712993055295</v>
+        <v>0.978259373895326</v>
       </c>
       <c r="B142">
-        <v>-2.162870069447054</v>
+        <v>-2.174062610467398</v>
       </c>
       <c r="C142">
         <v>19</v>
@@ -22142,27 +23212,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E142">
-        <v>12.02107234656994</v>
+        <v>12.1642833158319</v>
       </c>
       <c r="F142">
-        <v>3.020171968496756</v>
+        <v>3.056152265634694</v>
       </c>
       <c r="G142">
-        <v>-8.5</v>
+        <v>-8.6</v>
       </c>
       <c r="H142">
         <v>4.2</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2016 - (okt 2020 - sep 2022)</t>
+          <t>2016 - (sep 2020 - aug 2022)</t>
         </is>
       </c>
       <c r="J142" s="2">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="K142">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L142">
         <v>2022</v>
@@ -22175,10 +23245,10 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.9781459785454013</v>
+        <v>0.9783712993055295</v>
       </c>
       <c r="B143">
-        <v>-2.185402145459869</v>
+        <v>-2.162870069447054</v>
       </c>
       <c r="C143">
         <v>19</v>
@@ -22187,27 +23257,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E143">
-        <v>11.83149633986932</v>
+        <v>12.02107234656994</v>
       </c>
       <c r="F143">
-        <v>2.972542928022665</v>
+        <v>3.020171968496756</v>
       </c>
       <c r="G143">
-        <v>-8.4</v>
+        <v>-8.5</v>
       </c>
       <c r="H143">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2016 - (nov 2020 - okt 2022)</t>
+          <t>2016 - (okt 2020 - sep 2022)</t>
         </is>
       </c>
       <c r="J143" s="2">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="K143">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L143">
         <v>2022</v>
@@ -22220,10 +23290,10 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.9814424233659909</v>
+        <v>0.9781459785454013</v>
       </c>
       <c r="B144">
-        <v>-1.855757663400914</v>
+        <v>-2.185402145459869</v>
       </c>
       <c r="C144">
         <v>19</v>
@@ -22232,27 +23302,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E144">
-        <v>11.8172919650211</v>
+        <v>11.83149633986932</v>
       </c>
       <c r="F144">
-        <v>2.968974223541915</v>
+        <v>2.972542928022665</v>
       </c>
       <c r="G144">
-        <v>-8.1</v>
+        <v>-8.4</v>
       </c>
       <c r="H144">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2016 - (des 2020 - nov 2022)</t>
+          <t>2016 - (nov 2020 - okt 2022)</t>
         </is>
       </c>
       <c r="J144" s="2">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="K144">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L144">
         <v>2022</v>
@@ -22265,10 +23335,10 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.9846765007441217</v>
+        <v>0.9814424233659909</v>
       </c>
       <c r="B145">
-        <v>-1.532349925587828</v>
+        <v>-1.855757663400914</v>
       </c>
       <c r="C145">
         <v>19</v>
@@ -22277,27 +23347,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E145">
-        <v>11.8141037546154</v>
+        <v>11.8172919650211</v>
       </c>
       <c r="F145">
-        <v>2.968173218155759</v>
+        <v>2.968974223541915</v>
       </c>
       <c r="G145">
-        <v>-7.8</v>
+        <v>-8.1</v>
       </c>
       <c r="H145">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2016 - (jan 2021 - des 2022)</t>
+          <t>2016 - (des 2020 - nov 2022)</t>
         </is>
       </c>
       <c r="J145" s="2">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="K145">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L145">
         <v>2022</v>
@@ -22310,42 +23380,42 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.9674710067709154</v>
+        <v>0.9846765007441217</v>
       </c>
       <c r="B146">
-        <v>-3.252899322908465</v>
+        <v>-1.532349925587828</v>
       </c>
       <c r="C146">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D146">
-        <v>16.82824765497094</v>
+        <v>15.8424766978712</v>
       </c>
       <c r="E146">
-        <v>15.15625246166242</v>
+        <v>11.8141037546154</v>
       </c>
       <c r="F146">
-        <v>3.694642174782071</v>
+        <v>2.968173218155759</v>
       </c>
       <c r="G146">
-        <v>-11</v>
+        <v>-7.8</v>
       </c>
       <c r="H146">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2016 - (feb 2021 - jan 2023)</t>
+          <t>2016 - (jan 2021 - des 2022)</t>
         </is>
       </c>
       <c r="J146" s="2">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="K146">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L146">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
@@ -22355,10 +23425,10 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.9709704287878327</v>
+        <v>0.9674710067709154</v>
       </c>
       <c r="B147">
-        <v>-2.902957121216732</v>
+        <v>-3.252899322908465</v>
       </c>
       <c r="C147">
         <v>20</v>
@@ -22367,27 +23437,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E147">
-        <v>15.17954408129968</v>
+        <v>15.15625246166242</v>
       </c>
       <c r="F147">
-        <v>3.700319976761715</v>
+        <v>3.694642174782071</v>
       </c>
       <c r="G147">
-        <v>-10.6</v>
+        <v>-11</v>
       </c>
       <c r="H147">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2016 - (mar 2021 - feb 2023)</t>
+          <t>2016 - (feb 2021 - jan 2023)</t>
         </is>
       </c>
       <c r="J147" s="2">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="K147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L147">
         <v>2023</v>
@@ -22400,10 +23470,10 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.9760550165546241</v>
+        <v>0.9709704287878327</v>
       </c>
       <c r="B148">
-        <v>-2.394498344537588</v>
+        <v>-2.902957121216732</v>
       </c>
       <c r="C148">
         <v>20</v>
@@ -22412,27 +23482,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E148">
-        <v>15.19956380286279</v>
+        <v>15.17954408129968</v>
       </c>
       <c r="F148">
-        <v>3.705200187605493</v>
+        <v>3.700319976761715</v>
       </c>
       <c r="G148">
-        <v>-10.1</v>
+        <v>-10.6</v>
       </c>
       <c r="H148">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2016 - (apr 2021 - mar 2023)</t>
+          <t>2016 - (mar 2021 - feb 2023)</t>
         </is>
       </c>
       <c r="J148" s="2">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="K148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L148">
         <v>2023</v>
@@ -22445,10 +23515,10 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.9784459964487164</v>
+        <v>0.9760550165546241</v>
       </c>
       <c r="B149">
-        <v>-2.155400355128356</v>
+        <v>-2.394498344537588</v>
       </c>
       <c r="C149">
         <v>20</v>
@@ -22457,27 +23527,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E149">
-        <v>15.25035570409302</v>
+        <v>15.19956380286279</v>
       </c>
       <c r="F149">
-        <v>3.717581737787323</v>
+        <v>3.705200187605493</v>
       </c>
       <c r="G149">
-        <v>-9.9</v>
+        <v>-10.1</v>
       </c>
       <c r="H149">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2016 - (mai 2021 - apr 2023)</t>
+          <t>2016 - (apr 2021 - mar 2023)</t>
         </is>
       </c>
       <c r="J149" s="2">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="K149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L149">
         <v>2023</v>
@@ -22490,10 +23560,10 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.9860783496764259</v>
+        <v>0.9784459964487164</v>
       </c>
       <c r="B150">
-        <v>-1.392165032357406</v>
+        <v>-2.155400355128356</v>
       </c>
       <c r="C150">
         <v>20</v>
@@ -22502,27 +23572,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E150">
-        <v>14.91437792234658</v>
+        <v>15.25035570409302</v>
       </c>
       <c r="F150">
-        <v>3.635680378241486</v>
+        <v>3.717581737787323</v>
       </c>
       <c r="G150">
-        <v>-9</v>
+        <v>-9.9</v>
       </c>
       <c r="H150">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2016 - (jun 2021 - mai 2023)</t>
+          <t>2016 - (mai 2021 - apr 2023)</t>
         </is>
       </c>
       <c r="J150" s="2">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="K150">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L150">
         <v>2023</v>
@@ -22535,10 +23605,10 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.9873969003761138</v>
+        <v>0.9860783496764259</v>
       </c>
       <c r="B151">
-        <v>-1.260309962388617</v>
+        <v>-1.392165032357406</v>
       </c>
       <c r="C151">
         <v>20</v>
@@ -22547,27 +23617,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E151">
-        <v>14.80041938593657</v>
+        <v>14.91437792234658</v>
       </c>
       <c r="F151">
-        <v>3.607900686931786</v>
+        <v>3.635680378241486</v>
       </c>
       <c r="G151">
-        <v>-8.800000000000001</v>
+        <v>-9</v>
       </c>
       <c r="H151">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2016 - (jul 2021 - jun 2023)</t>
+          <t>2016 - (jun 2021 - mai 2023)</t>
         </is>
       </c>
       <c r="J151" s="2">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="K151">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L151">
         <v>2023</v>
@@ -22580,10 +23650,10 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.9866483885710398</v>
+        <v>0.9873969003761138</v>
       </c>
       <c r="B152">
-        <v>-1.335161142896024</v>
+        <v>-1.260309962388617</v>
       </c>
       <c r="C152">
         <v>20</v>
@@ -22592,27 +23662,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E152">
-        <v>14.60099916722386</v>
+        <v>14.80041938593657</v>
       </c>
       <c r="F152">
-        <v>3.559287987161579</v>
+        <v>3.607900686931786</v>
       </c>
       <c r="G152">
         <v>-8.800000000000001</v>
       </c>
       <c r="H152">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2016 - (aug 2021 - jul 2023)</t>
+          <t>2016 - (jul 2021 - jun 2023)</t>
         </is>
       </c>
       <c r="J152" s="2">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="K152">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L152">
         <v>2023</v>
@@ -22625,10 +23695,10 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.9871420243467944</v>
+        <v>0.9866483885710398</v>
       </c>
       <c r="B153">
-        <v>-1.285797565320557</v>
+        <v>-1.335161142896024</v>
       </c>
       <c r="C153">
         <v>20</v>
@@ -22637,27 +23707,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E153">
-        <v>14.35560550143321</v>
+        <v>14.60099916722386</v>
       </c>
       <c r="F153">
-        <v>3.499468332576921</v>
+        <v>3.559287987161579</v>
       </c>
       <c r="G153">
-        <v>-8.6</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="H153">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2016 - (sep 2021 - aug 2023)</t>
+          <t>2016 - (aug 2021 - jul 2023)</t>
         </is>
       </c>
       <c r="J153" s="2">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="K153">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L153">
         <v>2023</v>
@@ -22670,10 +23740,10 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.9871728641473756</v>
+        <v>0.9871420243467944</v>
       </c>
       <c r="B154">
-        <v>-1.282713585262441</v>
+        <v>-1.285797565320557</v>
       </c>
       <c r="C154">
         <v>20</v>
@@ -22682,27 +23752,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E154">
-        <v>14.17349478862823</v>
+        <v>14.35560550143321</v>
       </c>
       <c r="F154">
-        <v>3.455075173930955</v>
+        <v>3.499468332576921</v>
       </c>
       <c r="G154">
-        <v>-8.5</v>
+        <v>-8.6</v>
       </c>
       <c r="H154">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2016 - (okt 2021 - sep 2023)</t>
+          <t>2016 - (sep 2021 - aug 2023)</t>
         </is>
       </c>
       <c r="J154" s="2">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="K154">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L154">
         <v>2023</v>
@@ -22715,10 +23785,10 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.9877940374210177</v>
+        <v>0.9871728641473756</v>
       </c>
       <c r="B155">
-        <v>-1.220596257898232</v>
+        <v>-1.282713585262441</v>
       </c>
       <c r="C155">
         <v>20</v>
@@ -22727,27 +23797,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E155">
-        <v>14.0579121302133</v>
+        <v>14.17349478862823</v>
       </c>
       <c r="F155">
-        <v>3.426899570130911</v>
+        <v>3.455075173930955</v>
       </c>
       <c r="G155">
-        <v>-8.4</v>
+        <v>-8.5</v>
       </c>
       <c r="H155">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2016 - (nov 2021 - okt 2023)</t>
+          <t>2016 - (okt 2021 - sep 2023)</t>
         </is>
       </c>
       <c r="J155" s="2">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="K155">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L155">
         <v>2023</v>
@@ -22760,10 +23830,10 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.9886680970594256</v>
+        <v>0.9877940374210177</v>
       </c>
       <c r="B156">
-        <v>-1.13319029405744</v>
+        <v>-1.220596257898232</v>
       </c>
       <c r="C156">
         <v>20</v>
@@ -22772,27 +23842,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E156">
-        <v>14.04443714985667</v>
+        <v>14.0579121302133</v>
       </c>
       <c r="F156">
-        <v>3.423614771935851</v>
+        <v>3.426899570130911</v>
       </c>
       <c r="G156">
-        <v>-8.300000000000001</v>
+        <v>-8.4</v>
       </c>
       <c r="H156">
         <v>6</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2016 - (des 2021 - nov 2023)</t>
+          <t>2016 - (nov 2021 - okt 2023)</t>
         </is>
       </c>
       <c r="J156" s="2">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="K156">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L156">
         <v>2023</v>
@@ -22805,39 +23875,39 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.990166350168458</v>
+        <v>0.9886680970594256</v>
       </c>
       <c r="B157">
-        <v>-0.9833649831542002</v>
+        <v>-1.13319029405744</v>
       </c>
       <c r="C157">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D157">
-        <v>17.82818578652688</v>
+        <v>16.82824765497094</v>
       </c>
       <c r="E157">
-        <v>13.61534305266147</v>
+        <v>14.04443714985667</v>
       </c>
       <c r="F157">
-        <v>3.224593785845179</v>
+        <v>3.423614771935851</v>
       </c>
       <c r="G157">
-        <v>-7.7</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="H157">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2016 - (jan 2022 - des 2023)</t>
+          <t>2016 - (des 2021 - nov 2023)</t>
         </is>
       </c>
       <c r="J157" s="2">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="K157">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L157">
         <v>2023</v>
@@ -22850,10 +23920,10 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.9922402972080995</v>
+        <v>0.990166350168458</v>
       </c>
       <c r="B158">
-        <v>-0.7759702791900525</v>
+        <v>-0.9833649831542002</v>
       </c>
       <c r="C158">
         <v>21</v>
@@ -22862,30 +23932,30 @@
         <v>17.82818578652688</v>
       </c>
       <c r="E158">
-        <v>13.6246605781058</v>
+        <v>13.61534305266147</v>
       </c>
       <c r="F158">
-        <v>3.226800504730708</v>
+        <v>3.224593785845179</v>
       </c>
       <c r="G158">
-        <v>-7.5</v>
+        <v>-7.7</v>
       </c>
       <c r="H158">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2016 - (feb 2022 - jan 2024)</t>
+          <t>2016 - (jan 2022 - des 2023)</t>
         </is>
       </c>
       <c r="J158" s="2">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="K158">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L158">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
@@ -22895,10 +23965,10 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.9940247033537304</v>
+        <v>0.9922402972080995</v>
       </c>
       <c r="B159">
-        <v>-0.5975296646269612</v>
+        <v>-0.7759702791900525</v>
       </c>
       <c r="C159">
         <v>21</v>
@@ -22907,27 +23977,27 @@
         <v>17.82818578652688</v>
       </c>
       <c r="E159">
-        <v>13.64828128528448</v>
+        <v>13.6246605781058</v>
       </c>
       <c r="F159">
-        <v>3.23239472187904</v>
+        <v>3.226800504730708</v>
       </c>
       <c r="G159">
-        <v>-7.3</v>
+        <v>-7.5</v>
       </c>
       <c r="H159">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2016 - (mar 2022 - feb 2024)</t>
+          <t>2016 - (feb 2022 - jan 2024)</t>
         </is>
       </c>
       <c r="J159" s="2">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="K159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L159">
         <v>2024</v>
@@ -22940,10 +24010,10 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.9922015915467327</v>
+        <v>0.9940247033537304</v>
       </c>
       <c r="B160">
-        <v>-0.7798408453267291</v>
+        <v>-0.5975296646269612</v>
       </c>
       <c r="C160">
         <v>21</v>
@@ -22952,27 +24022,27 @@
         <v>17.82818578652688</v>
       </c>
       <c r="E160">
-        <v>13.65313305810283</v>
+        <v>13.64828128528448</v>
       </c>
       <c r="F160">
-        <v>3.233543792924837</v>
+        <v>3.23239472187904</v>
       </c>
       <c r="G160">
-        <v>-7.5</v>
+        <v>-7.3</v>
       </c>
       <c r="H160">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2016 - (apr 2022 - mar 2024)</t>
+          <t>2016 - (mar 2022 - feb 2024)</t>
         </is>
       </c>
       <c r="J160" s="2">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="K160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L160">
         <v>2024</v>
@@ -22985,10 +24055,10 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.9946889000184461</v>
+        <v>0.9922015915467327</v>
       </c>
       <c r="B161">
-        <v>-0.531109998155388</v>
+        <v>-0.7798408453267291</v>
       </c>
       <c r="C161">
         <v>21</v>
@@ -22997,27 +24067,27 @@
         <v>17.82818578652688</v>
       </c>
       <c r="E161">
-        <v>13.59061826369468</v>
+        <v>13.65313305810283</v>
       </c>
       <c r="F161">
-        <v>3.218738083161063</v>
+        <v>3.233543792924837</v>
       </c>
       <c r="G161">
-        <v>-7.2</v>
+        <v>-7.5</v>
       </c>
       <c r="H161">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2016 - (mai 2022 - apr 2024)</t>
+          <t>2016 - (apr 2022 - mar 2024)</t>
         </is>
       </c>
       <c r="J161" s="2">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="K161">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L161">
         <v>2024</v>
@@ -23030,10 +24100,10 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.9945611337576239</v>
+        <v>0.9946889000184461</v>
       </c>
       <c r="B162">
-        <v>-0.5438866242376106</v>
+        <v>-0.531109998155388</v>
       </c>
       <c r="C162">
         <v>21</v>
@@ -23042,27 +24112,27 @@
         <v>17.82818578652688</v>
       </c>
       <c r="E162">
-        <v>13.58770157489964</v>
+        <v>13.59061826369468</v>
       </c>
       <c r="F162">
-        <v>3.218047308310416</v>
+        <v>3.218738083161063</v>
       </c>
       <c r="G162">
-        <v>-7.3</v>
+        <v>-7.2</v>
       </c>
       <c r="H162">
         <v>6.2</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2016 - (jun 2022 - mai 2024)</t>
+          <t>2016 - (mai 2022 - apr 2024)</t>
         </is>
       </c>
       <c r="J162" s="2">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="K162">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L162">
         <v>2024</v>
@@ -23075,39 +24145,39 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>1.003284346850033</v>
+        <v>0.9945611337576239</v>
       </c>
       <c r="B163">
-        <v>0.3284346850033204</v>
+        <v>-0.5438866242376106</v>
       </c>
       <c r="C163">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D163">
-        <v>18.80539195873661</v>
+        <v>17.82818578652688</v>
       </c>
       <c r="E163">
-        <v>13.43984714795896</v>
+        <v>13.58770157489964</v>
       </c>
       <c r="F163">
-        <v>3.099225199464311</v>
+        <v>3.218047308310416</v>
       </c>
       <c r="G163">
-        <v>-6.1</v>
+        <v>-7.3</v>
       </c>
       <c r="H163">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2016 - (jul 2022 - jun 2024)</t>
+          <t>2016 - (jun 2022 - mai 2024)</t>
         </is>
       </c>
       <c r="J163" s="2">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="K163">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L163">
         <v>2024</v>
@@ -23120,10 +24190,10 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>1.004505701384729</v>
+        <v>1.003284346850033</v>
       </c>
       <c r="B164">
-        <v>0.4505701384728722</v>
+        <v>0.3284346850033204</v>
       </c>
       <c r="C164">
         <v>22</v>
@@ -23132,27 +24202,27 @@
         <v>18.80539195873661</v>
       </c>
       <c r="E164">
-        <v>13.3696062444865</v>
+        <v>13.43984714795896</v>
       </c>
       <c r="F164">
-        <v>3.083027665691909</v>
+        <v>3.099225199464311</v>
       </c>
       <c r="G164">
-        <v>-6</v>
+        <v>-6.1</v>
       </c>
       <c r="H164">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2016 - (aug 2022 - jul 2024)</t>
+          <t>2016 - (jul 2022 - jun 2024)</t>
         </is>
       </c>
       <c r="J164" s="2">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="K164">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L164">
         <v>2024</v>
@@ -23165,10 +24235,10 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>1.005105439041971</v>
+        <v>1.004505701384729</v>
       </c>
       <c r="B165">
-        <v>0.5105439041970916</v>
+        <v>0.4505701384728722</v>
       </c>
       <c r="C165">
         <v>22</v>
@@ -23177,27 +24247,27 @@
         <v>18.80539195873661</v>
       </c>
       <c r="E165">
-        <v>13.30434514934585</v>
+        <v>13.3696062444865</v>
       </c>
       <c r="F165">
-        <v>3.067978474404399</v>
+        <v>3.083027665691909</v>
       </c>
       <c r="G165">
-        <v>-5.9</v>
+        <v>-6</v>
       </c>
       <c r="H165">
         <v>6.9</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2016 - (sep 2022 - aug 2024)</t>
+          <t>2016 - (aug 2022 - jul 2024)</t>
         </is>
       </c>
       <c r="J165" s="2">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="K165">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L165">
         <v>2024</v>
@@ -23210,39 +24280,39 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>1.008596344978222</v>
+        <v>1.005105439041971</v>
       </c>
       <c r="B166">
-        <v>0.8596344978222481</v>
+        <v>0.5105439041970916</v>
       </c>
       <c r="C166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D166">
-        <v>17.87589620808778</v>
+        <v>18.80539195873661</v>
       </c>
       <c r="E166">
-        <v>13.65839831788607</v>
+        <v>13.30434514934585</v>
       </c>
       <c r="F166">
-        <v>3.230471111006505</v>
+        <v>3.067978474404399</v>
       </c>
       <c r="G166">
         <v>-5.9</v>
       </c>
       <c r="H166">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2016 - (okt 2022 - sep 2024)</t>
+          <t>2016 - (sep 2022 - aug 2024)</t>
         </is>
       </c>
       <c r="J166" s="2">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="K166">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L166">
         <v>2024</v>
@@ -23255,10 +24325,10 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>1.010228257369455</v>
+        <v>1.008596344978222</v>
       </c>
       <c r="B167">
-        <v>1.022825736945454</v>
+        <v>0.8596344978222481</v>
       </c>
       <c r="C167">
         <v>21</v>
@@ -23267,27 +24337,27 @@
         <v>17.87589620808778</v>
       </c>
       <c r="E167">
-        <v>13.60501281844831</v>
+        <v>13.65839831788607</v>
       </c>
       <c r="F167">
-        <v>3.217844424504436</v>
+        <v>3.230471111006505</v>
       </c>
       <c r="G167">
-        <v>-5.7</v>
+        <v>-5.9</v>
       </c>
       <c r="H167">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2016 - (nov 2022 - okt 2024)</t>
+          <t>2016 - (okt 2022 - sep 2024)</t>
         </is>
       </c>
       <c r="J167" s="2">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="K167">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L167">
         <v>2024</v>
@@ -23300,39 +24370,39 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>1.003815851693727</v>
+        <v>1.010228257369455</v>
       </c>
       <c r="B168">
-        <v>0.3815851693727002</v>
+        <v>1.022825736945454</v>
       </c>
       <c r="C168">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D168">
-        <v>16.88220645671328</v>
+        <v>17.87589620808778</v>
       </c>
       <c r="E168">
-        <v>13.56629382985027</v>
+        <v>13.60501281844831</v>
       </c>
       <c r="F168">
-        <v>3.301768467363281</v>
+        <v>3.217844424504436</v>
       </c>
       <c r="G168">
-        <v>-6.5</v>
+        <v>-5.7</v>
       </c>
       <c r="H168">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2016 - (des 2022 - nov 2024)</t>
+          <t>2016 - (nov 2022 - okt 2024)</t>
         </is>
       </c>
       <c r="J168" s="2">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="K168">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L168">
         <v>2024</v>
@@ -23345,10 +24415,10 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>1.0036007631051</v>
+        <v>1.003815851693727</v>
       </c>
       <c r="B169">
-        <v>0.3600763105099825</v>
+        <v>0.3815851693727002</v>
       </c>
       <c r="C169">
         <v>20</v>
@@ -23357,27 +24427,27 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E169">
-        <v>13.51715763919829</v>
+        <v>13.56629382985027</v>
       </c>
       <c r="F169">
-        <v>3.28980968724722</v>
+        <v>3.301768467363281</v>
       </c>
       <c r="G169">
         <v>-6.5</v>
       </c>
       <c r="H169">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2016 - (jan 2023 - des 2024)</t>
+          <t>2016 - (des 2022 - nov 2024)</t>
         </is>
       </c>
       <c r="J169" s="2">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="K169">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L169">
         <v>2024</v>
@@ -23390,10 +24460,10 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>1.00326626945198</v>
+        <v>1.0036007631051</v>
       </c>
       <c r="B170">
-        <v>0.3266269451980275</v>
+        <v>0.3600763105099825</v>
       </c>
       <c r="C170">
         <v>20</v>
@@ -23402,10 +24472,10 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E170">
-        <v>13.455724817356</v>
+        <v>13.51715763919829</v>
       </c>
       <c r="F170">
-        <v>3.274858149519672</v>
+        <v>3.28980968724722</v>
       </c>
       <c r="G170">
         <v>-6.5</v>
@@ -23415,17 +24485,17 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2016 - (feb 2023 - jan 2025)</t>
+          <t>2016 - (jan 2023 - des 2024)</t>
         </is>
       </c>
       <c r="J170" s="2">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="K170">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L170">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
@@ -23435,10 +24505,10 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>1.002848451396593</v>
+        <v>1.00326626945198</v>
       </c>
       <c r="B171">
-        <v>0.2848451396593399</v>
+        <v>0.3266269451980275</v>
       </c>
       <c r="C171">
         <v>20</v>
@@ -23447,27 +24517,27 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E171">
-        <v>13.40893818530444</v>
+        <v>13.455724817356</v>
       </c>
       <c r="F171">
-        <v>3.263471205646904</v>
+        <v>3.274858149519672</v>
       </c>
       <c r="G171">
         <v>-6.5</v>
       </c>
       <c r="H171">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2016 - (mar 2023 - feb 2025)</t>
+          <t>2016 - (feb 2023 - jan 2025)</t>
         </is>
       </c>
       <c r="J171" s="2">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="K171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L171">
         <v>2025</v>
@@ -23480,10 +24550,10 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>1.002586916430626</v>
+        <v>1.002848451396593</v>
       </c>
       <c r="B172">
-        <v>0.2586916430626252</v>
+        <v>0.2848451396593399</v>
       </c>
       <c r="C172">
         <v>20</v>
@@ -23492,27 +24562,27 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E172">
-        <v>13.39489679241905</v>
+        <v>13.40893818530444</v>
       </c>
       <c r="F172">
-        <v>3.260053807435698</v>
+        <v>3.263471205646904</v>
       </c>
       <c r="G172">
-        <v>-6.6</v>
+        <v>-6.5</v>
       </c>
       <c r="H172">
         <v>7.1</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2016 - (apr 2023 - mar 2025)</t>
+          <t>2016 - (mar 2023 - feb 2025)</t>
         </is>
       </c>
       <c r="J172" s="2">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="K172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L172">
         <v>2025</v>
@@ -23525,10 +24595,10 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>1.004987775523698</v>
+        <v>1.002586916430626</v>
       </c>
       <c r="B173">
-        <v>0.4987775523697779</v>
+        <v>0.2586916430626252</v>
       </c>
       <c r="C173">
         <v>20</v>
@@ -23537,27 +24607,27 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E173">
-        <v>13.43471535184375</v>
+        <v>13.39489679241905</v>
       </c>
       <c r="F173">
-        <v>3.269744859802191</v>
+        <v>3.260053807435698</v>
       </c>
       <c r="G173">
-        <v>-6.3</v>
+        <v>-6.6</v>
       </c>
       <c r="H173">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2016 - (mai 2023 - apr 2025)</t>
+          <t>2016 - (apr 2023 - mar 2025)</t>
         </is>
       </c>
       <c r="J173" s="2">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="K173">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L173">
         <v>2025</v>
@@ -23570,10 +24640,10 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>1.005460412264787</v>
+        <v>1.004987775523698</v>
       </c>
       <c r="B174">
-        <v>0.5460412264786552</v>
+        <v>0.4987775523697779</v>
       </c>
       <c r="C174">
         <v>20</v>
@@ -23582,27 +24652,27 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E174">
-        <v>13.38746896126159</v>
+        <v>13.43471535184375</v>
       </c>
       <c r="F174">
-        <v>3.258246019766921</v>
+        <v>3.269744859802191</v>
       </c>
       <c r="G174">
         <v>-6.3</v>
       </c>
       <c r="H174">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2016 - (jun 2023 - mai 2025)</t>
+          <t>2016 - (mai 2023 - apr 2025)</t>
         </is>
       </c>
       <c r="J174" s="2">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="K174">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L174">
         <v>2025</v>
@@ -23615,10 +24685,10 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>1.004326163822444</v>
+        <v>1.005460412264787</v>
       </c>
       <c r="B175">
-        <v>0.4326163822443663</v>
+        <v>0.5460412264786552</v>
       </c>
       <c r="C175">
         <v>20</v>
@@ -23627,27 +24697,27 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E175">
-        <v>13.36272017597942</v>
+        <v>13.38746896126159</v>
       </c>
       <c r="F175">
-        <v>3.252222653335743</v>
+        <v>3.258246019766921</v>
       </c>
       <c r="G175">
-        <v>-6.4</v>
+        <v>-6.3</v>
       </c>
       <c r="H175">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2016 - (jul 2023 - jun 2025)</t>
+          <t>2016 - (jun 2023 - mai 2025)</t>
         </is>
       </c>
       <c r="J175" s="2">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="K175">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L175">
         <v>2025</v>
@@ -23660,10 +24730,10 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>1.005419348085679</v>
+        <v>1.004326163822444</v>
       </c>
       <c r="B176">
-        <v>0.5419348085678788</v>
+        <v>0.4326163822443663</v>
       </c>
       <c r="C176">
         <v>20</v>
@@ -23672,27 +24742,27 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E176">
-        <v>13.38607364202854</v>
+        <v>13.36272017597942</v>
       </c>
       <c r="F176">
-        <v>3.257906426573424</v>
+        <v>3.252222653335743</v>
       </c>
       <c r="G176">
-        <v>-6.3</v>
+        <v>-6.4</v>
       </c>
       <c r="H176">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2016 - (aug 2023 - jul 2025)</t>
+          <t>2016 - (jul 2023 - jun 2025)</t>
         </is>
       </c>
       <c r="J176" s="2">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="K176">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L176">
         <v>2025</v>
@@ -23705,10 +24775,10 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>1.005979894064566</v>
+        <v>1.005419348085679</v>
       </c>
       <c r="B177">
-        <v>0.5979894064566116</v>
+        <v>0.5419348085678788</v>
       </c>
       <c r="C177">
         <v>20</v>
@@ -23717,10 +24787,10 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E177">
-        <v>13.44330877962815</v>
+        <v>13.38607364202854</v>
       </c>
       <c r="F177">
-        <v>3.271836330710971</v>
+        <v>3.257906426573424</v>
       </c>
       <c r="G177">
         <v>-6.3</v>
@@ -23730,14 +24800,14 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2016 - (sep 2023 - aug 2025)</t>
+          <t>2016 - (aug 2023 - jul 2025)</t>
         </is>
       </c>
       <c r="J177" s="2">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="K177">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L177">
         <v>2025</v>
@@ -23750,10 +24820,10 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>1.0070367983249</v>
+        <v>1.005979894064566</v>
       </c>
       <c r="B178">
-        <v>0.7036798324900451</v>
+        <v>0.5979894064566116</v>
       </c>
       <c r="C178">
         <v>20</v>
@@ -23762,27 +24832,27 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E178">
-        <v>13.39410765994257</v>
+        <v>13.44330877962815</v>
       </c>
       <c r="F178">
-        <v>3.259861748148165</v>
+        <v>3.271836330710971</v>
       </c>
       <c r="G178">
-        <v>-6.1</v>
+        <v>-6.3</v>
       </c>
       <c r="H178">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2016 - (okt 2023 - sep 2025)</t>
+          <t>2016 - (sep 2023 - aug 2025)</t>
         </is>
       </c>
       <c r="J178" s="2">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="K178">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L178">
         <v>2025</v>
@@ -23795,10 +24865,10 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>1.008921963091023</v>
+        <v>1.0070367983249</v>
       </c>
       <c r="B179">
-        <v>0.8921963091022889</v>
+        <v>0.7036798324900451</v>
       </c>
       <c r="C179">
         <v>20</v>
@@ -23807,27 +24877,27 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E179">
-        <v>13.34224484054603</v>
+        <v>13.39410765994257</v>
       </c>
       <c r="F179">
-        <v>3.247239360349423</v>
+        <v>3.259861748148165</v>
       </c>
       <c r="G179">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="H179">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2016 - (nov 2023 - okt 2025)</t>
+          <t>2016 - (okt 2023 - sep 2025)</t>
         </is>
       </c>
       <c r="J179" s="2">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="K179">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L179">
         <v>2025</v>
@@ -23840,100 +24910,100 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.9731235536538212</v>
+        <v>1.008921963091023</v>
       </c>
       <c r="B180">
-        <v>-2.687644634617881</v>
+        <v>0.8921963091022889</v>
       </c>
       <c r="C180">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D180">
-        <v>12.74436540910119</v>
+        <v>16.88220645671328</v>
       </c>
       <c r="E180">
-        <v>5.815881681151314</v>
+        <v>13.34224484054603</v>
       </c>
       <c r="F180">
-        <v>1.629132677857648</v>
+        <v>3.247239360349423</v>
       </c>
       <c r="G180">
-        <v>-6.2</v>
+        <v>-5.9</v>
       </c>
       <c r="H180">
-        <v>0.8</v>
+        <v>7.7</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2016 - (jan 2017 - des 2019)</t>
+          <t>2016 - (nov 2023 - okt 2025)</t>
         </is>
       </c>
       <c r="J180" s="2">
-        <v>43800</v>
+        <v>45931</v>
       </c>
       <c r="K180">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L180">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>36_months</t>
+          <t>24_months</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.9740431819957736</v>
+        <v>1.00958217940755</v>
       </c>
       <c r="B181">
-        <v>-2.595681800422645</v>
+        <v>0.9582179407550129</v>
       </c>
       <c r="C181">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D181">
-        <v>12.74436540910119</v>
+        <v>16.88220645671328</v>
       </c>
       <c r="E181">
-        <v>5.803157261078308</v>
+        <v>13.303655918229</v>
       </c>
       <c r="F181">
-        <v>1.625568339777164</v>
+        <v>3.237847577413428</v>
       </c>
       <c r="G181">
-        <v>-6.1</v>
+        <v>-5.8</v>
       </c>
       <c r="H181">
-        <v>0.9</v>
+        <v>7.7</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2016 - (feb 2017 - jan 2020)</t>
+          <t>2016 - (des 2023 - nov 2025)</t>
         </is>
       </c>
       <c r="J181" s="2">
-        <v>43831</v>
+        <v>45962</v>
       </c>
       <c r="K181">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L181">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>36_months</t>
+          <t>24_months</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.9746347696807275</v>
+        <v>0.9731235536538212</v>
       </c>
       <c r="B182">
-        <v>-2.536523031927251</v>
+        <v>-2.687644634617881</v>
       </c>
       <c r="C182">
         <v>15</v>
@@ -23942,30 +25012,30 @@
         <v>12.74436540910119</v>
       </c>
       <c r="E182">
-        <v>5.815659777635309</v>
+        <v>5.815881681151314</v>
       </c>
       <c r="F182">
-        <v>1.629070518706367</v>
+        <v>1.629132677857648</v>
       </c>
       <c r="G182">
-        <v>-6</v>
+        <v>-6.2</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2016 - (mar 2017 - feb 2020)</t>
+          <t>2016 - (jan 2017 - des 2019)</t>
         </is>
       </c>
       <c r="J182" s="2">
-        <v>43862</v>
+        <v>43800</v>
       </c>
       <c r="K182">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L182">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
@@ -23975,10 +25045,10 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>0.9683689718705626</v>
+        <v>0.9740431819957736</v>
       </c>
       <c r="B183">
-        <v>-3.163102812943741</v>
+        <v>-2.595681800422645</v>
       </c>
       <c r="C183">
         <v>15</v>
@@ -23987,27 +25057,27 @@
         <v>12.74436540910119</v>
       </c>
       <c r="E183">
-        <v>5.85766996660876</v>
+        <v>5.803157261078308</v>
       </c>
       <c r="F183">
-        <v>1.640838325448624</v>
+        <v>1.625568339777164</v>
       </c>
       <c r="G183">
-        <v>-6.7</v>
+        <v>-6.1</v>
       </c>
       <c r="H183">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2016 - (apr 2017 - mar 2020)</t>
+          <t>2016 - (feb 2017 - jan 2020)</t>
         </is>
       </c>
       <c r="J183" s="2">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="K183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L183">
         <v>2020</v>
@@ -24020,10 +25090,10 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.9639489866405199</v>
+        <v>0.9746347696807275</v>
       </c>
       <c r="B184">
-        <v>-3.605101335948013</v>
+        <v>-2.536523031927251</v>
       </c>
       <c r="C184">
         <v>15</v>
@@ -24032,27 +25102,27 @@
         <v>12.74436540910119</v>
       </c>
       <c r="E184">
-        <v>5.921825741594147</v>
+        <v>5.815659777635309</v>
       </c>
       <c r="F184">
-        <v>1.65880950767551</v>
+        <v>1.629070518706367</v>
       </c>
       <c r="G184">
-        <v>-7.2</v>
+        <v>-6</v>
       </c>
       <c r="H184">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2016 - (mai 2017 - apr 2020)</t>
+          <t>2016 - (mar 2017 - feb 2020)</t>
         </is>
       </c>
       <c r="J184" s="2">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="K184">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L184">
         <v>2020</v>
@@ -24065,10 +25135,10 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.9609281116120592</v>
+        <v>0.9683689718705626</v>
       </c>
       <c r="B185">
-        <v>-3.907188838794085</v>
+        <v>-3.163102812943741</v>
       </c>
       <c r="C185">
         <v>15</v>
@@ -24077,27 +25147,27 @@
         <v>12.74436540910119</v>
       </c>
       <c r="E185">
-        <v>5.847495658278277</v>
+        <v>5.85766996660876</v>
       </c>
       <c r="F185">
-        <v>1.637988319364507</v>
+        <v>1.640838325448624</v>
       </c>
       <c r="G185">
-        <v>-7.4</v>
+        <v>-6.7</v>
       </c>
       <c r="H185">
-        <v>-0.4</v>
+        <v>0.4</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>2016 - (jun 2017 - mai 2020)</t>
+          <t>2016 - (apr 2017 - mar 2020)</t>
         </is>
       </c>
       <c r="J185" s="2">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="K185">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L185">
         <v>2020</v>
@@ -24110,10 +25180,10 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.9607851930745109</v>
+        <v>0.9639489866405199</v>
       </c>
       <c r="B186">
-        <v>-3.921480692548907</v>
+        <v>-3.605101335948013</v>
       </c>
       <c r="C186">
         <v>15</v>
@@ -24122,27 +25192,27 @@
         <v>12.74436540910119</v>
       </c>
       <c r="E186">
-        <v>5.761552423139178</v>
+        <v>5.921825741594147</v>
       </c>
       <c r="F186">
-        <v>1.613914079123396</v>
+        <v>1.65880950767551</v>
       </c>
       <c r="G186">
-        <v>-7.4</v>
+        <v>-7.2</v>
       </c>
       <c r="H186">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>2016 - (jul 2017 - jun 2020)</t>
+          <t>2016 - (mai 2017 - apr 2020)</t>
         </is>
       </c>
       <c r="J186" s="2">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="K186">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L186">
         <v>2020</v>
@@ -24155,10 +25225,10 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>0.9619372279373845</v>
+        <v>0.9609281116120592</v>
       </c>
       <c r="B187">
-        <v>-3.806277206261555</v>
+        <v>-3.907188838794085</v>
       </c>
       <c r="C187">
         <v>15</v>
@@ -24167,27 +25237,27 @@
         <v>12.74436540910119</v>
       </c>
       <c r="E187">
-        <v>5.648594545746626</v>
+        <v>5.847495658278277</v>
       </c>
       <c r="F187">
-        <v>1.582272553492288</v>
+        <v>1.637988319364507</v>
       </c>
       <c r="G187">
-        <v>-7.2</v>
+        <v>-7.4</v>
       </c>
       <c r="H187">
         <v>-0.4</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2016 - (aug 2017 - jul 2020)</t>
+          <t>2016 - (jun 2017 - mai 2020)</t>
         </is>
       </c>
       <c r="J187" s="2">
-        <v>44013</v>
+        <v>43952</v>
       </c>
       <c r="K187">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L187">
         <v>2020</v>
@@ -24200,39 +25270,39 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>0.9637990480672979</v>
+        <v>0.9607851930745109</v>
       </c>
       <c r="B188">
-        <v>-3.620095193270212</v>
+        <v>-3.921480692548907</v>
       </c>
       <c r="C188">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D188">
-        <v>11.76145776665505</v>
+        <v>12.74436540910119</v>
       </c>
       <c r="E188">
-        <v>5.835830991072816</v>
+        <v>5.761552423139178</v>
       </c>
       <c r="F188">
-        <v>1.701657410141837</v>
+        <v>1.613914079123396</v>
       </c>
       <c r="G188">
-        <v>-7.3</v>
+        <v>-7.4</v>
       </c>
       <c r="H188">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2016 - (sep 2017 - aug 2020)</t>
+          <t>2016 - (jul 2017 - jun 2020)</t>
         </is>
       </c>
       <c r="J188" s="2">
-        <v>44044</v>
+        <v>43983</v>
       </c>
       <c r="K188">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L188">
         <v>2020</v>
@@ -24245,39 +25315,39 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>0.9642976801675073</v>
+        <v>0.9619372279373845</v>
       </c>
       <c r="B189">
-        <v>-3.570231983249272</v>
+        <v>-3.806277206261555</v>
       </c>
       <c r="C189">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D189">
-        <v>11.76145776665505</v>
+        <v>12.74436540910119</v>
       </c>
       <c r="E189">
-        <v>5.887176819660942</v>
+        <v>5.648594545746626</v>
       </c>
       <c r="F189">
-        <v>1.716629229893045</v>
+        <v>1.582272553492288</v>
       </c>
       <c r="G189">
-        <v>-7.3</v>
+        <v>-7.2</v>
       </c>
       <c r="H189">
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>2016 - (okt 2017 - sep 2020)</t>
+          <t>2016 - (aug 2017 - jul 2020)</t>
         </is>
       </c>
       <c r="J189" s="2">
-        <v>44075</v>
+        <v>44013</v>
       </c>
       <c r="K189">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L189">
         <v>2020</v>
@@ -24290,10 +25360,10 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>0.9640034261126973</v>
+        <v>0.9637990480672979</v>
       </c>
       <c r="B190">
-        <v>-3.599657388730271</v>
+        <v>-3.620095193270212</v>
       </c>
       <c r="C190">
         <v>14</v>
@@ -24302,27 +25372,27 @@
         <v>11.76145776665505</v>
       </c>
       <c r="E190">
-        <v>6.019231124538624</v>
+        <v>5.835830991072816</v>
       </c>
       <c r="F190">
-        <v>1.755134660701439</v>
+        <v>1.701657410141837</v>
       </c>
       <c r="G190">
-        <v>-7.4</v>
+        <v>-7.3</v>
       </c>
       <c r="H190">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>2016 - (nov 2017 - okt 2020)</t>
+          <t>2016 - (sep 2017 - aug 2020)</t>
         </is>
       </c>
       <c r="J190" s="2">
-        <v>44105</v>
+        <v>44044</v>
       </c>
       <c r="K190">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L190">
         <v>2020</v>
@@ -24335,10 +25405,10 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.9619564101223631</v>
+        <v>0.9642976801675073</v>
       </c>
       <c r="B191">
-        <v>-3.80435898776369</v>
+        <v>-3.570231983249272</v>
       </c>
       <c r="C191">
         <v>14</v>
@@ -24347,27 +25417,27 @@
         <v>11.76145776665505</v>
       </c>
       <c r="E191">
-        <v>6.097919537684239</v>
+        <v>5.887176819660942</v>
       </c>
       <c r="F191">
-        <v>1.778079245890141</v>
+        <v>1.716629229893045</v>
       </c>
       <c r="G191">
-        <v>-7.6</v>
+        <v>-7.3</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2016 - (des 2017 - nov 2020)</t>
+          <t>2016 - (okt 2017 - sep 2020)</t>
         </is>
       </c>
       <c r="J191" s="2">
-        <v>44136</v>
+        <v>44075</v>
       </c>
       <c r="K191">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L191">
         <v>2020</v>
@@ -24380,10 +25450,10 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.960080877557984</v>
+        <v>0.9640034261126973</v>
       </c>
       <c r="B192">
-        <v>-3.991912244201601</v>
+        <v>-3.599657388730271</v>
       </c>
       <c r="C192">
         <v>14</v>
@@ -24392,27 +25462,27 @@
         <v>11.76145776665505</v>
       </c>
       <c r="E192">
-        <v>6.180018304689217</v>
+        <v>6.019231124538624</v>
       </c>
       <c r="F192">
-        <v>1.802018248827553</v>
+        <v>1.755134660701439</v>
       </c>
       <c r="G192">
-        <v>-7.9</v>
+        <v>-7.4</v>
       </c>
       <c r="H192">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2016 - (jan 2018 - des 2020)</t>
+          <t>2016 - (nov 2017 - okt 2020)</t>
         </is>
       </c>
       <c r="J192" s="2">
-        <v>44166</v>
+        <v>44105</v>
       </c>
       <c r="K192">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L192">
         <v>2020</v>
@@ -24425,42 +25495,42 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>0.9644095397479687</v>
+        <v>0.9619564101223631</v>
       </c>
       <c r="B193">
-        <v>-3.559046025203128</v>
+        <v>-3.80435898776369</v>
       </c>
       <c r="C193">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D193">
-        <v>12.7603248224164</v>
+        <v>11.76145776665505</v>
       </c>
       <c r="E193">
-        <v>6.59151620531087</v>
+        <v>6.097919537684239</v>
       </c>
       <c r="F193">
-        <v>1.845246793168298</v>
+        <v>1.778079245890141</v>
       </c>
       <c r="G193">
-        <v>-7.5</v>
+        <v>-7.6</v>
       </c>
       <c r="H193">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2016 - (feb 2018 - jan 2021)</t>
+          <t>2016 - (des 2017 - nov 2020)</t>
         </is>
       </c>
       <c r="J193" s="2">
-        <v>44197</v>
+        <v>44136</v>
       </c>
       <c r="K193">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L193">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
@@ -24470,42 +25540,42 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>0.9637479602639543</v>
+        <v>0.960080877557984</v>
       </c>
       <c r="B194">
-        <v>-3.625203973604574</v>
+        <v>-3.991912244201601</v>
       </c>
       <c r="C194">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D194">
-        <v>12.7603248224164</v>
+        <v>11.76145776665505</v>
       </c>
       <c r="E194">
-        <v>6.605689342534895</v>
+        <v>6.180018304689217</v>
       </c>
       <c r="F194">
-        <v>1.849214459361805</v>
+        <v>1.802018248827553</v>
       </c>
       <c r="G194">
-        <v>-7.6</v>
+        <v>-7.9</v>
       </c>
       <c r="H194">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>2016 - (mar 2018 - feb 2021)</t>
+          <t>2016 - (jan 2018 - des 2020)</t>
         </is>
       </c>
       <c r="J194" s="2">
-        <v>44228</v>
+        <v>44166</v>
       </c>
       <c r="K194">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L194">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
@@ -24515,10 +25585,10 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.963132894842846</v>
+        <v>0.9644095397479687</v>
       </c>
       <c r="B195">
-        <v>-3.686710515715397</v>
+        <v>-3.559046025203128</v>
       </c>
       <c r="C195">
         <v>15</v>
@@ -24527,27 +25597,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E195">
-        <v>6.719310614776861</v>
+        <v>6.59151620531087</v>
       </c>
       <c r="F195">
-        <v>1.881021904221193</v>
+        <v>1.845246793168298</v>
       </c>
       <c r="G195">
-        <v>-7.7</v>
+        <v>-7.5</v>
       </c>
       <c r="H195">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>2016 - (apr 2018 - mar 2021)</t>
+          <t>2016 - (feb 2018 - jan 2021)</t>
         </is>
       </c>
       <c r="J195" s="2">
-        <v>44256</v>
+        <v>44197</v>
       </c>
       <c r="K195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L195">
         <v>2021</v>
@@ -24560,10 +25630,10 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.9609431622707086</v>
+        <v>0.9637479602639543</v>
       </c>
       <c r="B196">
-        <v>-3.905683772929136</v>
+        <v>-3.625203973604574</v>
       </c>
       <c r="C196">
         <v>15</v>
@@ -24572,27 +25642,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E196">
-        <v>6.848777039761551</v>
+        <v>6.605689342534895</v>
       </c>
       <c r="F196">
-        <v>1.917265083800041</v>
+        <v>1.849214459361805</v>
       </c>
       <c r="G196">
-        <v>-8</v>
+        <v>-7.6</v>
       </c>
       <c r="H196">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>2016 - (mai 2018 - apr 2021)</t>
+          <t>2016 - (mar 2018 - feb 2021)</t>
         </is>
       </c>
       <c r="J196" s="2">
-        <v>44287</v>
+        <v>44228</v>
       </c>
       <c r="K196">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L196">
         <v>2021</v>
@@ -24605,10 +25675,10 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>0.9580361994607227</v>
+        <v>0.963132894842846</v>
       </c>
       <c r="B197">
-        <v>-4.196380053927729</v>
+        <v>-3.686710515715397</v>
       </c>
       <c r="C197">
         <v>15</v>
@@ -24617,27 +25687,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E197">
-        <v>6.981501024103025</v>
+        <v>6.719310614776861</v>
       </c>
       <c r="F197">
-        <v>1.954420193315708</v>
+        <v>1.881021904221193</v>
       </c>
       <c r="G197">
-        <v>-8.4</v>
+        <v>-7.7</v>
       </c>
       <c r="H197">
-        <v>-0</v>
+        <v>0.3</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2016 - (jun 2018 - mai 2021)</t>
+          <t>2016 - (apr 2018 - mar 2021)</t>
         </is>
       </c>
       <c r="J197" s="2">
-        <v>44317</v>
+        <v>44256</v>
       </c>
       <c r="K197">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L197">
         <v>2021</v>
@@ -24650,10 +25720,10 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>0.9591998816416445</v>
+        <v>0.9609431622707086</v>
       </c>
       <c r="B198">
-        <v>-4.080011835835551</v>
+        <v>-3.905683772929136</v>
       </c>
       <c r="C198">
         <v>15</v>
@@ -24662,27 +25732,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E198">
-        <v>7.137582473502269</v>
+        <v>6.848777039761551</v>
       </c>
       <c r="F198">
-        <v>1.998114054486066</v>
+        <v>1.917265083800041</v>
       </c>
       <c r="G198">
-        <v>-8.4</v>
+        <v>-8</v>
       </c>
       <c r="H198">
         <v>0.2</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>2016 - (jul 2018 - jun 2021)</t>
+          <t>2016 - (mai 2018 - apr 2021)</t>
         </is>
       </c>
       <c r="J198" s="2">
-        <v>44348</v>
+        <v>44287</v>
       </c>
       <c r="K198">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L198">
         <v>2021</v>
@@ -24695,10 +25765,10 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>0.961877430448511</v>
+        <v>0.9580361994607227</v>
       </c>
       <c r="B199">
-        <v>-3.812256955148896</v>
+        <v>-4.196380053927729</v>
       </c>
       <c r="C199">
         <v>15</v>
@@ -24707,27 +25777,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E199">
-        <v>7.367659351557208</v>
+        <v>6.981501024103025</v>
       </c>
       <c r="F199">
-        <v>2.062522395175722</v>
+        <v>1.954420193315708</v>
       </c>
       <c r="G199">
-        <v>-8.199999999999999</v>
+        <v>-8.4</v>
       </c>
       <c r="H199">
-        <v>0.6</v>
+        <v>-0</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>2016 - (aug 2018 - jul 2021)</t>
+          <t>2016 - (jun 2018 - mai 2021)</t>
         </is>
       </c>
       <c r="J199" s="2">
-        <v>44378</v>
+        <v>44317</v>
       </c>
       <c r="K199">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L199">
         <v>2021</v>
@@ -24740,10 +25810,10 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>0.963005396473987</v>
+        <v>0.9591998816416445</v>
       </c>
       <c r="B200">
-        <v>-3.699460352601303</v>
+        <v>-4.080011835835551</v>
       </c>
       <c r="C200">
         <v>15</v>
@@ -24752,27 +25822,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E200">
-        <v>7.684083633770681</v>
+        <v>7.137582473502269</v>
       </c>
       <c r="F200">
-        <v>2.151103060662753</v>
+        <v>1.998114054486066</v>
       </c>
       <c r="G200">
-        <v>-8.300000000000001</v>
+        <v>-8.4</v>
       </c>
       <c r="H200">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2016 - (sep 2018 - aug 2021)</t>
+          <t>2016 - (jul 2018 - jun 2021)</t>
         </is>
       </c>
       <c r="J200" s="2">
-        <v>44409</v>
+        <v>44348</v>
       </c>
       <c r="K200">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L200">
         <v>2021</v>
@@ -24785,10 +25855,10 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.9653684769912766</v>
+        <v>0.961877430448511</v>
       </c>
       <c r="B201">
-        <v>-3.463152300872341</v>
+        <v>-3.812256955148896</v>
       </c>
       <c r="C201">
         <v>15</v>
@@ -24797,27 +25867,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E201">
-        <v>8.066158251358784</v>
+        <v>7.367659351557208</v>
       </c>
       <c r="F201">
-        <v>2.25806205778809</v>
+        <v>2.062522395175722</v>
       </c>
       <c r="G201">
-        <v>-8.300000000000001</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="H201">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>2016 - (okt 2018 - sep 2021)</t>
+          <t>2016 - (aug 2018 - jul 2021)</t>
         </is>
       </c>
       <c r="J201" s="2">
-        <v>44440</v>
+        <v>44378</v>
       </c>
       <c r="K201">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L201">
         <v>2021</v>
@@ -24830,10 +25900,10 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.965905382174537</v>
+        <v>0.963005396473987</v>
       </c>
       <c r="B202">
-        <v>-3.409461782546297</v>
+        <v>-3.699460352601303</v>
       </c>
       <c r="C202">
         <v>15</v>
@@ -24842,27 +25912,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E202">
-        <v>8.388043904661535</v>
+        <v>7.684083633770681</v>
       </c>
       <c r="F202">
-        <v>2.348171594201764</v>
+        <v>2.151103060662753</v>
       </c>
       <c r="G202">
-        <v>-8.4</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="H202">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>2016 - (nov 2018 - okt 2021)</t>
+          <t>2016 - (sep 2018 - aug 2021)</t>
         </is>
       </c>
       <c r="J202" s="2">
-        <v>44470</v>
+        <v>44409</v>
       </c>
       <c r="K202">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L202">
         <v>2021</v>
@@ -24875,10 +25945,10 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>0.9666634783390821</v>
+        <v>0.9653684769912766</v>
       </c>
       <c r="B203">
-        <v>-3.333652166091794</v>
+        <v>-3.463152300872341</v>
       </c>
       <c r="C203">
         <v>15</v>
@@ -24887,27 +25957,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E203">
-        <v>8.618385472180252</v>
+        <v>8.066158251358784</v>
       </c>
       <c r="F203">
-        <v>2.412654032772546</v>
+        <v>2.25806205778809</v>
       </c>
       <c r="G203">
-        <v>-8.5</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="H203">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>2016 - (des 2018 - nov 2021)</t>
+          <t>2016 - (okt 2018 - sep 2021)</t>
         </is>
       </c>
       <c r="J203" s="2">
-        <v>44501</v>
+        <v>44440</v>
       </c>
       <c r="K203">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L203">
         <v>2021</v>
@@ -24920,10 +25990,10 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>0.9663315672759155</v>
+        <v>0.965905382174537</v>
       </c>
       <c r="B204">
-        <v>-3.366843272408448</v>
+        <v>-3.409461782546297</v>
       </c>
       <c r="C204">
         <v>15</v>
@@ -24932,27 +26002,27 @@
         <v>12.7603248224164</v>
       </c>
       <c r="E204">
-        <v>8.733938168991978</v>
+        <v>8.388043904661535</v>
       </c>
       <c r="F204">
-        <v>2.445002165826059</v>
+        <v>2.348171594201764</v>
       </c>
       <c r="G204">
-        <v>-8.6</v>
+        <v>-8.4</v>
       </c>
       <c r="H204">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>2016 - (jan 2019 - des 2021)</t>
+          <t>2016 - (nov 2018 - okt 2021)</t>
         </is>
       </c>
       <c r="J204" s="2">
-        <v>44531</v>
+        <v>44470</v>
       </c>
       <c r="K204">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L204">
         <v>2021</v>
@@ -24965,42 +26035,42 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.9595344770438154</v>
+        <v>0.9666634783390821</v>
       </c>
       <c r="B205">
-        <v>-4.046552295618455</v>
+        <v>-3.333652166091794</v>
       </c>
       <c r="C205">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D205">
-        <v>11.77088794161442</v>
+        <v>12.7603248224164</v>
       </c>
       <c r="E205">
-        <v>9.092201956222636</v>
+        <v>8.618385472180252</v>
       </c>
       <c r="F205">
-        <v>2.650113418469985</v>
+        <v>2.412654032772546</v>
       </c>
       <c r="G205">
-        <v>-9.800000000000001</v>
+        <v>-8.5</v>
       </c>
       <c r="H205">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>2016 - (feb 2019 - jan 2022)</t>
+          <t>2016 - (des 2018 - nov 2021)</t>
         </is>
       </c>
       <c r="J205" s="2">
-        <v>44562</v>
+        <v>44501</v>
       </c>
       <c r="K205">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L205">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
@@ -25010,42 +26080,42 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.9591469672235925</v>
+        <v>0.9663315672759155</v>
       </c>
       <c r="B206">
-        <v>-4.085303277640751</v>
+        <v>-3.366843272408448</v>
       </c>
       <c r="C206">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D206">
-        <v>11.77088794161442</v>
+        <v>12.7603248224164</v>
       </c>
       <c r="E206">
-        <v>9.212608393620416</v>
+        <v>8.733938168991978</v>
       </c>
       <c r="F206">
-        <v>2.685208406125823</v>
+        <v>2.445002165826059</v>
       </c>
       <c r="G206">
-        <v>-9.9</v>
+        <v>-8.6</v>
       </c>
       <c r="H206">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>2016 - (mar 2019 - feb 2022)</t>
+          <t>2016 - (jan 2019 - des 2021)</t>
         </is>
       </c>
       <c r="J206" s="2">
-        <v>44593</v>
+        <v>44531</v>
       </c>
       <c r="K206">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L206">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
@@ -25055,39 +26125,39 @@
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.9657423026909662</v>
+        <v>0.9595344770438154</v>
       </c>
       <c r="B207">
-        <v>-3.425769730903383</v>
+        <v>-4.046552295618455</v>
       </c>
       <c r="C207">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D207">
-        <v>12.71351431826491</v>
+        <v>11.77088794161442</v>
       </c>
       <c r="E207">
-        <v>9.346809191536549</v>
+        <v>9.092201956222636</v>
       </c>
       <c r="F207">
-        <v>2.621383543681084</v>
+        <v>2.650113418469985</v>
       </c>
       <c r="G207">
-        <v>-9</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="H207">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>2016 - (apr 2019 - mar 2022)</t>
+          <t>2016 - (feb 2019 - jan 2022)</t>
         </is>
       </c>
       <c r="J207" s="2">
-        <v>44621</v>
+        <v>44562</v>
       </c>
       <c r="K207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L207">
         <v>2022</v>
@@ -25100,39 +26170,39 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.9657950819813155</v>
+        <v>0.9591469672235925</v>
       </c>
       <c r="B208">
-        <v>-3.420491801868453</v>
+        <v>-4.085303277640751</v>
       </c>
       <c r="C208">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D208">
-        <v>12.71351431826491</v>
+        <v>11.77088794161442</v>
       </c>
       <c r="E208">
-        <v>9.530489775273447</v>
+        <v>9.212608393620416</v>
       </c>
       <c r="F208">
-        <v>2.672898156811052</v>
+        <v>2.685208406125823</v>
       </c>
       <c r="G208">
-        <v>-9.199999999999999</v>
+        <v>-9.9</v>
       </c>
       <c r="H208">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>2016 - (mai 2019 - apr 2022)</t>
+          <t>2016 - (mar 2019 - feb 2022)</t>
         </is>
       </c>
       <c r="J208" s="2">
-        <v>44652</v>
+        <v>44593</v>
       </c>
       <c r="K208">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L208">
         <v>2022</v>
@@ -25145,39 +26215,39 @@
     </row>
     <row r="209">
       <c r="A209">
-        <v>0.9653597240489706</v>
+        <v>0.9657423026909662</v>
       </c>
       <c r="B209">
-        <v>-3.464027595102936</v>
+        <v>-3.425769730903383</v>
       </c>
       <c r="C209">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D209">
-        <v>13.11045531680985</v>
+        <v>12.71351431826491</v>
       </c>
       <c r="E209">
-        <v>9.651975063869749</v>
+        <v>9.346809191536549</v>
       </c>
       <c r="F209">
-        <v>2.665675643910762</v>
+        <v>2.621383543681084</v>
       </c>
       <c r="G209">
-        <v>-9.1</v>
+        <v>-9</v>
       </c>
       <c r="H209">
         <v>2.2</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>2016 - (jun 2019 - mai 2022)</t>
+          <t>2016 - (apr 2019 - mar 2022)</t>
         </is>
       </c>
       <c r="J209" s="2">
-        <v>44682</v>
+        <v>44621</v>
       </c>
       <c r="K209">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L209">
         <v>2022</v>
@@ -25190,39 +26260,39 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>0.9664752391556581</v>
+        <v>0.9657950819813155</v>
       </c>
       <c r="B210">
-        <v>-3.352476084434186</v>
+        <v>-3.420491801868453</v>
       </c>
       <c r="C210">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D210">
-        <v>13.11045531680985</v>
+        <v>12.71351431826491</v>
       </c>
       <c r="E210">
-        <v>10.01425450043057</v>
+        <v>9.530489775273447</v>
       </c>
       <c r="F210">
-        <v>2.765729722370296</v>
+        <v>2.672898156811052</v>
       </c>
       <c r="G210">
         <v>-9.199999999999999</v>
       </c>
       <c r="H210">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>2016 - (jul 2019 - jun 2022)</t>
+          <t>2016 - (mai 2019 - apr 2022)</t>
         </is>
       </c>
       <c r="J210" s="2">
-        <v>44713</v>
+        <v>44652</v>
       </c>
       <c r="K210">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L210">
         <v>2022</v>
@@ -25235,10 +26305,10 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.9661439658049046</v>
+        <v>0.9653597240489706</v>
       </c>
       <c r="B211">
-        <v>-3.385603419509542</v>
+        <v>-3.464027595102936</v>
       </c>
       <c r="C211">
         <v>16</v>
@@ -25247,27 +26317,27 @@
         <v>13.11045531680985</v>
       </c>
       <c r="E211">
-        <v>10.15424079739942</v>
+        <v>9.651975063869749</v>
       </c>
       <c r="F211">
-        <v>2.804391038820228</v>
+        <v>2.665675643910762</v>
       </c>
       <c r="G211">
-        <v>-9.4</v>
+        <v>-9.1</v>
       </c>
       <c r="H211">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>2016 - (aug 2019 - jul 2022)</t>
+          <t>2016 - (jun 2019 - mai 2022)</t>
         </is>
       </c>
       <c r="J211" s="2">
-        <v>44743</v>
+        <v>44682</v>
       </c>
       <c r="K211">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L211">
         <v>2022</v>
@@ -25280,10 +26350,10 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.9667155845989283</v>
+        <v>0.9664752391556581</v>
       </c>
       <c r="B212">
-        <v>-3.328441540107174</v>
+        <v>-3.352476084434186</v>
       </c>
       <c r="C212">
         <v>16</v>
@@ -25292,27 +26362,27 @@
         <v>13.11045531680985</v>
       </c>
       <c r="E212">
-        <v>10.28850338359482</v>
+        <v>10.01425450043057</v>
       </c>
       <c r="F212">
-        <v>2.841471584878546</v>
+        <v>2.765729722370296</v>
       </c>
       <c r="G212">
-        <v>-9.4</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="H212">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>2016 - (sep 2019 - aug 2022)</t>
+          <t>2016 - (jul 2019 - jun 2022)</t>
         </is>
       </c>
       <c r="J212" s="2">
-        <v>44774</v>
+        <v>44713</v>
       </c>
       <c r="K212">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L212">
         <v>2022</v>
@@ -25325,39 +26395,39 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>0.980576443033453</v>
+        <v>0.9661439658049046</v>
       </c>
       <c r="B213">
-        <v>-1.942355696654696</v>
+        <v>-3.385603419509542</v>
       </c>
       <c r="C213">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D213">
-        <v>13.88999092310759</v>
+        <v>13.11045531680985</v>
       </c>
       <c r="E213">
-        <v>12.02770260294899</v>
+        <v>10.15424079739942</v>
       </c>
       <c r="F213">
-        <v>3.22724324337159</v>
+        <v>2.804391038820228</v>
       </c>
       <c r="G213">
-        <v>-8.800000000000001</v>
+        <v>-9.4</v>
       </c>
       <c r="H213">
-        <v>4.9</v>
+        <v>2.6</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>2016 - (okt 2019 - sep 2022)</t>
+          <t>2016 - (aug 2019 - jul 2022)</t>
         </is>
       </c>
       <c r="J213" s="2">
-        <v>44805</v>
+        <v>44743</v>
       </c>
       <c r="K213">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L213">
         <v>2022</v>
@@ -25370,39 +26440,39 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>0.9799002317787093</v>
+        <v>0.9667155845989283</v>
       </c>
       <c r="B214">
-        <v>-2.009976822129067</v>
+        <v>-3.328441540107174</v>
       </c>
       <c r="C214">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D214">
-        <v>13.88999092310759</v>
+        <v>13.11045531680985</v>
       </c>
       <c r="E214">
-        <v>12.01886176655834</v>
+        <v>10.28850338359482</v>
       </c>
       <c r="F214">
-        <v>3.224871092142935</v>
+        <v>2.841471584878546</v>
       </c>
       <c r="G214">
-        <v>-8.800000000000001</v>
+        <v>-9.4</v>
       </c>
       <c r="H214">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>2016 - (nov 2019 - okt 2022)</t>
+          <t>2016 - (sep 2019 - aug 2022)</t>
         </is>
       </c>
       <c r="J214" s="2">
-        <v>44835</v>
+        <v>44774</v>
       </c>
       <c r="K214">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L214">
         <v>2022</v>
@@ -25415,10 +26485,10 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.9802432859732928</v>
+        <v>0.980576443033453</v>
       </c>
       <c r="B215">
-        <v>-1.97567140267072</v>
+        <v>-1.942355696654696</v>
       </c>
       <c r="C215">
         <v>17</v>
@@ -25427,10 +26497,10 @@
         <v>13.88999092310759</v>
       </c>
       <c r="E215">
-        <v>12.03087238464876</v>
+        <v>12.02770260294899</v>
       </c>
       <c r="F215">
-        <v>3.228093751312405</v>
+        <v>3.22724324337159</v>
       </c>
       <c r="G215">
         <v>-8.800000000000001</v>
@@ -25440,14 +26510,14 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>2016 - (des 2019 - nov 2022)</t>
+          <t>2016 - (okt 2019 - sep 2022)</t>
         </is>
       </c>
       <c r="J215" s="2">
-        <v>44866</v>
+        <v>44805</v>
       </c>
       <c r="K215">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L215">
         <v>2022</v>
@@ -25460,10 +26530,10 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.9807595436886044</v>
+        <v>0.9799002317787093</v>
       </c>
       <c r="B216">
-        <v>-1.924045631139559</v>
+        <v>-2.009976822129067</v>
       </c>
       <c r="C216">
         <v>17</v>
@@ -25472,27 +26542,27 @@
         <v>13.88999092310759</v>
       </c>
       <c r="E216">
-        <v>12.0880040324787</v>
+        <v>12.01886176655834</v>
       </c>
       <c r="F216">
-        <v>3.243423172942488</v>
+        <v>3.224871092142935</v>
       </c>
       <c r="G216">
         <v>-8.800000000000001</v>
       </c>
       <c r="H216">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>2016 - (jan 2020 - des 2022)</t>
+          <t>2016 - (nov 2019 - okt 2022)</t>
         </is>
       </c>
       <c r="J216" s="2">
-        <v>44896</v>
+        <v>44835</v>
       </c>
       <c r="K216">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L216">
         <v>2022</v>
@@ -25505,42 +26575,42 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>0.9857626681667772</v>
+        <v>0.9802432859732928</v>
       </c>
       <c r="B217">
-        <v>-1.423733183322284</v>
+        <v>-1.97567140267072</v>
       </c>
       <c r="C217">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D217">
-        <v>14.88364264682306</v>
+        <v>13.88999092310759</v>
       </c>
       <c r="E217">
-        <v>11.97833409290357</v>
+        <v>12.03087238464876</v>
       </c>
       <c r="F217">
-        <v>3.104858445621591</v>
+        <v>3.228093751312405</v>
       </c>
       <c r="G217">
-        <v>-8</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="H217">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>2016 - (feb 2020 - jan 2023)</t>
+          <t>2016 - (des 2019 - nov 2022)</t>
         </is>
       </c>
       <c r="J217" s="2">
-        <v>44927</v>
+        <v>44866</v>
       </c>
       <c r="K217">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L217">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M217" t="inlineStr">
         <is>
@@ -25550,42 +26620,42 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>0.9736424141350238</v>
+        <v>0.9807595436886044</v>
       </c>
       <c r="B218">
-        <v>-2.635758586497616</v>
+        <v>-1.924045631139559</v>
       </c>
       <c r="C218">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D218">
-        <v>15.8424766978712</v>
+        <v>13.88999092310759</v>
       </c>
       <c r="E218">
-        <v>12.29343151884637</v>
+        <v>12.0880040324787</v>
       </c>
       <c r="F218">
-        <v>3.08859943601025</v>
+        <v>3.243423172942488</v>
       </c>
       <c r="G218">
-        <v>-9.1</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="H218">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>2016 - (mar 2020 - feb 2023)</t>
+          <t>2016 - (jan 2020 - des 2022)</t>
         </is>
       </c>
       <c r="J218" s="2">
-        <v>44958</v>
+        <v>44896</v>
       </c>
       <c r="K218">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L218">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
@@ -25595,39 +26665,39 @@
     </row>
     <row r="219">
       <c r="A219">
-        <v>0.9798780575169367</v>
+        <v>0.9857626681667772</v>
       </c>
       <c r="B219">
-        <v>-2.012194248306332</v>
+        <v>-1.423733183322284</v>
       </c>
       <c r="C219">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D219">
-        <v>15.8424766978712</v>
+        <v>14.88364264682306</v>
       </c>
       <c r="E219">
-        <v>12.26817010345073</v>
+        <v>11.97833409290357</v>
       </c>
       <c r="F219">
-        <v>3.082252762729953</v>
+        <v>3.104858445621591</v>
       </c>
       <c r="G219">
-        <v>-8.5</v>
+        <v>-8</v>
       </c>
       <c r="H219">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>2016 - (apr 2020 - mar 2023)</t>
+          <t>2016 - (feb 2020 - jan 2023)</t>
         </is>
       </c>
       <c r="J219" s="2">
-        <v>44986</v>
+        <v>44927</v>
       </c>
       <c r="K219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L219">
         <v>2023</v>
@@ -25640,10 +26710,10 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>0.9847991420785268</v>
+        <v>0.9736424141350238</v>
       </c>
       <c r="B220">
-        <v>-1.520085792147319</v>
+        <v>-2.635758586497616</v>
       </c>
       <c r="C220">
         <v>19</v>
@@ -25652,27 +26722,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E220">
-        <v>12.22046297916076</v>
+        <v>12.29343151884637</v>
       </c>
       <c r="F220">
-        <v>3.070266833744236</v>
+        <v>3.08859943601025</v>
       </c>
       <c r="G220">
-        <v>-8</v>
+        <v>-9.1</v>
       </c>
       <c r="H220">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>2016 - (mai 2020 - apr 2023)</t>
+          <t>2016 - (mar 2020 - feb 2023)</t>
         </is>
       </c>
       <c r="J220" s="2">
-        <v>45017</v>
+        <v>44958</v>
       </c>
       <c r="K220">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L220">
         <v>2023</v>
@@ -25685,10 +26755,10 @@
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.9878958150912861</v>
+        <v>0.9798780575169367</v>
       </c>
       <c r="B221">
-        <v>-1.21041849087139</v>
+        <v>-2.012194248306332</v>
       </c>
       <c r="C221">
         <v>19</v>
@@ -25697,27 +26767,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E221">
-        <v>12.201805221747</v>
+        <v>12.26817010345073</v>
       </c>
       <c r="F221">
-        <v>3.065579262260473</v>
+        <v>3.082252762729953</v>
       </c>
       <c r="G221">
-        <v>-7.7</v>
+        <v>-8.5</v>
       </c>
       <c r="H221">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>2016 - (jun 2020 - mai 2023)</t>
+          <t>2016 - (apr 2020 - mar 2023)</t>
         </is>
       </c>
       <c r="J221" s="2">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="K221">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L221">
         <v>2023</v>
@@ -25730,10 +26800,10 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.9897572678484173</v>
+        <v>0.9847991420785268</v>
       </c>
       <c r="B222">
-        <v>-1.024273215158267</v>
+        <v>-1.520085792147319</v>
       </c>
       <c r="C222">
         <v>19</v>
@@ -25742,27 +26812,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E222">
-        <v>12.07485828133487</v>
+        <v>12.22046297916076</v>
       </c>
       <c r="F222">
-        <v>3.033685136689509</v>
+        <v>3.070266833744236</v>
       </c>
       <c r="G222">
-        <v>-7.4</v>
+        <v>-8</v>
       </c>
       <c r="H222">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>2016 - (jul 2020 - jun 2023)</t>
+          <t>2016 - (mai 2020 - apr 2023)</t>
         </is>
       </c>
       <c r="J222" s="2">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="K222">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L222">
         <v>2023</v>
@@ -25775,10 +26845,10 @@
     </row>
     <row r="223">
       <c r="A223">
-        <v>0.989101712912994</v>
+        <v>0.9878958150912861</v>
       </c>
       <c r="B223">
-        <v>-1.089828708700602</v>
+        <v>-1.21041849087139</v>
       </c>
       <c r="C223">
         <v>19</v>
@@ -25787,27 +26857,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E223">
-        <v>12.05869127229827</v>
+        <v>12.201805221747</v>
       </c>
       <c r="F223">
-        <v>3.029623340362268</v>
+        <v>3.065579262260473</v>
       </c>
       <c r="G223">
-        <v>-7.5</v>
+        <v>-7.7</v>
       </c>
       <c r="H223">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>2016 - (aug 2020 - jul 2023)</t>
+          <t>2016 - (jun 2020 - mai 2023)</t>
         </is>
       </c>
       <c r="J223" s="2">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="K223">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L223">
         <v>2023</v>
@@ -25820,10 +26890,10 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>0.9900951185394136</v>
+        <v>0.9897572678484173</v>
       </c>
       <c r="B224">
-        <v>-0.9904881460586434</v>
+        <v>-1.024273215158267</v>
       </c>
       <c r="C224">
         <v>19</v>
@@ -25832,27 +26902,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E224">
-        <v>11.98073122982094</v>
+        <v>12.07485828133487</v>
       </c>
       <c r="F224">
-        <v>3.010036673868242</v>
+        <v>3.033685136689509</v>
       </c>
       <c r="G224">
-        <v>-7.3</v>
+        <v>-7.4</v>
       </c>
       <c r="H224">
         <v>5.3</v>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>2016 - (sep 2020 - aug 2023)</t>
+          <t>2016 - (jul 2020 - jun 2023)</t>
         </is>
       </c>
       <c r="J224" s="2">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="K224">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L224">
         <v>2023</v>
@@ -25865,10 +26935,10 @@
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.9901870947676858</v>
+        <v>0.989101712912994</v>
       </c>
       <c r="B225">
-        <v>-0.9812905232314151</v>
+        <v>-1.089828708700602</v>
       </c>
       <c r="C225">
         <v>19</v>
@@ -25877,27 +26947,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E225">
-        <v>11.93111451199188</v>
+        <v>12.05869127229827</v>
       </c>
       <c r="F225">
-        <v>2.997570978958843</v>
+        <v>3.029623340362268</v>
       </c>
       <c r="G225">
-        <v>-7.3</v>
+        <v>-7.5</v>
       </c>
       <c r="H225">
         <v>5.3</v>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>2016 - (okt 2020 - sep 2023)</t>
+          <t>2016 - (aug 2020 - jul 2023)</t>
         </is>
       </c>
       <c r="J225" s="2">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="K225">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L225">
         <v>2023</v>
@@ -25910,10 +26980,10 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.9903816867879272</v>
+        <v>0.9900951185394136</v>
       </c>
       <c r="B226">
-        <v>-0.9618313212072849</v>
+        <v>-0.9904881460586434</v>
       </c>
       <c r="C226">
         <v>19</v>
@@ -25922,27 +26992,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E226">
-        <v>11.86246364256088</v>
+        <v>11.98073122982094</v>
       </c>
       <c r="F226">
-        <v>2.980323147360224</v>
+        <v>3.010036673868242</v>
       </c>
       <c r="G226">
-        <v>-7.2</v>
+        <v>-7.3</v>
       </c>
       <c r="H226">
         <v>5.3</v>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>2016 - (nov 2020 - okt 2023)</t>
+          <t>2016 - (sep 2020 - aug 2023)</t>
         </is>
       </c>
       <c r="J226" s="2">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="K226">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L226">
         <v>2023</v>
@@ -25955,10 +27025,10 @@
     </row>
     <row r="227">
       <c r="A227">
-        <v>0.9930017493453545</v>
+        <v>0.9901870947676858</v>
       </c>
       <c r="B227">
-        <v>-0.6998250654645544</v>
+        <v>-0.9812905232314151</v>
       </c>
       <c r="C227">
         <v>19</v>
@@ -25967,27 +27037,27 @@
         <v>15.8424766978712</v>
       </c>
       <c r="E227">
-        <v>11.90758798670682</v>
+        <v>11.93111451199188</v>
       </c>
       <c r="F227">
-        <v>2.991660179145518</v>
+        <v>2.997570978958843</v>
       </c>
       <c r="G227">
-        <v>-7</v>
+        <v>-7.3</v>
       </c>
       <c r="H227">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>2016 - (des 2020 - nov 2023)</t>
+          <t>2016 - (okt 2020 - sep 2023)</t>
         </is>
       </c>
       <c r="J227" s="2">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="K227">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L227">
         <v>2023</v>
@@ -26000,39 +27070,39 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>0.9751983333199845</v>
+        <v>0.9903816867879272</v>
       </c>
       <c r="B228">
-        <v>-2.480166668001549</v>
+        <v>-0.9618313212072849</v>
       </c>
       <c r="C228">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D228">
-        <v>16.82824765497094</v>
+        <v>15.8424766978712</v>
       </c>
       <c r="E228">
-        <v>14.32684250541769</v>
+        <v>11.86246364256088</v>
       </c>
       <c r="F228">
-        <v>3.492456772270649</v>
+        <v>2.980323147360224</v>
       </c>
       <c r="G228">
-        <v>-9.800000000000001</v>
+        <v>-7.2</v>
       </c>
       <c r="H228">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>2016 - (jan 2021 - des 2023)</t>
+          <t>2016 - (nov 2020 - okt 2023)</t>
         </is>
       </c>
       <c r="J228" s="2">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="K228">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L228">
         <v>2023</v>
@@ -26045,42 +27115,42 @@
     </row>
     <row r="229">
       <c r="A229">
-        <v>0.9781136561461091</v>
+        <v>0.9930017493453545</v>
       </c>
       <c r="B229">
-        <v>-2.188634385389088</v>
+        <v>-0.6998250654645544</v>
       </c>
       <c r="C229">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D229">
-        <v>16.82824765497094</v>
+        <v>15.8424766978712</v>
       </c>
       <c r="E229">
-        <v>14.3347903045744</v>
+        <v>11.90758798670682</v>
       </c>
       <c r="F229">
-        <v>3.494394208588458</v>
+        <v>2.991660179145518</v>
       </c>
       <c r="G229">
-        <v>-9.5</v>
+        <v>-7</v>
       </c>
       <c r="H229">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>2016 - (feb 2021 - jan 2024)</t>
+          <t>2016 - (des 2020 - nov 2023)</t>
         </is>
       </c>
       <c r="J229" s="2">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="K229">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L229">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M229" t="inlineStr">
         <is>
@@ -26090,10 +27160,10 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>0.9798585919596392</v>
+        <v>0.9751983333199845</v>
       </c>
       <c r="B230">
-        <v>-2.01414080403608</v>
+        <v>-2.480166668001549</v>
       </c>
       <c r="C230">
         <v>20</v>
@@ -26102,30 +27172,30 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E230">
-        <v>14.34990049928532</v>
+        <v>14.32684250541769</v>
       </c>
       <c r="F230">
-        <v>3.498077623257707</v>
+        <v>3.492456772270649</v>
       </c>
       <c r="G230">
-        <v>-9.300000000000001</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="H230">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>2016 - (mar 2021 - feb 2024)</t>
+          <t>2016 - (jan 2021 - des 2023)</t>
         </is>
       </c>
       <c r="J230" s="2">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="K230">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L230">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M230" t="inlineStr">
         <is>
@@ -26135,10 +27205,10 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.9811398032878706</v>
+        <v>0.9781136561461091</v>
       </c>
       <c r="B231">
-        <v>-1.886019671212935</v>
+        <v>-2.188634385389088</v>
       </c>
       <c r="C231">
         <v>20</v>
@@ -26147,27 +27217,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E231">
-        <v>14.40580329507555</v>
+        <v>14.3347903045744</v>
       </c>
       <c r="F231">
-        <v>3.511705057053578</v>
+        <v>3.494394208588458</v>
       </c>
       <c r="G231">
-        <v>-9.199999999999999</v>
+        <v>-9.5</v>
       </c>
       <c r="H231">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>2016 - (apr 2021 - mar 2024)</t>
+          <t>2016 - (feb 2021 - jan 2024)</t>
         </is>
       </c>
       <c r="J231" s="2">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="K231">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L231">
         <v>2024</v>
@@ -26180,10 +27250,10 @@
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.9850324493427365</v>
+        <v>0.9798585919596392</v>
       </c>
       <c r="B232">
-        <v>-1.496755065726352</v>
+        <v>-2.01414080403608</v>
       </c>
       <c r="C232">
         <v>20</v>
@@ -26192,27 +27262,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E232">
-        <v>14.43271144960618</v>
+        <v>14.34990049928532</v>
       </c>
       <c r="F232">
-        <v>3.51826446234363</v>
+        <v>3.498077623257707</v>
       </c>
       <c r="G232">
-        <v>-8.9</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="H232">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>2016 - (mai 2021 - apr 2024)</t>
+          <t>2016 - (mar 2021 - feb 2024)</t>
         </is>
       </c>
       <c r="J232" s="2">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="K232">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L232">
         <v>2024</v>
@@ -26225,10 +27295,10 @@
     </row>
     <row r="233">
       <c r="A233">
-        <v>0.9899667511135772</v>
+        <v>0.9811398032878706</v>
       </c>
       <c r="B233">
-        <v>-1.003324888642276</v>
+        <v>-1.886019671212935</v>
       </c>
       <c r="C233">
         <v>20</v>
@@ -26237,27 +27307,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E233">
-        <v>14.31039343665413</v>
+        <v>14.40580329507555</v>
       </c>
       <c r="F233">
-        <v>3.488446980051665</v>
+        <v>3.511705057053578</v>
       </c>
       <c r="G233">
-        <v>-8.300000000000001</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="H233">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>2016 - (jun 2021 - mai 2024)</t>
+          <t>2016 - (apr 2021 - mar 2024)</t>
         </is>
       </c>
       <c r="J233" s="2">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="K233">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L233">
         <v>2024</v>
@@ -26270,10 +27340,10 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>0.9900356598292845</v>
+        <v>0.9850324493427365</v>
       </c>
       <c r="B234">
-        <v>-0.9964340170715458</v>
+        <v>-1.496755065726352</v>
       </c>
       <c r="C234">
         <v>20</v>
@@ -26282,27 +27352,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E234">
-        <v>14.17175139459991</v>
+        <v>14.43271144960618</v>
       </c>
       <c r="F234">
-        <v>3.454650186479697</v>
+        <v>3.51826446234363</v>
       </c>
       <c r="G234">
-        <v>-8.199999999999999</v>
+        <v>-8.9</v>
       </c>
       <c r="H234">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>2016 - (jul 2021 - jun 2024)</t>
+          <t>2016 - (mai 2021 - apr 2024)</t>
         </is>
       </c>
       <c r="J234" s="2">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="K234">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L234">
         <v>2024</v>
@@ -26315,10 +27385,10 @@
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.9894678095656797</v>
+        <v>0.9899667511135772</v>
       </c>
       <c r="B235">
-        <v>-1.05321904343203</v>
+        <v>-1.003324888642276</v>
       </c>
       <c r="C235">
         <v>20</v>
@@ -26327,27 +27397,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E235">
-        <v>14.03994019020322</v>
+        <v>14.31039343665413</v>
       </c>
       <c r="F235">
-        <v>3.422518547335742</v>
+        <v>3.488446980051665</v>
       </c>
       <c r="G235">
-        <v>-8.199999999999999</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="H235">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>2016 - (aug 2021 - jul 2024)</t>
+          <t>2016 - (jun 2021 - mai 2024)</t>
         </is>
       </c>
       <c r="J235" s="2">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="K235">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L235">
         <v>2024</v>
@@ -26360,10 +27430,10 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.9896373953078004</v>
+        <v>0.9900356598292845</v>
       </c>
       <c r="B236">
-        <v>-1.036260469219963</v>
+        <v>-0.9964340170715458</v>
       </c>
       <c r="C236">
         <v>20</v>
@@ -26372,27 +27442,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E236">
-        <v>13.89070563605795</v>
+        <v>14.17175139459991</v>
       </c>
       <c r="F236">
-        <v>3.386139615335592</v>
+        <v>3.454650186479697</v>
       </c>
       <c r="G236">
-        <v>-8.1</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="H236">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>2016 - (sep 2021 - aug 2024)</t>
+          <t>2016 - (jul 2021 - jun 2024)</t>
         </is>
       </c>
       <c r="J236" s="2">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="K236">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L236">
         <v>2024</v>
@@ -26405,10 +27475,10 @@
     </row>
     <row r="237">
       <c r="A237">
-        <v>0.989544809583905</v>
+        <v>0.9894678095656797</v>
       </c>
       <c r="B237">
-        <v>-1.045519041609499</v>
+        <v>-1.05321904343203</v>
       </c>
       <c r="C237">
         <v>20</v>
@@ -26417,27 +27487,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E237">
-        <v>13.75906843199314</v>
+        <v>14.03994019020322</v>
       </c>
       <c r="F237">
-        <v>3.35405039228138</v>
+        <v>3.422518547335742</v>
       </c>
       <c r="G237">
-        <v>-8.1</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="H237">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>2016 - (okt 2021 - sep 2024)</t>
+          <t>2016 - (aug 2021 - jul 2024)</t>
         </is>
       </c>
       <c r="J237" s="2">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="K237">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L237">
         <v>2024</v>
@@ -26450,10 +27520,10 @@
     </row>
     <row r="238">
       <c r="A238">
-        <v>0.9904883085152344</v>
+        <v>0.9896373953078004</v>
       </c>
       <c r="B238">
-        <v>-0.9511691484765605</v>
+        <v>-1.036260469219963</v>
       </c>
       <c r="C238">
         <v>20</v>
@@ -26462,27 +27532,27 @@
         <v>16.82824765497094</v>
       </c>
       <c r="E238">
-        <v>13.66859368160997</v>
+        <v>13.89070563605795</v>
       </c>
       <c r="F238">
-        <v>3.331995347383964</v>
+        <v>3.386139615335592</v>
       </c>
       <c r="G238">
-        <v>-7.9</v>
+        <v>-8.1</v>
       </c>
       <c r="H238">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>2016 - (nov 2021 - okt 2024)</t>
+          <t>2016 - (sep 2021 - aug 2024)</t>
         </is>
       </c>
       <c r="J238" s="2">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="K238">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L238">
         <v>2024</v>
@@ -26495,39 +27565,39 @@
     </row>
     <row r="239">
       <c r="A239">
-        <v>0.9910635323676144</v>
+        <v>0.989544809583905</v>
       </c>
       <c r="B239">
-        <v>-0.8936467632385647</v>
+        <v>-1.045519041609499</v>
       </c>
       <c r="C239">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D239">
-        <v>17.82818578652688</v>
+        <v>16.82824765497094</v>
       </c>
       <c r="E239">
-        <v>13.23457161834859</v>
+        <v>13.75906843199314</v>
       </c>
       <c r="F239">
-        <v>3.134413670943657</v>
+        <v>3.35405039228138</v>
       </c>
       <c r="G239">
-        <v>-7.4</v>
+        <v>-8.1</v>
       </c>
       <c r="H239">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>2016 - (des 2021 - nov 2024)</t>
+          <t>2016 - (okt 2021 - sep 2024)</t>
         </is>
       </c>
       <c r="J239" s="2">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="K239">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L239">
         <v>2024</v>
@@ -26540,39 +27610,39 @@
     </row>
     <row r="240">
       <c r="A240">
-        <v>0.9849813205874506</v>
+        <v>0.9904883085152344</v>
       </c>
       <c r="B240">
-        <v>-1.501867941254942</v>
+        <v>-0.9511691484765605</v>
       </c>
       <c r="C240">
         <v>20</v>
       </c>
       <c r="D240">
-        <v>16.83588108450572</v>
+        <v>16.82824765497094</v>
       </c>
       <c r="E240">
-        <v>13.1732117320752</v>
+        <v>13.66859368160997</v>
       </c>
       <c r="F240">
-        <v>3.210507933779732</v>
+        <v>3.331995347383964</v>
       </c>
       <c r="G240">
-        <v>-8.199999999999999</v>
+        <v>-7.9</v>
       </c>
       <c r="H240">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>2016 - (jan 2022 - des 2024)</t>
+          <t>2016 - (nov 2021 - okt 2024)</t>
         </is>
       </c>
       <c r="J240" s="2">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="K240">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L240">
         <v>2024</v>
@@ -26585,42 +27655,42 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.986773069411722</v>
+        <v>0.9910635323676144</v>
       </c>
       <c r="B241">
-        <v>-1.322693058827795</v>
+        <v>-0.8936467632385647</v>
       </c>
       <c r="C241">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D241">
-        <v>16.83588108450572</v>
+        <v>17.82818578652688</v>
       </c>
       <c r="E241">
-        <v>13.18054104364779</v>
+        <v>13.23457161834859</v>
       </c>
       <c r="F241">
-        <v>3.21229419619102</v>
+        <v>3.134413670943657</v>
       </c>
       <c r="G241">
-        <v>-8</v>
+        <v>-7.4</v>
       </c>
       <c r="H241">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>2016 - (feb 2022 - jan 2025)</t>
+          <t>2016 - (des 2021 - nov 2024)</t>
         </is>
       </c>
       <c r="J241" s="2">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="K241">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L241">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M241" t="inlineStr">
         <is>
@@ -26630,10 +27700,10 @@
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.988244441055927</v>
+        <v>0.9849813205874506</v>
       </c>
       <c r="B242">
-        <v>-1.175555894407299</v>
+        <v>-1.501867941254942</v>
       </c>
       <c r="C242">
         <v>20</v>
@@ -26642,30 +27712,30 @@
         <v>16.83588108450572</v>
       </c>
       <c r="E242">
-        <v>13.20352448139742</v>
+        <v>13.1732117320752</v>
       </c>
       <c r="F242">
-        <v>3.217895602343253</v>
+        <v>3.210507933779732</v>
       </c>
       <c r="G242">
-        <v>-7.9</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="H242">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>2016 - (mar 2022 - feb 2025)</t>
+          <t>2016 - (jan 2022 - des 2024)</t>
         </is>
       </c>
       <c r="J242" s="2">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="K242">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L242">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M242" t="inlineStr">
         <is>
@@ -26675,39 +27745,39 @@
     </row>
     <row r="243">
       <c r="A243">
-        <v>0.9913817804742887</v>
+        <v>0.986773069411722</v>
       </c>
       <c r="B243">
-        <v>-0.861821952571129</v>
+        <v>-1.322693058827795</v>
       </c>
       <c r="C243">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D243">
-        <v>15.91069786421691</v>
+        <v>16.83588108450572</v>
       </c>
       <c r="E243">
-        <v>13.71862388442884</v>
+        <v>13.18054104364779</v>
       </c>
       <c r="F243">
-        <v>3.439267336008514</v>
+        <v>3.21229419619102</v>
       </c>
       <c r="G243">
-        <v>-8.1</v>
+        <v>-8</v>
       </c>
       <c r="H243">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>2016 - (apr 2022 - mar 2025)</t>
+          <t>2016 - (feb 2022 - jan 2025)</t>
         </is>
       </c>
       <c r="J243" s="2">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="K243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L243">
         <v>2025</v>
@@ -26720,39 +27790,39 @@
     </row>
     <row r="244">
       <c r="A244">
-        <v>0.9926261221991188</v>
+        <v>0.988244441055927</v>
       </c>
       <c r="B244">
-        <v>-0.7373877800881168</v>
+        <v>-1.175555894407299</v>
       </c>
       <c r="C244">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D244">
-        <v>15.91069786421691</v>
+        <v>16.83588108450572</v>
       </c>
       <c r="E244">
-        <v>13.72914657808078</v>
+        <v>13.20352448139742</v>
       </c>
       <c r="F244">
-        <v>3.441905381695081</v>
+        <v>3.217895602343253</v>
       </c>
       <c r="G244">
-        <v>-8</v>
+        <v>-7.9</v>
       </c>
       <c r="H244">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>2016 - (mai 2022 - apr 2025)</t>
+          <t>2016 - (mar 2022 - feb 2025)</t>
         </is>
       </c>
       <c r="J244" s="2">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="K244">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L244">
         <v>2025</v>
@@ -26765,39 +27835,39 @@
     </row>
     <row r="245">
       <c r="A245">
-        <v>1.002867322313853</v>
+        <v>0.9913817804742887</v>
       </c>
       <c r="B245">
-        <v>0.2867322313853338</v>
+        <v>-0.861821952571129</v>
       </c>
       <c r="C245">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D245">
-        <v>16.88220645671328</v>
+        <v>15.91069786421691</v>
       </c>
       <c r="E245">
-        <v>13.75160282941133</v>
+        <v>13.71862388442884</v>
       </c>
       <c r="F245">
-        <v>3.346869024607817</v>
+        <v>3.439267336008514</v>
       </c>
       <c r="G245">
-        <v>-6.7</v>
+        <v>-8.1</v>
       </c>
       <c r="H245">
-        <v>7.3</v>
+        <v>6.4</v>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>2016 - (jun 2022 - mai 2025)</t>
+          <t>2016 - (apr 2022 - mar 2025)</t>
         </is>
       </c>
       <c r="J245" s="2">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="K245">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L245">
         <v>2025</v>
@@ -26810,39 +27880,39 @@
     </row>
     <row r="246">
       <c r="A246">
-        <v>1.002852969785233</v>
+        <v>0.9926261221991188</v>
       </c>
       <c r="B246">
-        <v>0.2852969785233084</v>
+        <v>-0.7373877800881168</v>
       </c>
       <c r="C246">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D246">
-        <v>16.88220645671328</v>
+        <v>15.91069786421691</v>
       </c>
       <c r="E246">
-        <v>13.67014283847969</v>
+        <v>13.72914657808078</v>
       </c>
       <c r="F246">
-        <v>3.327043268746773</v>
+        <v>3.441905381695081</v>
       </c>
       <c r="G246">
-        <v>-6.7</v>
+        <v>-8</v>
       </c>
       <c r="H246">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>2016 - (jul 2022 - jun 2025)</t>
+          <t>2016 - (mai 2022 - apr 2025)</t>
         </is>
       </c>
       <c r="J246" s="2">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="K246">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L246">
         <v>2025</v>
@@ -26855,10 +27925,10 @@
     </row>
     <row r="247">
       <c r="A247">
-        <v>1.004483709402807</v>
+        <v>1.002867322313853</v>
       </c>
       <c r="B247">
-        <v>0.4483709402806513</v>
+        <v>0.2867322313853338</v>
       </c>
       <c r="C247">
         <v>20</v>
@@ -26867,27 +27937,27 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E247">
-        <v>13.64715092733889</v>
+        <v>13.75160282941133</v>
       </c>
       <c r="F247">
-        <v>3.321447490845952</v>
+        <v>3.346869024607817</v>
       </c>
       <c r="G247">
-        <v>-6.5</v>
+        <v>-6.7</v>
       </c>
       <c r="H247">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>2016 - (aug 2022 - jul 2025)</t>
+          <t>2016 - (jun 2022 - mai 2025)</t>
         </is>
       </c>
       <c r="J247" s="2">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="K247">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L247">
         <v>2025</v>
@@ -26900,10 +27970,10 @@
     </row>
     <row r="248">
       <c r="A248">
-        <v>1.005242001331571</v>
+        <v>1.002852969785233</v>
       </c>
       <c r="B248">
-        <v>0.5242001331571489</v>
+        <v>0.2852969785233084</v>
       </c>
       <c r="C248">
         <v>20</v>
@@ -26912,27 +27982,27 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E248">
-        <v>13.63018202439119</v>
+        <v>13.67014283847969</v>
       </c>
       <c r="F248">
-        <v>3.317317594399573</v>
+        <v>3.327043268746773</v>
       </c>
       <c r="G248">
-        <v>-6.4</v>
+        <v>-6.7</v>
       </c>
       <c r="H248">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>2016 - (sep 2022 - aug 2025)</t>
+          <t>2016 - (jul 2022 - jun 2025)</t>
         </is>
       </c>
       <c r="J248" s="2">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="K248">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L248">
         <v>2025</v>
@@ -26945,10 +28015,10 @@
     </row>
     <row r="249">
       <c r="A249">
-        <v>1.006143021183837</v>
+        <v>1.004483709402807</v>
       </c>
       <c r="B249">
-        <v>0.6143021183836916</v>
+        <v>0.4483709402806513</v>
       </c>
       <c r="C249">
         <v>20</v>
@@ -26957,27 +28027,27 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E249">
-        <v>13.57201197384196</v>
+        <v>13.64715092733889</v>
       </c>
       <c r="F249">
-        <v>3.3031601508813</v>
+        <v>3.321447490845952</v>
       </c>
       <c r="G249">
-        <v>-6.3</v>
+        <v>-6.5</v>
       </c>
       <c r="H249">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>2016 - (okt 2022 - sep 2025)</t>
+          <t>2016 - (aug 2022 - jul 2025)</t>
         </is>
       </c>
       <c r="J249" s="2">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="K249">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L249">
         <v>2025</v>
@@ -26990,10 +28060,10 @@
     </row>
     <row r="250">
       <c r="A250">
-        <v>1.007847251063697</v>
+        <v>1.005242001331571</v>
       </c>
       <c r="B250">
-        <v>0.7847251063696881</v>
+        <v>0.5242001331571489</v>
       </c>
       <c r="C250">
         <v>20</v>
@@ -27002,32 +28072,167 @@
         <v>16.88220645671328</v>
       </c>
       <c r="E250">
-        <v>13.53184871971395</v>
+        <v>13.63018202439119</v>
       </c>
       <c r="F250">
-        <v>3.293385206619459</v>
+        <v>3.317317594399573</v>
       </c>
       <c r="G250">
-        <v>-6.1</v>
+        <v>-6.4</v>
       </c>
       <c r="H250">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>2016 - (nov 2022 - okt 2025)</t>
+          <t>2016 - (sep 2022 - aug 2025)</t>
         </is>
       </c>
       <c r="J250" s="2">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="K250">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L250">
         <v>2025</v>
       </c>
       <c r="M250" t="inlineStr">
+        <is>
+          <t>36_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251">
+        <v>1.006143021183837</v>
+      </c>
+      <c r="B251">
+        <v>0.6143021183836916</v>
+      </c>
+      <c r="C251">
+        <v>20</v>
+      </c>
+      <c r="D251">
+        <v>16.88220645671328</v>
+      </c>
+      <c r="E251">
+        <v>13.57201197384196</v>
+      </c>
+      <c r="F251">
+        <v>3.3031601508813</v>
+      </c>
+      <c r="G251">
+        <v>-6.3</v>
+      </c>
+      <c r="H251">
+        <v>7.5</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>2016 - (okt 2022 - sep 2025)</t>
+        </is>
+      </c>
+      <c r="J251" s="2">
+        <v>45901</v>
+      </c>
+      <c r="K251">
+        <v>9</v>
+      </c>
+      <c r="L251">
+        <v>2025</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>36_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252">
+        <v>1.007847251063697</v>
+      </c>
+      <c r="B252">
+        <v>0.7847251063696881</v>
+      </c>
+      <c r="C252">
+        <v>20</v>
+      </c>
+      <c r="D252">
+        <v>16.88220645671328</v>
+      </c>
+      <c r="E252">
+        <v>13.53184871971395</v>
+      </c>
+      <c r="F252">
+        <v>3.293385206619459</v>
+      </c>
+      <c r="G252">
+        <v>-6.1</v>
+      </c>
+      <c r="H252">
+        <v>7.7</v>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>2016 - (nov 2022 - okt 2025)</t>
+        </is>
+      </c>
+      <c r="J252" s="2">
+        <v>45931</v>
+      </c>
+      <c r="K252">
+        <v>10</v>
+      </c>
+      <c r="L252">
+        <v>2025</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>36_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253">
+        <v>1.008580691854944</v>
+      </c>
+      <c r="B253">
+        <v>0.858069185494359</v>
+      </c>
+      <c r="C253">
+        <v>20</v>
+      </c>
+      <c r="D253">
+        <v>16.88220645671328</v>
+      </c>
+      <c r="E253">
+        <v>13.51647650044483</v>
+      </c>
+      <c r="F253">
+        <v>3.289643911502845</v>
+      </c>
+      <c r="G253">
+        <v>-6</v>
+      </c>
+      <c r="H253">
+        <v>7.7</v>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>2016 - (des 2022 - nov 2025)</t>
+        </is>
+      </c>
+      <c r="J253" s="2">
+        <v>45962</v>
+      </c>
+      <c r="K253">
+        <v>11</v>
+      </c>
+      <c r="L253">
+        <v>2025</v>
+      </c>
+      <c r="M253" t="inlineStr">
         <is>
           <t>36_months</t>
         </is>
